--- a/GenshinUID/genshinuid_adv/Genshin All Char.xlsx
+++ b/GenshinUID/genshinuid_adv/Genshin All Char.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="415">
   <si>
     <t>角色</t>
   </si>
@@ -289,11 +289,16 @@
   </si>
   <si>
     <t>对初始角色空和荧两兄妹的统称。根据玩家选择，自机一方将踏上寻找血亲之路，另一方将隶属于深渊教团。
-身份：外来的异乡人，小可爱，进化出智商的丘丘人，荣誉骑士，大黄金钓鱼手，臭保底人（误），等等；
+身份：外来的异乡人，小可爱，进化出智商的丘丘人，荣誉骑士，臭保底人（误），等等；
 绰号很多，在国内空常称为龙哥，荧常称为爷</t>
   </si>
   <si>
     <t>旅行者岩</t>
+  </si>
+  <si>
+    <t>对初始角色空和荧两兄妹的统称。根据玩家选择，自机一方将踏上寻找血亲之路，另一方将隶属于深渊教团。
+身份：外来的异乡人，通缉令上的，臭保底人（误），岩王帝君的化身，等等；
+绰号很多，在国内空常称为龙哥，荧常称为爷</t>
   </si>
   <si>
     <t>北斗</t>
@@ -443,7 +448,7 @@
     <t>鸦羽弓</t>
   </si>
   <si>
-    <t>又名巴巴托斯，尘世七执政之一的风神，
+    <t>巴巴托斯，尘世七执政之一的风神，
 唯一任次七神暨男神之二，旅行者在提瓦特遇到的第一位尘世七执政；喜食苹果酒，对猫毛过敏，
 身份吟游诗人，四风守护的领导人，米哈游画女硬说男的典范（误），
 人送外号卖唱的，摸鱼神，诶嘿摸鱼真君/不务正业真君，巴巴脱丝</t>
@@ -472,6 +477,9 @@
     <t>嘟嘟可故事集</t>
   </si>
   <si>
+    <t>图莱杜拉的回忆</t>
+  </si>
+  <si>
     <t>达达利亚/
 「公子」</t>
   </si>
@@ -515,7 +523,7 @@
     <t>黑缨枪</t>
   </si>
   <si>
-    <t>又名摩拉克斯，尘世七执政之一的岩神；
+    <t>摩拉克斯，尘世七执政之一的岩神；
 唯一任次七神暨男神之二；厌恶水产品，
 身份岩王帝君/岩王爷，众仙之祖，「往生堂」客卿，听书人；
 外号帝君，不带钱包真君</t>
@@ -580,6 +588,9 @@
     <t>黑岩长枪</t>
   </si>
   <si>
+    <t>众王之都的开端</t>
+  </si>
+  <si>
     <t>又名金鹏，号「金鹏翅王」，人称「降魔大圣」，「护法仙众夜叉 」成员之一，原神“璃月三c”成员之一，钟离的友人暨下属，喜食杏仁豆腐；
 人送外号魈上仙，提瓦特打桩机，抬头不见低头见真君（大误）</t>
   </si>
@@ -644,17 +655,25 @@
     <t>枫原万叶</t>
   </si>
   <si>
-    <t>铁蜂刺</t>
+    <t>西福斯的月光</t>
   </si>
   <si>
     <t>稻妻出身的浪人武士，现为「南十字」船队成员；
 人送外号叶天帝，稻妻飞行冠军，精神璃月人（误）</t>
   </si>
   <si>
+    <t>铁蜂刺</t>
+  </si>
+  <si>
     <t>旅行者雷</t>
   </si>
   <si>
     <t>圣遗物选择上，充能词条比套装效果重要；</t>
+  </si>
+  <si>
+    <t>对初始角色空和荧两兄妹的统称。根据玩家选择，自机一方将踏上寻找血亲之路，另一方将隶属于深渊教团。
+身份：外来的异乡人，眼狩令上的，臭保底人（误），大黄金钓鱼手，小家伙，金毛人/黄毛阿姨（误），等等；
+绰号很多，在国内空常称为龙哥，荧常称为爷</t>
   </si>
   <si>
     <t>神里绫华</t>
@@ -693,6 +712,9 @@
 人送外号柚岩龙蜥，泥头车，小狸猫</t>
   </si>
   <si>
+    <t>玛海菈的水色</t>
+  </si>
+  <si>
     <t>西风大剑</t>
   </si>
   <si>
@@ -718,7 +740,7 @@
     <t>断浪长鳍</t>
   </si>
   <si>
-    <t>此身，代表巴尔泽布，尘世七执政之一的雷神；
+    <t>此身，代表巴尔泽布，尘世七执政成员之一，现任雷神；
 身世复杂，可公开身份「御建鸣神主尊大御所大人」；
 似乎对甜食感兴趣；
 常称呼为雷神，人送外号煮饭婆，雷军（误），土妹子</t>
@@ -806,6 +828,9 @@
 人送外号屑狐狸，雷丘丘萨满，尘歌狐</t>
   </si>
   <si>
+    <t>千夜浮梦</t>
+  </si>
+  <si>
     <t>饰金之梦</t>
   </si>
   <si>
@@ -857,10 +882,16 @@
 荒泷一斗外置大脑，考证狂魔</t>
   </si>
   <si>
+    <t>圣显之钥</t>
+  </si>
+  <si>
     <t>被怜爱的少女/海染砗磲</t>
   </si>
   <si>
     <t>千岩牢固/流浪大地的乐团</t>
+  </si>
+  <si>
+    <t>月女的华彩</t>
   </si>
   <si>
     <t>鹿野院平藏</t>
@@ -880,7 +911,7 @@
   </si>
   <si>
     <t>对初始角色空和荧两兄妹的统称。根据玩家选择，自机一方将踏上寻找血亲之路，另一方将隶属于深渊教团。
-身份：外来的异乡人，小可爱，进化出智商的丘丘人，荣誉骑士，大黄金钓鱼手，臭保底人（误），等等；
+身份：外来的异乡人，臭保底人（误），那菈法留纳，大黄倭瓜那菈（误），降临者，最初的贤者，等等；
 绰号很多，在国内空常称为龙哥，荧常称为爷；</t>
   </si>
   <si>
@@ -905,7 +936,7 @@
     <t>道成林见习巡林员，跟从提纳里，为人热情但内向，与蒙德西风骑士团（尤其是安柏）存在某种羁绊；</t>
   </si>
   <si>
-    <t>原神官方漫画登场角色，「冬夜愚戏」pv出场角色；</t>
+    <t>原神官方漫画登场角色；</t>
   </si>
   <si>
     <t>又称须弥飞行冠军</t>
@@ -927,17 +958,13 @@
     <t>钟剑</t>
   </si>
   <si>
-    <t>妮露
-（待测试）</t>
-  </si>
-  <si>
-    <t>圣显之钥</t>
-  </si>
-  <si>
-    <t>英文名Nilou，少女，五星水单手剑；在须弥追求舞蹈，艺术和演出的舞女；</t>
-  </si>
-  <si>
-    <t>3.1版本实装角色；</t>
+    <t>妮露</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 隶属于祖拜尔剧场，在须弥追求舞蹈，艺术和演出的知名舞者；</t>
+  </si>
+  <si>
+    <t>饰金之梦/流浪大地的乐团</t>
   </si>
   <si>
     <t>人送外号红牛（误）；</t>
@@ -946,75 +973,94 @@
     <t>满命前的圣遗物建议死堆生命</t>
   </si>
   <si>
-    <t>赛诺
-（待测试）</t>
+    <t>赛诺</t>
   </si>
   <si>
     <t>赤沙之杖</t>
   </si>
   <si>
-    <t>英文名Cyno，少年，五星雷枪，原神官方漫画登场角色暨原神足迹PV立绘公开角色之一，3.1版本实装；穿着清凉的须弥大风纪官；</t>
-  </si>
-  <si>
-    <t>代称“恋爱循环”（冷笑话）：せーの（see no）~</t>
-  </si>
-  <si>
-    <t>仅推荐满命后4如雷</t>
-  </si>
-  <si>
-    <t>坎蒂丝
-（待测试）</t>
-  </si>
-  <si>
-    <t>英文名Candace，曾用代号“Cleo/Kandake”，成女，四星水长枪；</t>
-  </si>
-  <si>
-    <t>3.1版本实装角色</t>
-  </si>
-  <si>
-    <t>纳西妲
-（待实装）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">英文名Nahida/Kusanali，萝莉，五星草法；
-</t>
-  </si>
-  <si>
-    <t>传言3.2版本实装；</t>
-  </si>
-  <si>
-    <t>官方称其为「神秘少女」，实际作为小吉祥草王本王，早在2.8版本活动中就初次亮相；或许是第一个主动向旅行者伸出援手的尘世七执政；</t>
-  </si>
-  <si>
-    <t>又名草神，须弥羽球（误）</t>
-  </si>
-  <si>
-    <t>雷电国崩（流浪者）/
-斯卡拉姆齐/
-「散兵」
-（待实装）</t>
-  </si>
-  <si>
-    <t>英文名Wanderer/Scaramouche/Kunikuzushi，少年，传言为五星风法；早期曾传言为雷法；</t>
-  </si>
-  <si>
-    <t>身世复杂，可公开身份为愚人众执行官第六席，曾在主线任务和活动剧情中登场；可能在未来剧情发挥重大作用；</t>
-  </si>
-  <si>
-    <t>传言3.2或3.3版本实装</t>
+    <t>穿着清凉，教令院内负责监管学者们的「大风纪官」，冷笑话大师；</t>
+  </si>
+  <si>
+    <t>谐音せーの（see no）；</t>
+  </si>
+  <si>
+    <t>坎蒂丝</t>
+  </si>
+  <si>
+    <t>异色瞳，赤王后裔，阿如村的守护者（指人形自走沙漠地区战略储备水资源，误）</t>
+  </si>
+  <si>
+    <t>纳西妲</t>
+  </si>
+  <si>
+    <t>流浪的晚星</t>
+  </si>
+  <si>
+    <t>魔导绪论</t>
+  </si>
+  <si>
+    <t>布耶尔，尘世七执政成员之一，现任草神；</t>
+  </si>
+  <si>
+    <t>盈满之实</t>
+  </si>
+  <si>
+    <t>「神秘少女」，小吉祥草王，摩诃善法大吉祥智慧主；</t>
+  </si>
+  <si>
+    <t>又名奇妙比喻真君，须弥羽球（误），扫码隔离真君（大误）</t>
+  </si>
+  <si>
+    <t>莱依拉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">千岩牢固	</t>
+  </si>
+  <si>
+    <t>须弥明论派的学生；</t>
+  </si>
+  <si>
+    <t xml:space="preserve">昔日宗室之仪	</t>
+  </si>
+  <si>
+    <t>人送外号冰深渊法师</t>
+  </si>
+  <si>
+    <t>流浪者
+（测试中）</t>
+  </si>
+  <si>
+    <t>英文名Wanderer，少年，五星风法；</t>
+  </si>
+  <si>
+    <t>攻18</t>
+  </si>
+  <si>
+    <t>身世复杂，前身为愚人众执行官第六席「散兵」；</t>
+  </si>
+  <si>
+    <t>3.3版本实装;</t>
   </si>
   <si>
     <t>外号雷大炮，试作__ __</t>
+  </si>
+  <si>
+    <t>珐露珊
+（测试中）</t>
+  </si>
+  <si>
+    <t>英文名Faruzan，女性，风系弓，少女；似乎是须弥知论派的成员；</t>
+  </si>
+  <si>
+    <t>人送外号初音未来（大误），余响套成精（误）</t>
   </si>
   <si>
     <t>迪希雅
 （待实装）</t>
   </si>
   <si>
-    <t>英文名Dehya，成女，五星火大剑；隶属于镀金旅团，身份为雇佣兵；传言33版本实装</t>
-  </si>
-  <si>
-    <t>在官方须弥前瞻短片登场的须弥卫星角色之一</t>
+    <t>英文名Dehya，成女，五星火大剑；隶属于镀金旅团的雇佣兵；传言3.5版本实装</t>
   </si>
   <si>
     <t>艾尔海森
@@ -1024,10 +1070,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>英文名Al-Haitam/Haytham/Hatham​，曾用代号“苏”，成男，五星草单手剑，传言3.3版本以后实装；初见于奥摩斯港，其本人出身于须弥教令院的「知论派」，绝对的理性主义者；</t>
-  </si>
-  <si>
-    <t>在官方须弥前瞻短片登场的须弥卫星角色之一；</t>
+    <t>英文名Alhatham，曾用代号“苏”，成男，五星草单手剑，传言3.6版本以后实装，一说3.3实装；初见于奥摩斯港，其本人出身于须弥教令院的「知论派」，绝对的理性主义者；</t>
   </si>
   <si>
     <t>又称海哥</t>
@@ -1037,11 +1080,10 @@
 （待实装）</t>
   </si>
   <si>
-    <t>英文名Baizhu，成男，五星草法；</t>
-  </si>
-  <si>
-    <t xml:space="preserve">璃月布卜庐药房掌柜，曾在主线任务和活动中登场；
-</t>
+    <t>英文名Baizhuer，成男，五星草法；传言3.6版本实装；</t>
+  </si>
+  <si>
+    <t>璃月布卜庐药房掌柜，曾在主线任务和活动中登场；</t>
   </si>
   <si>
     <t>璃月在途卫星角色；颈上所挂白蛇名为“长生”</t>
@@ -1051,17 +1093,44 @@
 （待实装）</t>
   </si>
   <si>
-    <t>英文名Yaoyao，萝莉，香菱的师妹；传言草系法器，早期曾有草系长枪的说法；</t>
+    <t>英文名Yaoyao，萝莉，香菱的师妹；传言3.4版本实装；草系长枪，一说为草系法器；</t>
   </si>
   <si>
     <t>原神CBT八骏图最后一位未实装角色，璃月在途卫星角色</t>
   </si>
   <si>
-    <t>Mika
+    <t>米卡
+（待实装）</t>
+  </si>
+  <si>
+    <t>英文名Mika，少年，传言四星冰枪，蒙德在途卫星角色；可能是奶妈定位；</t>
+  </si>
+  <si>
+    <t>西风骑士团游击小队测绘员，蒙德远征队前侦骨干，3.1活动作为法尔伽的传话人登场</t>
+  </si>
+  <si>
+    <t>人送外号镜音连（大误）</t>
+  </si>
+  <si>
+    <t>卡维
+（待实装）</t>
+  </si>
+  <si>
+    <t>英文名Kaveh/Kavi，成男，传言为草系大剑；</t>
+  </si>
+  <si>
+    <t>妙论派学者，须弥知名建筑师，卡萨扎莱宫的设计者；似乎因为负债累累，现阶段借宿于艾尔海森的住所</t>
+  </si>
+  <si>
+    <t>多托雷/
+「博士」
 （待证实）</t>
   </si>
   <si>
-    <t>英文名Mika，男性，可能的蒙德在途卫星角色</t>
+    <t>代号Dottore/the Doctor，成男，传言为大剑；</t>
+  </si>
+  <si>
+    <t>愚人众执行官第二席，自机可能性较高；早期曾有3.6版本实装的说法</t>
   </si>
   <si>
     <t>杰吉特
@@ -1071,7 +1140,7 @@
     <t>英文名Djajeet，男性</t>
   </si>
   <si>
-    <t>可能的须弥在途卫星角色之一</t>
+    <t>可能的蒙德在途卫星角色</t>
   </si>
   <si>
     <t>纳芙丝
@@ -1081,6 +1150,9 @@
     <t>英文名Nafs，女性</t>
   </si>
   <si>
+    <t>可能的须弥在途卫星角色之一</t>
+  </si>
+  <si>
     <t>伊赫法
 （待证实）</t>
   </si>
@@ -1091,27 +1163,6 @@
     <t>可能的须弥在途卫星角色之一，可能在3.6登场</t>
   </si>
   <si>
-    <t>莱依拉
-（待证实）</t>
-  </si>
-  <si>
-    <t>英文名Lyala，女性，传言为四星冰单手剑，少女体型</t>
-  </si>
-  <si>
-    <t>坎蒂丝
-（待证实）</t>
-  </si>
-  <si>
-    <t>英文名Candace，曾用代号“Cleo/Kandake”，女性，传言为四星水长枪，成女体型</t>
-  </si>
-  <si>
-    <t>Faruzan
-（待证实）</t>
-  </si>
-  <si>
-    <t>英文名Faruzan，女性，传言为风系弓，少女体型</t>
-  </si>
-  <si>
     <t>苏蒂娜
 （待证实）</t>
   </si>
@@ -1119,16 +1170,6 @@
     <t>英文名Soutine，女性；</t>
   </si>
   <si>
-    <t>卡维
-（待证实）</t>
-  </si>
-  <si>
-    <t>英文名Kavi，男性；</t>
-  </si>
-  <si>
-    <t>在部分须弥角色语音中被提及，可能的须弥在途卫星之一；身为须弥的建筑师，似乎因为负债累累，现阶段借宿于艾尔海森的住所</t>
-  </si>
-  <si>
     <t>普尔希纳
 （待证实）</t>
   </si>
@@ -1139,11 +1180,26 @@
     <t>可能的卫星角色，国籍不明</t>
   </si>
   <si>
-    <t>旅行者（水）
+    <t>旅行者水
 （待实装）</t>
   </si>
   <si>
+    <t>对初始角色空和荧两兄妹的统称。根据玩家选择，自机一方将踏上寻找血亲之路，另一方将隶属于深渊教团。
+身份：外来的异乡人，小可爱，进化出智商的丘丘人，荣誉骑士，大黄金钓鱼手，臭保底人（误），等等；
+绰号很多，在国内空常称为龙哥，荧常称为爷</t>
+  </si>
+  <si>
     <t>枫丹卫星角色之一</t>
+  </si>
+  <si>
+    <t>芙卡洛斯（弗加洛）/那维莱特
+（待证实）</t>
+  </si>
+  <si>
+    <t>英文名Focalor，女性；</t>
+  </si>
+  <si>
+    <t>水神占位符</t>
   </si>
   <si>
     <t>丝柯克
@@ -1153,7 +1209,17 @@
     <t>英文名Skirk，性别与国籍均未知</t>
   </si>
   <si>
-    <t>传言为达达利亚之师傅，有可能在3.5-3.6登场</t>
+    <t>传言其身份是达达利亚的师傅，有可能在3.5-3.6登场</t>
+  </si>
+  <si>
+    <t>艾莉丝
+（待证实）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">英文名Alice，女性； </t>
+  </si>
+  <si>
+    <t>既是可莉的母亲，也是提瓦特最爱玩的冒险家，同时还是《提瓦特游览指南》的作者</t>
   </si>
   <si>
     <t>林尼 &amp; 琳妮特
@@ -1166,11 +1232,18 @@
     <t>【存疑】参考木偶师与提线木偶之间的关系，或许就可以理解这个角色的双子设定...</t>
   </si>
   <si>
-    <t>旅行者（火）
+    <t>旅行者火
 （待实装）</t>
   </si>
   <si>
     <t>纳塔卫星角色之一</t>
+  </si>
+  <si>
+    <t>艾尼？
+（待证实）</t>
+  </si>
+  <si>
+    <t>英文名Aym/Aim，火神占位符</t>
   </si>
   <si>
     <t>伊安珊
@@ -1180,11 +1253,18 @@
     <t>英文名Iansan，原神足迹PV立绘公开角色之一</t>
   </si>
   <si>
-    <t>旅行者（冰）
+    <t>旅行者冰
 （待实装）</t>
   </si>
   <si>
     <t>至冬卫星角色之一</t>
+  </si>
+  <si>
+    <t>巴纳巴斯
+（待证实）</t>
+  </si>
+  <si>
+    <t>英文名Barnabas/Tsaritsa，冰神占位符</t>
   </si>
   <si>
     <t>普契涅拉/
@@ -1195,14 +1275,14 @@
     <t>代号Pulcinella/the Rooster，原神足迹PV立绘公开角色之一</t>
   </si>
   <si>
-    <t>愚人众执行官之一</t>
+    <t>愚人众执行官第五席</t>
   </si>
   <si>
     <t>戴因斯雷布
 （待证实）</t>
   </si>
   <si>
-    <t>英文名Dáinsleif，原神足迹PV立绘公开角色之一</t>
+    <t>英文名Dáinsleif，原神足迹PV立绘公开角色之一，传言为单手剑；</t>
   </si>
   <si>
     <t>原神主线任务登场，坎瑞亚遗民之一，原神PV拾枝杂谈讲解人</t>
@@ -1212,10 +1292,10 @@
 （待证实）</t>
   </si>
   <si>
-    <t>英文名Varka，男性</t>
-  </si>
-  <si>
-    <t>蒙德西风骑士团团长，可能的卫星角色</t>
+    <t>英文名Varka，男性，根据官方描述可能是成男体型；</t>
+  </si>
+  <si>
+    <t>蒙德西风骑士团团长，蒙德远征军大团长，可能的蒙德卫星角色</t>
   </si>
   <si>
     <t>阿葵丽雅
@@ -1236,7 +1316,7 @@
     <t>代号Capitano/Captain，男性，传言五星，成男</t>
   </si>
   <si>
-    <t>愚人众执行官之一，可能在3.7登场</t>
+    <t>愚人众执行官第四席，可能在3.7登场</t>
   </si>
   <si>
     <t>阿蕾奇诺/
@@ -1244,7 +1324,10 @@
 （待证实）</t>
   </si>
   <si>
-    <t>代号Arlecchino</t>
+    <t>代号Arlecchino/the Knave</t>
+  </si>
+  <si>
+    <t>愚人众执行官第十席</t>
   </si>
   <si>
     <t>潘塔罗涅/
@@ -1255,18 +1338,7 @@
     <t>代号Pantalone/Regrator</t>
   </si>
   <si>
-    <t>愚人众执行官之一，第九席，在夜兰的角色故事和传说任务中被提及，传言3.0版本登场</t>
-  </si>
-  <si>
-    <t>多托雷/
-「博士」
-（待证实）</t>
-  </si>
-  <si>
-    <t>代号Dottore/the Doctor，男性，传言五星</t>
-  </si>
-  <si>
-    <t>愚人众执行官之一，可能在3.6版本登场</t>
+    <t>愚人众执行官第九席，在夜兰的角色故事和传说任务中被提及</t>
   </si>
   <si>
     <t>桑多涅/
@@ -1277,7 +1349,7 @@
     <t>代号Sandrone/Marionette，女性，传言五星，成女体型；</t>
   </si>
   <si>
-    <t>愚人众执行官之一，可能在4.0版本及以后登场（枫丹）</t>
+    <t>愚人众执行官第七席，可能在4.0版本及以后登场</t>
   </si>
   <si>
     <t>皮耶罗/
@@ -1288,31 +1360,18 @@
     <t>代号Pierro/the Jester，男性</t>
   </si>
   <si>
+    <t>愚人众执行官首席</t>
+  </si>
+  <si>
     <t>哥伦比娅/
 「少女」
 （待证实）</t>
   </si>
   <si>
-    <t>无疑酱
-（彩蛋）</t>
-  </si>
-  <si>
-    <t>阿信</t>
-  </si>
-  <si>
-    <t>英文名KimigaiiWuyi</t>
-  </si>
-  <si>
-    <t>小仙</t>
-  </si>
-  <si>
-    <t>Wuyi，yyds</t>
-  </si>
-  <si>
-    <t>英文名Mika，男性，传言少年体型，冰系神之眼</t>
-  </si>
-  <si>
-    <t>外貌可以简单理解成班尼特和优菈的结合：短金发蓝瞳，佩戴类似优菈设计的领带和胸针；可能的蒙德卫星角色；法尔伽的传话人？</t>
+    <t>代号Columbina/Damselette，女性</t>
+  </si>
+  <si>
+    <t>愚人众执行官第三席</t>
   </si>
   <si>
     <t>阿斯莫德
@@ -1350,44 +1409,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="38">
+    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="179" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="180" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="181" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="182" formatCode="#\ ??"/>
+    <numFmt numFmtId="183" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="184" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="185" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="186" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="187" formatCode="yy/m/d"/>
+    <numFmt numFmtId="188" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="189" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="190" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="191" formatCode="m/d"/>
+    <numFmt numFmtId="192" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="193" formatCode="mmmmm"/>
+    <numFmt numFmtId="194" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="195" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="196" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="197" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="198" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="199" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="178" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="179" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="180" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="181" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="182" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="183" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="184" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="185" formatCode="yy/m/d"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="186" formatCode="mmmmm"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="187" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="188" formatCode="m/d"/>
-    <numFmt numFmtId="189" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="190" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="191" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="192" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="193" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="194" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="195" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="196" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="197" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="198" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="199" formatCode="#\ ??"/>
-    <numFmt numFmtId="200" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="201" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="200" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="201" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1438,6 +1497,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1459,6 +1525,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1468,7 +1572,46 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1483,74 +1626,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1558,24 +1633,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1644,13 +1703,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE7E6E6"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFE7E6E6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1662,7 +1721,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1674,13 +1757,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,127 +1883,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1822,20 +1893,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1989,6 +2048,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF595959"/>
@@ -2018,7 +2088,9 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2028,9 +2100,18 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2040,6 +2121,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2055,30 +2145,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2124,11 +2190,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2137,152 +2209,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="201" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2331,31 +2403,37 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2643,19 +2721,109 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2667,193 +2835,145 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3184,25 +3304,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H496"/>
+  <dimension ref="A1:H501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B297" sqref="B297:C299"/>
+      <selection pane="bottomLeft" activeCell="B313" sqref="B313:C315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.875" style="8" customWidth="1"/>
-    <col min="2" max="6" width="14.9916666666667" style="22" customWidth="1"/>
-    <col min="7" max="7" width="59.25" style="23" customWidth="1"/>
-    <col min="8" max="8" width="29.6666666666667" style="22" customWidth="1"/>
-    <col min="9" max="16384" width="12.625" style="22" customWidth="1"/>
+    <col min="2" max="6" width="14.9916666666667" style="24" customWidth="1"/>
+    <col min="7" max="7" width="59.25" style="25" customWidth="1"/>
+    <col min="8" max="8" width="29.6666666666667" style="24" customWidth="1"/>
+    <col min="9" max="16384" width="12.625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="49.75" customHeight="1" spans="1:7">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3217,609 +3337,609 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="53" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="49.5" spans="1:8">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="28" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="55" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:8">
-      <c r="A3" s="27"/>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:8">
-      <c r="A4" s="27"/>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="55" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="82.5" spans="1:8">
-      <c r="A5" s="27"/>
-      <c r="H5" s="54" t="s">
+      <c r="A5" s="29"/>
+      <c r="H5" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:8">
-      <c r="A6" s="28"/>
-      <c r="H6" s="53" t="s">
+      <c r="A6" s="30"/>
+      <c r="H6" s="55" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" ht="49.5" spans="1:8">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="32" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="56" t="s">
+      <c r="H7" s="58" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:7">
-      <c r="A8" s="31"/>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="32" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="57"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:7">
-      <c r="A9" s="31"/>
-      <c r="C9" s="30" t="s">
+      <c r="A9" s="33"/>
+      <c r="C9" s="32" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="32" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="57"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:7">
-      <c r="A10" s="31"/>
-      <c r="G10" s="57"/>
+      <c r="A10" s="33"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:7">
-      <c r="A11" s="32"/>
-      <c r="G11" s="57"/>
+      <c r="A11" s="34"/>
+      <c r="G11" s="59"/>
     </row>
     <row r="12" s="4" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="36" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="36" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="60" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" spans="1:7">
-      <c r="A13" s="35"/>
-      <c r="B13" s="34" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="36" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="59"/>
+      <c r="G13" s="61"/>
     </row>
     <row r="14" s="4" customFormat="1" spans="1:7">
-      <c r="A14" s="35"/>
-      <c r="B14" s="34" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="36" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="36" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="59"/>
+      <c r="G14" s="61"/>
     </row>
     <row r="15" s="4" customFormat="1" spans="1:7">
-      <c r="A15" s="35"/>
-      <c r="G15" s="59"/>
+      <c r="A15" s="37"/>
+      <c r="G15" s="61"/>
     </row>
     <row r="16" s="4" customFormat="1" spans="1:7">
-      <c r="A16" s="36"/>
-      <c r="G16" s="59"/>
+      <c r="A16" s="38"/>
+      <c r="G16" s="61"/>
     </row>
     <row r="17" s="5" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="40" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="40" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="62" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" spans="1:7">
-      <c r="A18" s="39"/>
-      <c r="C18" s="38" t="s">
+      <c r="A18" s="41"/>
+      <c r="C18" s="40" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="40" t="s">
         <v>47</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="61"/>
+      <c r="G18" s="63"/>
     </row>
     <row r="19" s="5" customFormat="1" spans="1:7">
-      <c r="A19" s="39"/>
-      <c r="E19" s="38" t="s">
+      <c r="A19" s="41"/>
+      <c r="E19" s="40" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="61"/>
+      <c r="G19" s="63"/>
     </row>
     <row r="20" s="5" customFormat="1" spans="1:7">
-      <c r="A20" s="39"/>
-      <c r="G20" s="61"/>
+      <c r="A20" s="41"/>
+      <c r="G20" s="63"/>
     </row>
     <row r="21" s="5" customFormat="1" spans="1:7">
-      <c r="A21" s="40"/>
-      <c r="G21" s="61"/>
+      <c r="A21" s="42"/>
+      <c r="G21" s="63"/>
     </row>
     <row r="22" s="6" customFormat="1" ht="66" spans="1:7">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="44" t="s">
         <v>53</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="62" t="s">
+      <c r="G22" s="64" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" s="6" customFormat="1" spans="1:7">
-      <c r="A23" s="43"/>
-      <c r="G23" s="63"/>
+      <c r="A23" s="45"/>
+      <c r="G23" s="65"/>
     </row>
     <row r="24" s="6" customFormat="1" spans="1:7">
-      <c r="A24" s="43"/>
-      <c r="G24" s="63"/>
+      <c r="A24" s="45"/>
+      <c r="G24" s="65"/>
     </row>
     <row r="25" s="6" customFormat="1" spans="1:7">
-      <c r="A25" s="43"/>
-      <c r="G25" s="63"/>
+      <c r="A25" s="45"/>
+      <c r="G25" s="65"/>
     </row>
     <row r="26" s="6" customFormat="1" spans="1:7">
-      <c r="A26" s="44"/>
-      <c r="G26" s="63"/>
+      <c r="A26" s="46"/>
+      <c r="G26" s="65"/>
     </row>
     <row r="27" s="7" customFormat="1" ht="33" spans="1:7">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="48" t="s">
         <v>57</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="64" t="s">
+      <c r="G27" s="66" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" s="7" customFormat="1" spans="1:7">
-      <c r="A28" s="47"/>
-      <c r="G28" s="65"/>
+      <c r="A28" s="49"/>
+      <c r="G28" s="67"/>
     </row>
     <row r="29" s="7" customFormat="1" spans="1:7">
-      <c r="A29" s="47"/>
-      <c r="G29" s="65"/>
+      <c r="A29" s="49"/>
+      <c r="G29" s="67"/>
     </row>
     <row r="30" s="7" customFormat="1" spans="1:7">
-      <c r="A30" s="47"/>
-      <c r="G30" s="65"/>
+      <c r="A30" s="49"/>
+      <c r="G30" s="67"/>
     </row>
     <row r="31" s="7" customFormat="1" spans="1:7">
-      <c r="A31" s="48"/>
-      <c r="G31" s="65"/>
+      <c r="A31" s="50"/>
+      <c r="G31" s="67"/>
     </row>
     <row r="32" s="6" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="62" t="s">
+      <c r="G32" s="64" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="33" s="6" customFormat="1" spans="1:7">
-      <c r="A33" s="43"/>
-      <c r="C33" s="42" t="s">
+      <c r="A33" s="45"/>
+      <c r="C33" s="44" t="s">
         <v>63</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="42" t="s">
+      <c r="F33" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="63"/>
+      <c r="G33" s="65"/>
     </row>
     <row r="34" s="6" customFormat="1" spans="1:7">
-      <c r="A34" s="43"/>
-      <c r="G34" s="63"/>
+      <c r="A34" s="45"/>
+      <c r="G34" s="65"/>
     </row>
     <row r="35" s="6" customFormat="1" spans="1:7">
-      <c r="A35" s="43"/>
-      <c r="G35" s="63"/>
+      <c r="A35" s="45"/>
+      <c r="G35" s="65"/>
     </row>
     <row r="36" s="6" customFormat="1" spans="1:7">
-      <c r="A36" s="44"/>
-      <c r="G36" s="63"/>
+      <c r="A36" s="46"/>
+      <c r="G36" s="65"/>
     </row>
     <row r="37" s="5" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="40" t="s">
         <v>51</v>
       </c>
       <c r="D37" s="5"/>
-      <c r="E37" s="38" t="s">
+      <c r="E37" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="G37" s="60" t="s">
+      <c r="G37" s="62" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="38" s="5" customFormat="1" spans="1:7">
-      <c r="A38" s="39"/>
-      <c r="B38" s="38" t="s">
+      <c r="A38" s="41"/>
+      <c r="B38" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="40" t="s">
         <v>33</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="61"/>
+      <c r="G38" s="63"/>
     </row>
     <row r="39" s="5" customFormat="1" spans="1:7">
-      <c r="A39" s="39"/>
-      <c r="B39" s="38" t="s">
+      <c r="A39" s="41"/>
+      <c r="B39" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="40" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="61"/>
+      <c r="G39" s="63"/>
     </row>
     <row r="40" s="5" customFormat="1" spans="1:7">
-      <c r="A40" s="39"/>
-      <c r="G40" s="61"/>
+      <c r="A40" s="41"/>
+      <c r="G40" s="63"/>
     </row>
     <row r="41" s="5" customFormat="1" spans="1:7">
-      <c r="A41" s="40"/>
-      <c r="G41" s="61"/>
+      <c r="A41" s="42"/>
+      <c r="G41" s="63"/>
     </row>
     <row r="42" s="3" customFormat="1" ht="33" spans="1:7">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="32" t="s">
         <v>46</v>
       </c>
       <c r="D42" s="3"/>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="32" t="s">
         <v>28</v>
       </c>
       <c r="F42" s="3"/>
-      <c r="G42" s="56" t="s">
+      <c r="G42" s="58" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="43" s="3" customFormat="1" spans="1:7">
-      <c r="A43" s="31"/>
-      <c r="C43" s="30" t="s">
+      <c r="A43" s="33"/>
+      <c r="C43" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="32" t="s">
         <v>74</v>
       </c>
       <c r="F43" s="3"/>
-      <c r="G43" s="57"/>
+      <c r="G43" s="59"/>
     </row>
     <row r="44" s="3" customFormat="1" spans="1:7">
-      <c r="A44" s="31"/>
-      <c r="G44" s="57"/>
+      <c r="A44" s="33"/>
+      <c r="G44" s="59"/>
     </row>
     <row r="45" s="3" customFormat="1" spans="1:7">
-      <c r="A45" s="31"/>
-      <c r="G45" s="57"/>
+      <c r="A45" s="33"/>
+      <c r="G45" s="59"/>
     </row>
     <row r="46" s="3" customFormat="1" spans="1:7">
-      <c r="A46" s="32"/>
-      <c r="G46" s="57"/>
+      <c r="A46" s="34"/>
+      <c r="G46" s="59"/>
     </row>
     <row r="47" s="4" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="36" t="s">
         <v>46</v>
       </c>
       <c r="D47" s="4"/>
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="36" t="s">
         <v>30</v>
       </c>
       <c r="F47" s="4"/>
-      <c r="G47" s="58" t="s">
+      <c r="G47" s="60" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="48" s="4" customFormat="1" spans="1:7">
-      <c r="A48" s="35"/>
-      <c r="B48" s="34" t="s">
+      <c r="A48" s="37"/>
+      <c r="B48" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="36" t="s">
         <v>78</v>
       </c>
       <c r="D48" s="4"/>
-      <c r="E48" s="34" t="s">
+      <c r="E48" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="34" t="s">
+      <c r="F48" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G48" s="59"/>
+      <c r="G48" s="61"/>
     </row>
     <row r="49" s="4" customFormat="1" spans="1:7">
-      <c r="A49" s="35"/>
-      <c r="B49" s="34" t="s">
+      <c r="A49" s="37"/>
+      <c r="B49" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="36" t="s">
         <v>81</v>
       </c>
       <c r="D49" s="4"/>
-      <c r="E49" s="34" t="s">
+      <c r="E49" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="34" t="s">
+      <c r="F49" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="G49" s="59"/>
+      <c r="G49" s="61"/>
     </row>
     <row r="50" s="4" customFormat="1" spans="1:7">
-      <c r="A50" s="35"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="36" t="s">
         <v>83</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="34" t="s">
+      <c r="E50" s="36" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="4"/>
-      <c r="G50" s="59"/>
+      <c r="G50" s="61"/>
     </row>
     <row r="51" s="4" customFormat="1" spans="1:7">
-      <c r="A51" s="36"/>
-      <c r="E51" s="34" t="s">
+      <c r="A51" s="38"/>
+      <c r="E51" s="36" t="s">
         <v>48</v>
       </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="59"/>
+      <c r="G51" s="61"/>
     </row>
     <row r="52" s="7" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A52" s="49" t="s">
+      <c r="A52" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="48" t="s">
         <v>60</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D52" s="7"/>
-      <c r="E52" s="46" t="s">
+      <c r="E52" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="46" t="s">
+      <c r="F52" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="G52" s="64" t="s">
+      <c r="G52" s="66" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="53" s="7" customFormat="1" spans="1:7">
-      <c r="A53" s="47"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="65"/>
+      <c r="A53" s="49"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="67"/>
     </row>
     <row r="54" s="7" customFormat="1" spans="1:7">
-      <c r="A54" s="47"/>
-      <c r="G54" s="65"/>
+      <c r="A54" s="49"/>
+      <c r="G54" s="67"/>
     </row>
     <row r="55" s="7" customFormat="1" spans="1:7">
-      <c r="A55" s="47"/>
-      <c r="G55" s="65"/>
+      <c r="A55" s="49"/>
+      <c r="G55" s="67"/>
     </row>
     <row r="56" s="7" customFormat="1" spans="1:7">
-      <c r="A56" s="48"/>
-      <c r="G56" s="65"/>
+      <c r="A56" s="50"/>
+      <c r="G56" s="67"/>
     </row>
     <row r="57" s="5" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="52" t="s">
         <v>86</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="C57" s="40" t="s">
         <v>29</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F57" s="38" t="s">
+      <c r="F57" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="G57" s="60" t="s">
-        <v>85</v>
+      <c r="G57" s="62" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="58" s="5" customFormat="1" spans="1:7">
-      <c r="A58" s="39"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="61"/>
+      <c r="A58" s="41"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="63"/>
     </row>
     <row r="59" s="5" customFormat="1" spans="1:7">
-      <c r="A59" s="39"/>
-      <c r="G59" s="61"/>
+      <c r="A59" s="41"/>
+      <c r="G59" s="63"/>
     </row>
     <row r="60" s="5" customFormat="1" spans="1:7">
-      <c r="A60" s="39"/>
-      <c r="G60" s="61"/>
+      <c r="A60" s="41"/>
+      <c r="G60" s="63"/>
     </row>
     <row r="61" s="5" customFormat="1" spans="1:7">
-      <c r="A61" s="40"/>
-      <c r="G61" s="61"/>
+      <c r="A61" s="42"/>
+      <c r="G61" s="63"/>
     </row>
     <row r="62" s="4" customFormat="1" ht="66" spans="1:7">
-      <c r="A62" s="35" t="s">
-        <v>87</v>
+      <c r="A62" s="37" t="s">
+        <v>88</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>71</v>
@@ -3830,12 +3950,12 @@
       <c r="E62" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G62" s="58" t="s">
-        <v>88</v>
+      <c r="G62" s="60" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="63" s="4" customFormat="1" spans="1:7">
-      <c r="A63" s="35"/>
+      <c r="A63" s="37"/>
       <c r="B63" s="4" t="s">
         <v>80</v>
       </c>
@@ -3848,189 +3968,189 @@
       <c r="F63" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G63" s="59"/>
+      <c r="G63" s="61"/>
     </row>
     <row r="64" s="4" customFormat="1" spans="1:7">
-      <c r="A64" s="35"/>
-      <c r="G64" s="59"/>
+      <c r="A64" s="37"/>
+      <c r="G64" s="61"/>
     </row>
     <row r="65" s="4" customFormat="1" spans="1:7">
-      <c r="A65" s="35"/>
-      <c r="G65" s="59"/>
+      <c r="A65" s="37"/>
+      <c r="G65" s="61"/>
     </row>
     <row r="66" s="4" customFormat="1" spans="1:7">
-      <c r="A66" s="36"/>
-      <c r="G66" s="59"/>
+      <c r="A66" s="38"/>
+      <c r="G66" s="61"/>
     </row>
     <row r="67" s="2" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A67" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="B67" s="26" t="s">
+      <c r="A67" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="B67" s="28" t="s">
         <v>91</v>
       </c>
+      <c r="C67" s="28" t="s">
+        <v>92</v>
+      </c>
       <c r="D67" s="2"/>
-      <c r="E67" s="26" t="s">
-        <v>92</v>
+      <c r="E67" s="28" t="s">
+        <v>93</v>
       </c>
       <c r="F67" s="2"/>
-      <c r="G67" s="73" t="s">
-        <v>93</v>
+      <c r="G67" s="75" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="68" s="2" customFormat="1" spans="1:7">
-      <c r="A68" s="27"/>
+      <c r="A68" s="29"/>
       <c r="C68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D68" s="2"/>
-      <c r="E68" s="26" t="s">
+      <c r="E68" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F68" s="2"/>
-      <c r="G68" s="53"/>
+      <c r="G68" s="55"/>
     </row>
     <row r="69" s="2" customFormat="1" spans="1:7">
-      <c r="A69" s="27"/>
+      <c r="A69" s="29"/>
       <c r="C69" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G69" s="53"/>
+      <c r="G69" s="55"/>
     </row>
     <row r="70" s="2" customFormat="1" spans="1:7">
-      <c r="A70" s="27"/>
-      <c r="G70" s="53"/>
+      <c r="A70" s="29"/>
+      <c r="G70" s="55"/>
     </row>
     <row r="71" s="2" customFormat="1" spans="1:7">
-      <c r="A71" s="27"/>
-      <c r="G71" s="53"/>
+      <c r="A71" s="29"/>
+      <c r="G71" s="55"/>
     </row>
     <row r="72" s="4" customFormat="1" ht="66" spans="1:7">
-      <c r="A72" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="B72" s="34" t="s">
+      <c r="A72" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C72" s="34" t="s">
-        <v>97</v>
+      <c r="C72" s="36" t="s">
+        <v>98</v>
       </c>
       <c r="D72" s="4"/>
-      <c r="E72" s="34" t="s">
+      <c r="E72" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F72" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="G72" s="58" t="s">
+      <c r="F72" s="36" t="s">
         <v>99</v>
       </c>
+      <c r="G72" s="60" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="73" s="4" customFormat="1" spans="1:7">
-      <c r="A73" s="35"/>
-      <c r="C73" s="34" t="s">
+      <c r="A73" s="37"/>
+      <c r="C73" s="36" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="4"/>
-      <c r="E73" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="F73" s="34" t="s">
+      <c r="E73" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="F73" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="G73" s="59"/>
+      <c r="G73" s="61"/>
     </row>
     <row r="74" s="4" customFormat="1" spans="1:7">
-      <c r="A74" s="35"/>
-      <c r="C74" s="34" t="s">
-        <v>101</v>
+      <c r="A74" s="37"/>
+      <c r="C74" s="36" t="s">
+        <v>102</v>
       </c>
       <c r="D74" s="4"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="59"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="61"/>
     </row>
     <row r="75" s="4" customFormat="1" spans="1:7">
-      <c r="A75" s="35"/>
-      <c r="G75" s="59"/>
+      <c r="A75" s="37"/>
+      <c r="G75" s="61"/>
     </row>
     <row r="76" s="4" customFormat="1" spans="1:7">
-      <c r="A76" s="36"/>
-      <c r="G76" s="59"/>
+      <c r="A76" s="38"/>
+      <c r="G76" s="61"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="66" spans="1:7">
-      <c r="A77" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B77" s="26" t="s">
+      <c r="A77" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C77" s="26" t="s">
-        <v>103</v>
+      <c r="C77" s="28" t="s">
+        <v>104</v>
       </c>
       <c r="D77" s="2"/>
-      <c r="E77" s="26" t="s">
+      <c r="E77" s="28" t="s">
         <v>9</v>
       </c>
       <c r="F77" s="2"/>
-      <c r="G77" s="54" t="s">
-        <v>104</v>
+      <c r="G77" s="56" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" spans="1:7">
-      <c r="A78" s="27"/>
-      <c r="B78" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C78" s="26" t="s">
+      <c r="A78" s="29"/>
+      <c r="B78" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D78" s="2"/>
-      <c r="E78" s="26" t="s">
+      <c r="E78" s="28" t="s">
         <v>53</v>
       </c>
       <c r="F78" s="2"/>
-      <c r="G78" s="53"/>
+      <c r="G78" s="55"/>
     </row>
     <row r="79" s="2" customFormat="1" spans="1:7">
-      <c r="A79" s="27"/>
-      <c r="B79" s="26" t="s">
+      <c r="A79" s="29"/>
+      <c r="B79" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C79" s="26" t="s">
-        <v>106</v>
+      <c r="C79" s="28" t="s">
+        <v>107</v>
       </c>
       <c r="D79" s="2"/>
-      <c r="E79" s="26" t="s">
-        <v>107</v>
+      <c r="E79" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="F79" s="2"/>
-      <c r="G79" s="53"/>
+      <c r="G79" s="55"/>
     </row>
     <row r="80" s="2" customFormat="1" spans="1:7">
-      <c r="A80" s="27"/>
-      <c r="B80" s="26" t="s">
+      <c r="A80" s="29"/>
+      <c r="B80" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="G80" s="53"/>
+      <c r="G80" s="55"/>
     </row>
     <row r="81" s="2" customFormat="1" spans="1:7">
-      <c r="A81" s="28"/>
-      <c r="G81" s="53"/>
+      <c r="A81" s="30"/>
+      <c r="G81" s="55"/>
     </row>
     <row r="82" s="2" customFormat="1" ht="66" spans="1:7">
-      <c r="A82" s="27" t="s">
-        <v>108</v>
+      <c r="A82" s="29" t="s">
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>71</v>
@@ -4039,14 +4159,14 @@
         <v>46</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G82" s="54" t="s">
-        <v>109</v>
+        <v>93</v>
+      </c>
+      <c r="G82" s="56" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="83" s="2" customFormat="1" spans="1:7">
-      <c r="A83" s="27"/>
+      <c r="A83" s="29"/>
       <c r="B83" s="2" t="s">
         <v>80</v>
       </c>
@@ -4054,15 +4174,15 @@
         <v>81</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G83" s="53"/>
+      <c r="G83" s="55"/>
     </row>
     <row r="84" s="2" customFormat="1" spans="1:7">
-      <c r="A84" s="27"/>
+      <c r="A84" s="29"/>
       <c r="B84" s="2" t="s">
         <v>82</v>
       </c>
@@ -4072,363 +4192,363 @@
       <c r="E84" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G84" s="53"/>
+      <c r="G84" s="55"/>
     </row>
     <row r="85" s="2" customFormat="1" spans="1:7">
-      <c r="A85" s="27"/>
+      <c r="A85" s="29"/>
       <c r="C85" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G85" s="53"/>
+        <v>111</v>
+      </c>
+      <c r="G85" s="55"/>
     </row>
     <row r="86" s="2" customFormat="1" spans="1:7">
-      <c r="A86" s="27"/>
-      <c r="G86" s="53"/>
+      <c r="A86" s="29"/>
+      <c r="G86" s="55"/>
     </row>
     <row r="87" s="7" customFormat="1" ht="66" spans="1:7">
-      <c r="A87" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="B87" s="46" t="s">
+      <c r="A87" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C87" s="46" t="s">
-        <v>103</v>
+      <c r="C87" s="48" t="s">
+        <v>104</v>
       </c>
       <c r="D87" s="7"/>
-      <c r="E87" s="46" t="s">
+      <c r="E87" s="48" t="s">
         <v>57</v>
       </c>
       <c r="F87" s="7"/>
-      <c r="G87" s="64" t="s">
-        <v>112</v>
+      <c r="G87" s="66" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="88" s="7" customFormat="1" spans="1:7">
-      <c r="A88" s="47"/>
-      <c r="B88" s="46" t="s">
+      <c r="A88" s="49"/>
+      <c r="B88" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C88" s="46" t="s">
+      <c r="C88" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D88" s="7"/>
-      <c r="E88" s="46" t="s">
+      <c r="E88" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F88" s="46" t="s">
+      <c r="F88" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="G88" s="65"/>
+      <c r="G88" s="67"/>
     </row>
     <row r="89" s="7" customFormat="1" spans="1:7">
-      <c r="A89" s="47"/>
-      <c r="B89" s="46" t="s">
+      <c r="A89" s="49"/>
+      <c r="B89" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C89" s="46" t="s">
+      <c r="C89" s="48" t="s">
         <v>29</v>
       </c>
       <c r="D89" s="7"/>
-      <c r="E89" s="46" t="s">
+      <c r="E89" s="48" t="s">
         <v>30</v>
       </c>
       <c r="F89" s="7"/>
-      <c r="G89" s="65"/>
+      <c r="G89" s="67"/>
     </row>
     <row r="90" s="7" customFormat="1" spans="1:7">
-      <c r="A90" s="47"/>
-      <c r="B90" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="C90" s="46" t="s">
+      <c r="A90" s="49"/>
+      <c r="B90" s="48" t="s">
         <v>114</v>
+      </c>
+      <c r="C90" s="48" t="s">
+        <v>115</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
-      <c r="G90" s="65"/>
+      <c r="G90" s="67"/>
     </row>
     <row r="91" s="7" customFormat="1" spans="1:7">
-      <c r="A91" s="48"/>
-      <c r="C91" s="46" t="s">
+      <c r="A91" s="50"/>
+      <c r="C91" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="G91" s="65"/>
+      <c r="G91" s="67"/>
     </row>
     <row r="92" s="3" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A92" s="29" t="s">
+      <c r="A92" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B92" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="F92" s="3"/>
+      <c r="G92" s="58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" s="3" customFormat="1" spans="1:7">
+      <c r="A93" s="33"/>
+      <c r="B93" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F93" s="3"/>
+      <c r="G93" s="59"/>
+    </row>
+    <row r="94" s="3" customFormat="1" spans="1:7">
+      <c r="A94" s="33"/>
+      <c r="B94" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F94" s="3"/>
+      <c r="G94" s="59"/>
+    </row>
+    <row r="95" s="3" customFormat="1" spans="1:7">
+      <c r="A95" s="33"/>
+      <c r="B95" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B92" s="30" t="s">
+      <c r="E95" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F95" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G95" s="59"/>
+    </row>
+    <row r="96" s="3" customFormat="1" spans="1:7">
+      <c r="A96" s="34"/>
+      <c r="G96" s="59"/>
+    </row>
+    <row r="97" s="6" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A97" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E97" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" s="6"/>
+      <c r="G97" s="64" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" s="6" customFormat="1" spans="1:7">
+      <c r="A98" s="70"/>
+      <c r="B98" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C98" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D98" s="6"/>
+      <c r="E98" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="6"/>
+      <c r="G98" s="65"/>
+    </row>
+    <row r="99" s="6" customFormat="1" spans="1:7">
+      <c r="A99" s="70"/>
+      <c r="C99" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="E99" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="F99" s="6"/>
+      <c r="G99" s="65"/>
+    </row>
+    <row r="100" s="6" customFormat="1" spans="1:7">
+      <c r="A100" s="70"/>
+      <c r="C100" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E100" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F100" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="G100" s="65"/>
+    </row>
+    <row r="101" s="6" customFormat="1" spans="1:7">
+      <c r="A101" s="71"/>
+      <c r="E101" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F101" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="G101" s="65"/>
+    </row>
+    <row r="102" s="4" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A102" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B102" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D102" s="4"/>
+      <c r="E102" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F102" s="4"/>
+      <c r="G102" s="60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="103" s="4" customFormat="1" spans="1:7">
+      <c r="A103" s="37"/>
+      <c r="B103" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C92" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="F92" s="3"/>
-      <c r="G92" s="56" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="93" s="3" customFormat="1" spans="1:7">
-      <c r="A93" s="31"/>
-      <c r="B93" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C93" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="F93" s="3"/>
-      <c r="G93" s="57"/>
-    </row>
-    <row r="94" s="3" customFormat="1" spans="1:7">
-      <c r="A94" s="31"/>
-      <c r="B94" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C94" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="F94" s="3"/>
-      <c r="G94" s="57"/>
-    </row>
-    <row r="95" s="3" customFormat="1" spans="1:7">
-      <c r="A95" s="31"/>
-      <c r="B95" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E95" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="F95" s="30" t="s">
+      <c r="C103" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" s="4"/>
+      <c r="E103" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F103" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="G95" s="57"/>
-    </row>
-    <row r="96" s="3" customFormat="1" spans="1:7">
-      <c r="A96" s="32"/>
-      <c r="G96" s="57"/>
-    </row>
-    <row r="97" s="6" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A97" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="B97" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C97" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="D97" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="E97" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F97" s="6"/>
-      <c r="G97" s="62" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="98" s="6" customFormat="1" spans="1:7">
-      <c r="A98" s="68"/>
-      <c r="B98" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C98" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="D98" s="6"/>
-      <c r="E98" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" s="6"/>
-      <c r="G98" s="63"/>
-    </row>
-    <row r="99" s="6" customFormat="1" spans="1:7">
-      <c r="A99" s="68"/>
-      <c r="C99" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E99" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="F99" s="6"/>
-      <c r="G99" s="63"/>
-    </row>
-    <row r="100" s="6" customFormat="1" spans="1:7">
-      <c r="A100" s="68"/>
-      <c r="C100" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="E100" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="F100" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="G100" s="63"/>
-    </row>
-    <row r="101" s="6" customFormat="1" spans="1:7">
-      <c r="A101" s="69"/>
-      <c r="E101" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="F101" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="G101" s="63"/>
-    </row>
-    <row r="102" s="4" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A102" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="B102" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C102" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D102" s="4"/>
-      <c r="E102" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="F102" s="4"/>
-      <c r="G102" s="58" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="103" s="4" customFormat="1" spans="1:7">
-      <c r="A103" s="35"/>
-      <c r="B103" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C103" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D103" s="4"/>
-      <c r="E103" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F103" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G103" s="59"/>
+      <c r="G103" s="61"/>
     </row>
     <row r="104" s="4" customFormat="1" spans="1:7">
-      <c r="A104" s="35"/>
-      <c r="B104" s="34" t="s">
+      <c r="A104" s="37"/>
+      <c r="B104" s="36" t="s">
         <v>25</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
-      <c r="E104" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="F104" s="34" t="s">
+      <c r="E104" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F104" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="G104" s="59"/>
+      <c r="G104" s="61"/>
     </row>
     <row r="105" s="4" customFormat="1" spans="1:7">
-      <c r="A105" s="35"/>
-      <c r="E105" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="F105" s="34"/>
-      <c r="G105" s="59"/>
+      <c r="A105" s="37"/>
+      <c r="E105" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F105" s="36"/>
+      <c r="G105" s="61"/>
     </row>
     <row r="106" s="4" customFormat="1" spans="1:7">
-      <c r="A106" s="36"/>
-      <c r="E106" s="34"/>
-      <c r="G106" s="59"/>
+      <c r="A106" s="38"/>
+      <c r="E106" s="36"/>
+      <c r="G106" s="61"/>
     </row>
     <row r="107" s="7" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A107" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="B107" s="46" t="s">
+      <c r="A107" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B107" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C107" s="46" t="s">
+      <c r="C107" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D107" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="E107" s="46" t="s">
+      <c r="D107" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E107" s="48" t="s">
         <v>57</v>
       </c>
       <c r="F107" s="7"/>
-      <c r="G107" s="74" t="s">
-        <v>129</v>
+      <c r="G107" s="76" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="108" s="7" customFormat="1" spans="1:7">
-      <c r="A108" s="47"/>
-      <c r="B108" s="46" t="s">
+      <c r="A108" s="49"/>
+      <c r="B108" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C108" s="46" t="s">
-        <v>130</v>
+      <c r="C108" s="48" t="s">
+        <v>131</v>
       </c>
       <c r="D108" s="7"/>
-      <c r="E108" s="46" t="s">
+      <c r="E108" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="F108" s="46" t="s">
+      <c r="F108" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G108" s="75"/>
+      <c r="G108" s="77"/>
     </row>
     <row r="109" s="7" customFormat="1" spans="1:7">
-      <c r="A109" s="47"/>
-      <c r="B109" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="C109" s="46" t="s">
+      <c r="A109" s="49"/>
+      <c r="B109" s="48" t="s">
         <v>132</v>
       </c>
+      <c r="C109" s="48" t="s">
+        <v>133</v>
+      </c>
       <c r="D109" s="7"/>
-      <c r="E109" s="46" t="s">
+      <c r="E109" s="48" t="s">
         <v>22</v>
       </c>
       <c r="F109" s="7"/>
-      <c r="G109" s="65"/>
+      <c r="G109" s="67"/>
     </row>
     <row r="110" s="7" customFormat="1" spans="1:7">
-      <c r="A110" s="47"/>
-      <c r="B110" s="46" t="s">
+      <c r="A110" s="49"/>
+      <c r="B110" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C110" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="G110" s="65"/>
+      <c r="C110" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="G110" s="67"/>
     </row>
     <row r="111" s="7" customFormat="1" spans="1:7">
-      <c r="A111" s="48"/>
-      <c r="G111" s="65"/>
+      <c r="A111" s="50"/>
+      <c r="G111" s="67"/>
     </row>
     <row r="112" s="2" customFormat="1" ht="66" spans="1:7">
-      <c r="A112" s="70" t="s">
-        <v>134</v>
+      <c r="A112" s="72" t="s">
+        <v>135</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>36</v>
@@ -4437,127 +4557,130 @@
         <v>33</v>
       </c>
       <c r="D112" s="2"/>
-      <c r="E112" s="26" t="s">
-        <v>92</v>
+      <c r="E112" s="28" t="s">
+        <v>93</v>
       </c>
       <c r="F112" s="2"/>
-      <c r="G112" s="76" t="s">
-        <v>135</v>
+      <c r="G112" s="78" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="113" s="2" customFormat="1" spans="1:7">
-      <c r="A113" s="71"/>
+      <c r="A113" s="73"/>
       <c r="B113" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D113" s="2"/>
-      <c r="E113" s="26" t="s">
+      <c r="E113" s="28" t="s">
         <v>74</v>
       </c>
       <c r="F113" s="2"/>
-      <c r="G113" s="53"/>
+      <c r="G113" s="55"/>
     </row>
     <row r="114" s="2" customFormat="1" spans="1:7">
-      <c r="A114" s="71"/>
-      <c r="B114" s="26" t="s">
+      <c r="A114" s="73"/>
+      <c r="B114" s="28" t="s">
         <v>66</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D114" s="2"/>
-      <c r="E114" s="26" t="s">
-        <v>98</v>
+      <c r="E114" s="28" t="s">
+        <v>99</v>
       </c>
       <c r="F114" s="2"/>
-      <c r="G114" s="53"/>
+      <c r="G114" s="55"/>
     </row>
     <row r="115" s="2" customFormat="1" spans="1:7">
-      <c r="A115" s="71"/>
-      <c r="B115" s="26" t="s">
+      <c r="A115" s="73"/>
+      <c r="B115" s="28" t="s">
         <v>32</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
-      <c r="E115" s="26" t="s">
+      <c r="E115" s="28" t="s">
         <v>47</v>
       </c>
       <c r="F115" s="2"/>
-      <c r="G115" s="53"/>
+      <c r="G115" s="55"/>
     </row>
     <row r="116" s="2" customFormat="1" spans="1:7">
-      <c r="A116" s="71"/>
-      <c r="G116" s="53"/>
+      <c r="A116" s="73"/>
+      <c r="B116" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="G116" s="55"/>
     </row>
     <row r="117" s="6" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A117" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="B117" s="42" t="s">
-        <v>131</v>
+      <c r="A117" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="B117" s="44" t="s">
+        <v>132</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D117" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="E117" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D117" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="E117" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="F117" s="42" t="s">
+      <c r="F117" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="G117" s="62" t="s">
-        <v>139</v>
+      <c r="G117" s="64" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="118" s="6" customFormat="1" spans="1:7">
-      <c r="A118" s="43"/>
+      <c r="A118" s="45"/>
       <c r="B118" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C118" s="42" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="C118" s="44" t="s">
+        <v>143</v>
       </c>
       <c r="D118" s="6"/>
-      <c r="E118" s="42" t="s">
+      <c r="E118" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="F118" s="42"/>
-      <c r="G118" s="63"/>
+      <c r="F118" s="44"/>
+      <c r="G118" s="65"/>
     </row>
     <row r="119" s="6" customFormat="1" spans="1:7">
-      <c r="A119" s="43"/>
-      <c r="B119" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="C119" s="42" t="s">
+      <c r="A119" s="45"/>
+      <c r="B119" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="C119" s="44" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="6"/>
-      <c r="E119" s="42"/>
+      <c r="E119" s="44"/>
       <c r="F119" s="6"/>
-      <c r="G119" s="63"/>
+      <c r="G119" s="65"/>
     </row>
     <row r="120" s="6" customFormat="1" spans="1:7">
-      <c r="A120" s="43"/>
+      <c r="A120" s="45"/>
       <c r="B120" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C120" s="42" t="s">
-        <v>130</v>
+      <c r="C120" s="44" t="s">
+        <v>131</v>
       </c>
       <c r="D120" s="6"/>
-      <c r="E120" s="42"/>
+      <c r="E120" s="44"/>
       <c r="F120" s="6"/>
-      <c r="G120" s="63"/>
+      <c r="G120" s="65"/>
     </row>
     <row r="121" s="6" customFormat="1" spans="1:7">
-      <c r="A121" s="44"/>
+      <c r="A121" s="46"/>
       <c r="B121" s="6" t="s">
         <v>7</v>
       </c>
@@ -4565,892 +4688,897 @@
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
-      <c r="G121" s="63"/>
+      <c r="G121" s="65"/>
     </row>
     <row r="122" s="3" customFormat="1" ht="66" spans="1:7">
-      <c r="A122" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="B122" s="30" t="s">
+      <c r="A122" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B122" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C122" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D122" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="E122" s="30" t="s">
+      <c r="C122" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D122" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E122" s="32" t="s">
         <v>9</v>
       </c>
       <c r="F122" s="3"/>
-      <c r="G122" s="56" t="s">
-        <v>146</v>
+      <c r="G122" s="58" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="123" s="3" customFormat="1" spans="1:7">
-      <c r="A123" s="31"/>
-      <c r="C123" s="30" t="s">
-        <v>130</v>
+      <c r="A123" s="33"/>
+      <c r="C123" s="32" t="s">
+        <v>131</v>
       </c>
       <c r="D123" s="3"/>
-      <c r="E123" s="30" t="s">
+      <c r="E123" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="F123" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="G123" s="57"/>
+      <c r="F123" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="G123" s="59"/>
     </row>
     <row r="124" s="3" customFormat="1" spans="1:7">
-      <c r="A124" s="31"/>
-      <c r="E124" s="30" t="s">
+      <c r="A124" s="33"/>
+      <c r="E124" s="32" t="s">
         <v>53</v>
       </c>
       <c r="F124" s="3"/>
-      <c r="G124" s="57"/>
+      <c r="G124" s="59"/>
     </row>
     <row r="125" s="3" customFormat="1" spans="1:7">
-      <c r="A125" s="31"/>
-      <c r="G125" s="57"/>
+      <c r="A125" s="33"/>
+      <c r="G125" s="59"/>
     </row>
     <row r="126" s="3" customFormat="1" spans="1:7">
-      <c r="A126" s="32"/>
-      <c r="G126" s="57"/>
+      <c r="A126" s="34"/>
+      <c r="G126" s="59"/>
     </row>
     <row r="127" s="5" customFormat="1" ht="66" spans="1:7">
-      <c r="A127" s="37" t="s">
-        <v>147</v>
+      <c r="A127" s="39" t="s">
+        <v>149</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C127" s="38" t="s">
-        <v>94</v>
+        <v>150</v>
+      </c>
+      <c r="C127" s="40" t="s">
+        <v>95</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E127" s="38" t="s">
-        <v>118</v>
+        <v>151</v>
+      </c>
+      <c r="E127" s="40" t="s">
+        <v>119</v>
       </c>
       <c r="F127" s="5"/>
-      <c r="G127" s="77" t="s">
-        <v>150</v>
+      <c r="G127" s="79" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="128" s="5" customFormat="1" spans="1:7">
-      <c r="A128" s="39"/>
-      <c r="B128" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="C128" s="38" t="s">
-        <v>95</v>
+      <c r="A128" s="41"/>
+      <c r="B128" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C128" s="40" t="s">
+        <v>96</v>
       </c>
       <c r="D128" s="5"/>
-      <c r="E128" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="F128" s="38" t="s">
+      <c r="E128" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F128" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G128" s="61"/>
+      <c r="G128" s="63"/>
     </row>
     <row r="129" s="5" customFormat="1" spans="1:7">
-      <c r="A129" s="39"/>
+      <c r="A129" s="41"/>
       <c r="B129" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E129" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="E129" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="F129" s="38" t="s">
+      <c r="F129" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G129" s="61"/>
+      <c r="G129" s="63"/>
     </row>
     <row r="130" s="5" customFormat="1" spans="1:7">
-      <c r="A130" s="39"/>
-      <c r="G130" s="61"/>
+      <c r="A130" s="41"/>
+      <c r="G130" s="63"/>
     </row>
     <row r="131" s="5" customFormat="1" spans="1:7">
-      <c r="A131" s="40"/>
-      <c r="G131" s="61"/>
+      <c r="A131" s="42"/>
+      <c r="G131" s="63"/>
     </row>
     <row r="132" s="2" customFormat="1" ht="33" spans="1:7">
-      <c r="A132" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="B132" s="26" t="s">
+      <c r="A132" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B132" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C132" s="26" t="s">
+      <c r="C132" s="28" t="s">
         <v>46</v>
       </c>
       <c r="D132" s="2"/>
-      <c r="E132" s="26" t="s">
+      <c r="E132" s="28" t="s">
         <v>30</v>
       </c>
       <c r="F132" s="2"/>
-      <c r="G132" s="54" t="s">
-        <v>154</v>
+      <c r="G132" s="56" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="133" s="2" customFormat="1" spans="1:7">
-      <c r="A133" s="27"/>
-      <c r="B133" s="26" t="s">
+      <c r="A133" s="29"/>
+      <c r="B133" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C133" s="26" t="s">
+      <c r="C133" s="28" t="s">
         <v>78</v>
       </c>
       <c r="D133" s="2"/>
-      <c r="E133" s="26" t="s">
+      <c r="E133" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F133" s="26" t="s">
+      <c r="F133" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="G133" s="53"/>
+      <c r="G133" s="55"/>
     </row>
     <row r="134" s="2" customFormat="1" spans="1:7">
-      <c r="A134" s="27"/>
-      <c r="B134" s="26" t="s">
+      <c r="A134" s="29"/>
+      <c r="B134" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C134" s="26" t="s">
+      <c r="C134" s="28" t="s">
         <v>81</v>
       </c>
       <c r="D134" s="2"/>
-      <c r="E134" s="26" t="s">
+      <c r="E134" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F134" s="26" t="s">
+      <c r="F134" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G134" s="53"/>
+      <c r="G134" s="55"/>
     </row>
     <row r="135" s="2" customFormat="1" spans="1:7">
-      <c r="A135" s="27"/>
-      <c r="B135" s="26" t="s">
+      <c r="A135" s="29"/>
+      <c r="B135" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C135" s="26" t="s">
+      <c r="C135" s="28" t="s">
         <v>83</v>
       </c>
       <c r="D135" s="2"/>
-      <c r="E135" s="26" t="s">
+      <c r="E135" s="28" t="s">
         <v>47</v>
       </c>
       <c r="F135" s="2"/>
-      <c r="G135" s="53"/>
+      <c r="G135" s="55"/>
     </row>
     <row r="136" s="2" customFormat="1" spans="1:7">
-      <c r="A136" s="28"/>
+      <c r="A136" s="30"/>
       <c r="B136" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C136" s="26" t="s">
+      <c r="C136" s="28" t="s">
         <v>43</v>
       </c>
       <c r="D136" s="2"/>
-      <c r="E136" s="26" t="s">
+      <c r="E136" s="28" t="s">
         <v>48</v>
       </c>
       <c r="F136" s="2"/>
-      <c r="G136" s="53"/>
+      <c r="G136" s="55"/>
     </row>
     <row r="137" s="5" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A137" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="B137" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="C137" s="38" t="s">
-        <v>156</v>
+      <c r="A137" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B137" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C137" s="40" t="s">
+        <v>158</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E137" s="38" t="s">
-        <v>118</v>
+      <c r="E137" s="40" t="s">
+        <v>119</v>
       </c>
       <c r="F137" s="5"/>
-      <c r="G137" s="60" t="s">
-        <v>157</v>
+      <c r="G137" s="62" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="138" s="5" customFormat="1" spans="1:7">
-      <c r="A138" s="39"/>
-      <c r="B138" s="38" t="s">
+      <c r="A138" s="41"/>
+      <c r="B138" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C138" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E138" s="38" t="s">
+      <c r="C138" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E138" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="G138" s="61"/>
+      <c r="G138" s="63"/>
     </row>
     <row r="139" s="5" customFormat="1" spans="1:7">
-      <c r="A139" s="39"/>
-      <c r="E139" s="38" t="s">
+      <c r="A139" s="41"/>
+      <c r="E139" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="F139" s="38" t="s">
+      <c r="F139" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="G139" s="61"/>
+      <c r="G139" s="63"/>
     </row>
     <row r="140" s="5" customFormat="1" spans="1:7">
-      <c r="A140" s="39"/>
-      <c r="G140" s="61"/>
+      <c r="A140" s="41"/>
+      <c r="G140" s="63"/>
     </row>
     <row r="141" s="5" customFormat="1" spans="1:7">
-      <c r="A141" s="40"/>
-      <c r="G141" s="61"/>
+      <c r="A141" s="42"/>
+      <c r="G141" s="63"/>
     </row>
     <row r="142" s="3" customFormat="1" ht="66" spans="1:7">
-      <c r="A142" s="29" t="s">
-        <v>158</v>
+      <c r="A142" s="31" t="s">
+        <v>160</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C142" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D142" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="E142" s="30" t="s">
-        <v>98</v>
+      <c r="C142" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D142" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="E142" s="32" t="s">
+        <v>99</v>
       </c>
       <c r="F142" s="3"/>
-      <c r="G142" s="56" t="s">
-        <v>160</v>
+      <c r="G142" s="58" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="143" s="3" customFormat="1" spans="1:7">
-      <c r="A143" s="31"/>
-      <c r="B143" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="C143" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="D143" s="30"/>
-      <c r="E143" s="30" t="s">
+      <c r="A143" s="33"/>
+      <c r="B143" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C143" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D143" s="32"/>
+      <c r="E143" s="32" t="s">
         <v>28</v>
       </c>
       <c r="F143" s="3"/>
-      <c r="G143" s="57"/>
+      <c r="G143" s="59"/>
     </row>
     <row r="144" s="3" customFormat="1" spans="1:7">
-      <c r="A144" s="31"/>
-      <c r="B144" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="C144" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="G144" s="57"/>
+      <c r="A144" s="33"/>
+      <c r="B144" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C144" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="G144" s="59"/>
     </row>
     <row r="145" s="3" customFormat="1" spans="1:7">
-      <c r="A145" s="31"/>
+      <c r="A145" s="33"/>
       <c r="B145" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G145" s="57"/>
+      <c r="G145" s="59"/>
     </row>
     <row r="146" s="3" customFormat="1" spans="1:7">
-      <c r="A146" s="32"/>
-      <c r="G146" s="57"/>
+      <c r="A146" s="34"/>
+      <c r="G146" s="59"/>
     </row>
     <row r="147" s="7" customFormat="1" spans="1:7">
-      <c r="A147" s="45" t="s">
-        <v>164</v>
+      <c r="A147" s="47" t="s">
+        <v>166</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D147" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="E147" s="46" t="s">
-        <v>166</v>
+        <v>95</v>
+      </c>
+      <c r="D147" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="E147" s="48" t="s">
+        <v>168</v>
       </c>
       <c r="F147" s="7"/>
-      <c r="G147" s="81" t="s">
+      <c r="G147" s="83" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="148" s="7" customFormat="1" ht="66" spans="1:7">
+      <c r="A148" s="49"/>
+      <c r="B148" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C148" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="D148" s="7"/>
+      <c r="E148" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="F148" s="48"/>
+      <c r="G148" s="66" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="149" s="7" customFormat="1" spans="1:7">
+      <c r="A149" s="49"/>
+      <c r="B149" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="C149" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="D149" s="7"/>
+      <c r="E149" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F149" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G149" s="67"/>
+    </row>
+    <row r="150" s="7" customFormat="1" spans="1:7">
+      <c r="A150" s="49"/>
+      <c r="B150" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="G150" s="67"/>
+    </row>
+    <row r="151" s="7" customFormat="1" spans="1:7">
+      <c r="A151" s="50"/>
+      <c r="B151" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="G151" s="67"/>
+    </row>
+    <row r="152" s="2" customFormat="1" ht="66" spans="1:7">
+      <c r="A152" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B152" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C152" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D152" s="28" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="148" s="7" customFormat="1" ht="66" spans="1:7">
-      <c r="A148" s="47"/>
-      <c r="B148" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C148" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="D148" s="7"/>
-      <c r="E148" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="F148" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="G148" s="64" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="149" s="7" customFormat="1" spans="1:7">
-      <c r="A149" s="47"/>
-      <c r="B149" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="C149" s="46" t="s">
+      <c r="E152" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F152" s="2"/>
+      <c r="G152" s="56" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="153" s="2" customFormat="1" spans="1:7">
+      <c r="A153" s="29"/>
+      <c r="B153" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D153" s="2"/>
+      <c r="E153" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F153" s="2"/>
+      <c r="G153" s="55" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="154" s="2" customFormat="1" spans="1:7">
+      <c r="A154" s="29"/>
+      <c r="B154" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C154" s="28" t="s">
         <v>170</v>
-      </c>
-      <c r="D149" s="7"/>
-      <c r="E149" s="46"/>
-      <c r="F149" s="46"/>
-      <c r="G149" s="65"/>
-    </row>
-    <row r="150" s="7" customFormat="1" spans="1:7">
-      <c r="A150" s="47"/>
-      <c r="B150" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="G150" s="65"/>
-    </row>
-    <row r="151" s="7" customFormat="1" spans="1:7">
-      <c r="A151" s="48"/>
-      <c r="B151" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="G151" s="65"/>
-    </row>
-    <row r="152" s="2" customFormat="1" ht="66" spans="1:7">
-      <c r="A152" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="B152" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C152" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="D152" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="E152" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F152" s="2"/>
-      <c r="G152" s="54" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="153" s="2" customFormat="1" spans="1:7">
-      <c r="A153" s="27"/>
-      <c r="B153" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D153" s="2"/>
-      <c r="E153" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="F153" s="2"/>
-      <c r="G153" s="53" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="154" s="2" customFormat="1" spans="1:7">
-      <c r="A154" s="27"/>
-      <c r="B154" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="C154" s="26" t="s">
-        <v>168</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
-      <c r="G154" s="53"/>
+      <c r="G154" s="55"/>
     </row>
     <row r="155" s="2" customFormat="1" spans="1:7">
-      <c r="A155" s="27"/>
-      <c r="B155" s="26"/>
+      <c r="A155" s="29"/>
+      <c r="B155" s="28"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
-      <c r="G155" s="53"/>
+      <c r="G155" s="55"/>
     </row>
     <row r="156" s="2" customFormat="1" spans="1:7">
-      <c r="A156" s="28"/>
-      <c r="B156" s="26"/>
+      <c r="A156" s="30"/>
+      <c r="B156" s="28"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
-      <c r="G156" s="53"/>
+      <c r="G156" s="55"/>
     </row>
     <row r="157" s="3" customFormat="1" ht="33" spans="1:7">
-      <c r="A157" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="B157" s="30" t="s">
-        <v>151</v>
+      <c r="A157" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="B157" s="32" t="s">
+        <v>153</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G157" s="56" t="s">
-        <v>179</v>
+      <c r="G157" s="58" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="158" s="3" customFormat="1" spans="1:7">
-      <c r="A158" s="31"/>
-      <c r="B158" s="30" t="s">
-        <v>148</v>
+      <c r="A158" s="33"/>
+      <c r="B158" s="32" t="s">
+        <v>150</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G158" s="57"/>
+        <v>95</v>
+      </c>
+      <c r="G158" s="59"/>
     </row>
     <row r="159" s="3" customFormat="1" spans="1:7">
-      <c r="A159" s="31"/>
-      <c r="B159" s="30"/>
+      <c r="A159" s="33"/>
+      <c r="B159" s="32"/>
       <c r="C159" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G159" s="57"/>
+        <v>183</v>
+      </c>
+      <c r="G159" s="59"/>
     </row>
     <row r="160" s="3" customFormat="1" spans="1:7">
-      <c r="A160" s="31"/>
-      <c r="B160" s="30"/>
-      <c r="G160" s="57"/>
+      <c r="A160" s="33"/>
+      <c r="B160" s="32"/>
+      <c r="G160" s="59"/>
     </row>
     <row r="161" s="3" customFormat="1" spans="1:7">
-      <c r="A161" s="31"/>
-      <c r="B161" s="30"/>
-      <c r="G161" s="57"/>
+      <c r="A161" s="33"/>
+      <c r="B161" s="32"/>
+      <c r="G161" s="59"/>
     </row>
     <row r="162" s="2" customFormat="1" ht="33" spans="1:7">
-      <c r="A162" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="B162" s="26" t="s">
+      <c r="A162" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B162" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C162" s="26" t="s">
+      <c r="C162" s="28" t="s">
         <v>33</v>
       </c>
       <c r="D162" s="2"/>
-      <c r="E162" s="26" t="s">
-        <v>92</v>
+      <c r="E162" s="28" t="s">
+        <v>93</v>
       </c>
       <c r="F162" s="2"/>
-      <c r="G162" s="54" t="s">
-        <v>182</v>
+      <c r="G162" s="56" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="163" s="2" customFormat="1" spans="1:7">
-      <c r="A163" s="27"/>
-      <c r="B163" s="26" t="s">
+      <c r="A163" s="29"/>
+      <c r="B163" s="28" t="s">
         <v>38</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D163" s="2"/>
-      <c r="E163" s="26" t="s">
-        <v>98</v>
+      <c r="E163" s="28" t="s">
+        <v>99</v>
       </c>
       <c r="F163" s="2"/>
-      <c r="G163" s="53"/>
+      <c r="G163" s="55"/>
     </row>
     <row r="164" s="2" customFormat="1" spans="1:7">
-      <c r="A164" s="27"/>
-      <c r="B164" s="26" t="s">
+      <c r="A164" s="29"/>
+      <c r="B164" s="28" t="s">
         <v>66</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
-      <c r="G164" s="53"/>
+      <c r="G164" s="55"/>
     </row>
     <row r="165" s="2" customFormat="1" spans="1:7">
-      <c r="A165" s="27"/>
+      <c r="A165" s="29"/>
       <c r="C165" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G165" s="53"/>
+        <v>137</v>
+      </c>
+      <c r="G165" s="55"/>
     </row>
     <row r="166" s="2" customFormat="1" spans="1:7">
-      <c r="A166" s="28"/>
+      <c r="A166" s="30"/>
       <c r="C166" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G166" s="53"/>
+      <c r="G166" s="55"/>
     </row>
     <row r="167" s="3" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A167" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B167" s="30" t="s">
+      <c r="A167" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="B167" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="C167" s="30" t="s">
+      <c r="C167" s="32" t="s">
         <v>46</v>
       </c>
       <c r="D167" s="3"/>
-      <c r="E167" s="30" t="s">
+      <c r="E167" s="32" t="s">
         <v>30</v>
       </c>
       <c r="F167" s="3"/>
-      <c r="G167" s="56" t="s">
-        <v>185</v>
+      <c r="G167" s="58" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="168" s="3" customFormat="1" spans="1:7">
-      <c r="A168" s="31"/>
-      <c r="B168" s="30" t="s">
+      <c r="A168" s="33"/>
+      <c r="B168" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C168" s="30" t="s">
+      <c r="C168" s="32" t="s">
         <v>78</v>
       </c>
       <c r="D168" s="3"/>
-      <c r="E168" s="30" t="s">
+      <c r="E168" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F168" s="30" t="s">
+      <c r="F168" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G168" s="57"/>
+      <c r="G168" s="59"/>
     </row>
     <row r="169" s="3" customFormat="1" spans="1:7">
-      <c r="A169" s="31"/>
-      <c r="B169" s="30" t="s">
+      <c r="A169" s="33"/>
+      <c r="B169" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C169" s="30" t="s">
-        <v>186</v>
+      <c r="C169" s="32" t="s">
+        <v>189</v>
       </c>
       <c r="D169" s="3"/>
-      <c r="E169" s="30" t="s">
+      <c r="E169" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F169" s="30" t="s">
+      <c r="F169" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="G169" s="57"/>
+      <c r="G169" s="59"/>
     </row>
     <row r="170" s="3" customFormat="1" spans="1:7">
-      <c r="A170" s="31"/>
-      <c r="B170" s="30" t="s">
+      <c r="A170" s="33"/>
+      <c r="B170" s="32" t="s">
         <v>82</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
-      <c r="E170" s="30" t="s">
+      <c r="E170" s="32" t="s">
         <v>48</v>
       </c>
       <c r="F170" s="3"/>
-      <c r="G170" s="57"/>
+      <c r="G170" s="59"/>
     </row>
     <row r="171" s="3" customFormat="1" spans="1:7">
-      <c r="A171" s="32"/>
-      <c r="B171" s="30"/>
+      <c r="A171" s="34"/>
+      <c r="B171" s="32"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
-      <c r="G171" s="57"/>
+      <c r="G171" s="59"/>
     </row>
     <row r="172" s="7" customFormat="1" ht="33" spans="1:7">
-      <c r="A172" s="45" t="s">
-        <v>187</v>
+      <c r="A172" s="47" t="s">
+        <v>190</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D172" s="7"/>
-      <c r="E172" s="46" t="s">
+      <c r="E172" s="48" t="s">
         <v>57</v>
       </c>
       <c r="F172" s="7"/>
-      <c r="G172" s="64" t="s">
-        <v>189</v>
+      <c r="G172" s="66" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="173" s="7" customFormat="1" spans="1:7">
-      <c r="A173" s="47"/>
-      <c r="B173" s="46"/>
+      <c r="A173" s="49"/>
+      <c r="B173" s="48"/>
       <c r="C173" s="7" t="s">
-        <v>61</v>
+        <v>193</v>
       </c>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
-      <c r="G173" s="65"/>
+      <c r="G173" s="67"/>
     </row>
     <row r="174" s="7" customFormat="1" spans="1:7">
-      <c r="A174" s="47"/>
-      <c r="C174" s="46" t="s">
+      <c r="A174" s="49"/>
+      <c r="C174" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G174" s="67"/>
+    </row>
+    <row r="175" s="7" customFormat="1" spans="1:7">
+      <c r="A175" s="49"/>
+      <c r="C175" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="G174" s="65"/>
-    </row>
-    <row r="175" s="7" customFormat="1" spans="1:7">
-      <c r="A175" s="47"/>
-      <c r="G175" s="65"/>
+      <c r="G175" s="67"/>
     </row>
     <row r="176" s="7" customFormat="1" spans="1:7">
-      <c r="A176" s="48"/>
-      <c r="G176" s="65"/>
+      <c r="A176" s="50"/>
+      <c r="G176" s="67"/>
     </row>
     <row r="177" s="4" customFormat="1" spans="1:7">
-      <c r="A177" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="B177" s="34" t="s">
+      <c r="A177" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="B177" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C177" s="34" t="s">
+      <c r="C177" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D177" s="34" t="s">
+      <c r="D177" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E177" s="34" t="s">
+      <c r="E177" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F177" s="34" t="s">
+      <c r="F177" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G177" s="82" t="s">
-        <v>191</v>
+      <c r="G177" s="84" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="178" s="4" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A178" s="35"/>
-      <c r="C178" s="34" t="s">
+      <c r="A178" s="37"/>
+      <c r="C178" s="36" t="s">
         <v>61</v>
       </c>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
-      <c r="G178" s="58" t="s">
-        <v>85</v>
+      <c r="G178" s="60" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="179" s="4" customFormat="1" spans="1:7">
-      <c r="A179" s="35"/>
-      <c r="G179" s="59"/>
+      <c r="A179" s="37"/>
+      <c r="G179" s="61"/>
     </row>
     <row r="180" s="4" customFormat="1" spans="1:7">
-      <c r="A180" s="35"/>
-      <c r="G180" s="59"/>
+      <c r="A180" s="37"/>
+      <c r="G180" s="61"/>
     </row>
     <row r="181" s="4" customFormat="1" spans="1:7">
-      <c r="A181" s="36"/>
-      <c r="G181" s="59"/>
+      <c r="A181" s="38"/>
+      <c r="G181" s="61"/>
     </row>
     <row r="182" s="3" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A182" s="29" t="s">
-        <v>192</v>
+      <c r="A182" s="31" t="s">
+        <v>197</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D182" s="30" t="s">
+      <c r="D182" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E182" s="30" t="s">
+      <c r="E182" s="32" t="s">
         <v>28</v>
       </c>
       <c r="F182" s="3"/>
-      <c r="G182" s="56" t="s">
-        <v>193</v>
+      <c r="G182" s="58" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="183" s="3" customFormat="1" spans="1:7">
-      <c r="A183" s="31"/>
-      <c r="B183" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="C183" s="30" t="s">
+      <c r="A183" s="33"/>
+      <c r="B183" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="C183" s="32" t="s">
         <v>29</v>
       </c>
       <c r="D183" s="3"/>
-      <c r="E183" s="30" t="s">
+      <c r="E183" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F183" s="30" t="s">
+      <c r="F183" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="G183" s="57"/>
+      <c r="G183" s="59"/>
     </row>
     <row r="184" s="3" customFormat="1" spans="1:7">
-      <c r="A184" s="31"/>
-      <c r="B184" s="30" t="s">
+      <c r="A184" s="33"/>
+      <c r="B184" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C184" s="30" t="s">
-        <v>195</v>
+      <c r="C184" s="32" t="s">
+        <v>200</v>
       </c>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
-      <c r="G184" s="57"/>
+      <c r="G184" s="59"/>
     </row>
     <row r="185" s="3" customFormat="1" spans="1:7">
-      <c r="A185" s="31"/>
-      <c r="B185" s="30" t="s">
+      <c r="A185" s="33"/>
+      <c r="B185" s="32" t="s">
         <v>19</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
-      <c r="G185" s="57"/>
+      <c r="G185" s="59"/>
     </row>
     <row r="186" s="3" customFormat="1" spans="1:7">
-      <c r="A186" s="32"/>
-      <c r="B186" s="30"/>
+      <c r="A186" s="34"/>
+      <c r="B186" s="32"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
-      <c r="G186" s="57"/>
+      <c r="G186" s="59"/>
     </row>
     <row r="187" s="2" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A187" s="79" t="s">
-        <v>196</v>
-      </c>
-      <c r="B187" s="26" t="s">
+      <c r="A187" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="B187" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D187" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="E187" s="26" t="s">
-        <v>176</v>
+      <c r="D187" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E187" s="28" t="s">
+        <v>179</v>
       </c>
       <c r="F187" s="2"/>
-      <c r="G187" s="54" t="s">
-        <v>197</v>
+      <c r="G187" s="56" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="188" s="2" customFormat="1" spans="1:7">
-      <c r="A188" s="66"/>
-      <c r="B188" s="26" t="s">
+      <c r="A188" s="68"/>
+      <c r="B188" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C188" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D188" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="E188" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F188" s="26"/>
-      <c r="G188" s="53"/>
+      <c r="C188" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D188" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E188" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F188" s="28"/>
+      <c r="G188" s="55"/>
     </row>
     <row r="189" s="2" customFormat="1" spans="1:7">
-      <c r="A189" s="66"/>
-      <c r="B189" s="26" t="s">
+      <c r="A189" s="68"/>
+      <c r="B189" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C189" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="E189" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F189" s="26" t="s">
+      <c r="C189" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E189" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F189" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G189" s="53"/>
+      <c r="G189" s="55"/>
     </row>
     <row r="190" s="2" customFormat="1" spans="1:7">
-      <c r="A190" s="66"/>
-      <c r="B190" s="26"/>
-      <c r="C190" s="26" t="s">
-        <v>163</v>
+      <c r="A190" s="68"/>
+      <c r="B190" s="28"/>
+      <c r="C190" s="28" t="s">
+        <v>165</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
-      <c r="G190" s="53"/>
+      <c r="G190" s="55"/>
     </row>
     <row r="191" s="2" customFormat="1" spans="1:7">
-      <c r="A191" s="80"/>
-      <c r="B191" s="26"/>
+      <c r="A191" s="82"/>
+      <c r="B191" s="28"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
-      <c r="G191" s="53"/>
+      <c r="G191" s="55"/>
     </row>
     <row r="192" s="7" customFormat="1" ht="33" spans="1:7">
-      <c r="A192" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="B192" s="46" t="s">
+      <c r="A192" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="B192" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="C192" s="46" t="s">
-        <v>200</v>
+      <c r="C192" s="48" t="s">
+        <v>205</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E192" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="E192" s="48" t="s">
         <v>57</v>
       </c>
       <c r="F192" s="7"/>
-      <c r="G192" s="64" t="s">
-        <v>202</v>
+      <c r="G192" s="66" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="193" s="7" customFormat="1" spans="1:7">
-      <c r="A193" s="47"/>
-      <c r="B193" s="46" t="s">
+      <c r="A193" s="49"/>
+      <c r="B193" s="48" t="s">
         <v>82</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>110</v>
+        <v>208</v>
       </c>
       <c r="D193" s="7"/>
       <c r="E193" s="7" t="s">
@@ -5459,177 +5587,180 @@
       <c r="F193" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G193" s="65"/>
+      <c r="G193" s="67"/>
     </row>
     <row r="194" s="7" customFormat="1" spans="1:7">
-      <c r="A194" s="47"/>
+      <c r="A194" s="49"/>
       <c r="C194" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E194" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G194" s="65"/>
+      <c r="G194" s="67"/>
     </row>
     <row r="195" s="7" customFormat="1" spans="1:7">
-      <c r="A195" s="47"/>
+      <c r="A195" s="49"/>
       <c r="C195" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G195" s="65"/>
+        <v>209</v>
+      </c>
+      <c r="G195" s="67"/>
     </row>
     <row r="196" s="7" customFormat="1" spans="1:7">
-      <c r="A196" s="48"/>
-      <c r="G196" s="65"/>
+      <c r="A196" s="50"/>
+      <c r="C196" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G196" s="67"/>
     </row>
     <row r="197" s="3" customFormat="1" ht="33" spans="1:7">
-      <c r="A197" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="B197" s="30" t="s">
+      <c r="A197" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="B197" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C197" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="D197" s="3"/>
+      <c r="E197" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G197" s="58" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="198" s="3" customFormat="1" spans="1:7">
+      <c r="A198" s="33"/>
+      <c r="B198" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="C197" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="D197" s="3"/>
-      <c r="E197" s="30" t="s">
+      <c r="D198" s="3"/>
+      <c r="E198" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="G197" s="56" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="198" s="3" customFormat="1" spans="1:7">
-      <c r="A198" s="31"/>
-      <c r="B198" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C198" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="D198" s="3"/>
-      <c r="E198" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F198" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G198" s="57"/>
+      <c r="F198" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="G198" s="59"/>
     </row>
     <row r="199" s="3" customFormat="1" spans="1:7">
-      <c r="A199" s="31"/>
-      <c r="B199" s="30" t="s">
+      <c r="A199" s="33"/>
+      <c r="B199" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C199" s="30" t="s">
-        <v>141</v>
+      <c r="C199" s="32" t="s">
+        <v>143</v>
       </c>
       <c r="D199" s="3"/>
-      <c r="E199" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="F199" s="30"/>
-      <c r="G199" s="57"/>
+      <c r="E199" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="F199" s="32"/>
+      <c r="G199" s="59"/>
     </row>
     <row r="200" s="3" customFormat="1" spans="1:7">
-      <c r="A200" s="31"/>
-      <c r="C200" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="E200" s="30"/>
-      <c r="G200" s="57"/>
+      <c r="A200" s="33"/>
+      <c r="C200" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="E200" s="32"/>
+      <c r="G200" s="59"/>
     </row>
     <row r="201" s="3" customFormat="1" spans="1:7">
-      <c r="A201" s="32"/>
-      <c r="G201" s="57"/>
+      <c r="A201" s="34"/>
+      <c r="G201" s="59"/>
     </row>
     <row r="202" s="4" customFormat="1" ht="66" spans="1:7">
-      <c r="A202" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="B202" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="C202" s="34" t="s">
-        <v>210</v>
+      <c r="A202" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="B202" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C202" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="D202" s="4"/>
-      <c r="E202" s="34" t="s">
+      <c r="E202" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F202" s="4"/>
-      <c r="G202" s="90" t="s">
-        <v>211</v>
+      <c r="G202" s="92" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="203" s="4" customFormat="1" spans="1:7">
-      <c r="A203" s="35"/>
-      <c r="B203" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="C203" s="34" t="s">
-        <v>91</v>
+      <c r="A203" s="37"/>
+      <c r="B203" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C203" s="36" t="s">
+        <v>92</v>
       </c>
       <c r="D203" s="4"/>
-      <c r="E203" s="34" t="s">
-        <v>118</v>
+      <c r="E203" s="36" t="s">
+        <v>119</v>
       </c>
       <c r="F203" s="4"/>
-      <c r="G203" s="59"/>
+      <c r="G203" s="61"/>
     </row>
     <row r="204" s="4" customFormat="1" spans="1:7">
-      <c r="A204" s="35"/>
-      <c r="B204" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C204" s="34" t="s">
-        <v>94</v>
+      <c r="A204" s="37"/>
+      <c r="B204" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C204" s="36" t="s">
+        <v>95</v>
       </c>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
-      <c r="G204" s="59"/>
+      <c r="G204" s="61"/>
     </row>
     <row r="205" s="4" customFormat="1" spans="1:7">
-      <c r="A205" s="35"/>
-      <c r="B205" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="C205" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="G205" s="59"/>
+      <c r="A205" s="37"/>
+      <c r="B205" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C205" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="G205" s="61"/>
     </row>
     <row r="206" s="4" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A206" s="36"/>
-      <c r="G206" s="59"/>
+      <c r="A206" s="38"/>
+      <c r="G206" s="61"/>
     </row>
     <row r="207" s="4" customFormat="1" ht="33" spans="1:7">
-      <c r="A207" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="B207" s="34" t="s">
+      <c r="A207" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="B207" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C207" s="34" t="s">
-        <v>144</v>
+      <c r="C207" s="36" t="s">
+        <v>146</v>
       </c>
       <c r="D207" s="4"/>
-      <c r="E207" s="34" t="s">
+      <c r="E207" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F207" s="4"/>
-      <c r="G207" s="58" t="s">
-        <v>213</v>
+      <c r="G207" s="60" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="208" s="4" customFormat="1" spans="1:7">
-      <c r="A208" s="35"/>
-      <c r="B208" s="34" t="s">
+      <c r="A208" s="37"/>
+      <c r="B208" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C208" s="34" t="s">
+      <c r="C208" s="36" t="s">
         <v>8</v>
       </c>
       <c r="D208" s="4"/>
@@ -5637,12 +5768,12 @@
         <v>9</v>
       </c>
       <c r="F208" s="4"/>
-      <c r="G208" s="59"/>
+      <c r="G208" s="61"/>
     </row>
     <row r="209" s="4" customFormat="1" spans="1:7">
-      <c r="A209" s="35"/>
+      <c r="A209" s="37"/>
       <c r="C209" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E209" s="4" t="s">
         <v>9</v>
@@ -5650,2141 +5781,2291 @@
       <c r="F209" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G209" s="59"/>
+      <c r="G209" s="61"/>
     </row>
     <row r="210" s="4" customFormat="1" spans="1:7">
-      <c r="A210" s="35"/>
+      <c r="A210" s="37"/>
       <c r="C210" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G210" s="59"/>
+        <v>165</v>
+      </c>
+      <c r="G210" s="61"/>
     </row>
     <row r="211" s="4" customFormat="1" spans="1:7">
-      <c r="A211" s="36"/>
-      <c r="G211" s="59"/>
+      <c r="A211" s="38"/>
+      <c r="G211" s="61"/>
     </row>
     <row r="212" s="8" customFormat="1" spans="1:7">
-      <c r="A212" s="83" t="s">
-        <v>214</v>
+      <c r="A212" s="85" t="s">
+        <v>220</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C212" s="84" t="s">
+      <c r="C212" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="D212" s="84" t="s">
+      <c r="D212" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="E212" s="84" t="s">
-        <v>116</v>
+      <c r="E212" s="86" t="s">
+        <v>117</v>
       </c>
       <c r="F212" s="8"/>
-      <c r="G212" s="91" t="s">
-        <v>215</v>
+      <c r="G212" s="93" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="213" s="8" customFormat="1" spans="1:7">
-      <c r="A213" s="85"/>
-      <c r="B213" s="84"/>
-      <c r="C213" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="D213" s="84"/>
-      <c r="E213" s="84" t="s">
-        <v>118</v>
-      </c>
-      <c r="F213" s="84" t="s">
+      <c r="A213" s="87"/>
+      <c r="B213" s="86"/>
+      <c r="C213" s="86" t="s">
+        <v>123</v>
+      </c>
+      <c r="D213" s="86"/>
+      <c r="E213" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="F213" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="G213" s="91" t="s">
-        <v>216</v>
+      <c r="G213" s="93" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="214" s="8" customFormat="1" ht="33" spans="1:7">
-      <c r="A214" s="85"/>
-      <c r="C214" s="84" t="s">
-        <v>217</v>
-      </c>
-      <c r="D214" s="84"/>
-      <c r="E214" s="84" t="s">
-        <v>118</v>
+      <c r="A214" s="87"/>
+      <c r="C214" s="86" t="s">
+        <v>223</v>
+      </c>
+      <c r="D214" s="86"/>
+      <c r="E214" s="86" t="s">
+        <v>119</v>
       </c>
       <c r="F214" s="8"/>
-      <c r="G214" s="92" t="s">
-        <v>218</v>
+      <c r="G214" s="94" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="215" s="8" customFormat="1" spans="1:7">
-      <c r="A215" s="85"/>
-      <c r="D215" s="84"/>
+      <c r="A215" s="87"/>
+      <c r="D215" s="86"/>
       <c r="E215" s="8"/>
       <c r="F215" s="8"/>
-      <c r="G215" s="93"/>
+      <c r="G215" s="95"/>
     </row>
     <row r="216" s="8" customFormat="1" spans="1:7">
-      <c r="A216" s="86"/>
-      <c r="C216" s="84"/>
-      <c r="D216" s="84"/>
-      <c r="G216" s="93"/>
+      <c r="A216" s="88"/>
+      <c r="C216" s="86"/>
+      <c r="D216" s="86"/>
+      <c r="G216" s="95"/>
     </row>
     <row r="217" s="2" customFormat="1" ht="33" spans="1:7">
-      <c r="A217" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="B217" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C217" s="26" t="s">
-        <v>95</v>
+      <c r="A217" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="B217" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C217" s="28" t="s">
+        <v>96</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E217" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E217" s="28" t="s">
         <v>9</v>
       </c>
       <c r="F217" s="2"/>
-      <c r="G217" s="54" t="s">
-        <v>220</v>
+      <c r="G217" s="56" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="218" s="2" customFormat="1" spans="1:7">
-      <c r="A218" s="27"/>
-      <c r="B218" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="C218" s="26" t="s">
-        <v>221</v>
+      <c r="A218" s="29"/>
+      <c r="B218" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C218" s="28" t="s">
+        <v>227</v>
       </c>
       <c r="D218" s="2"/>
-      <c r="E218" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="F218" s="26" t="s">
+      <c r="E218" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F218" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G218" s="53"/>
+      <c r="G218" s="55"/>
     </row>
     <row r="219" s="2" customFormat="1" spans="1:7">
-      <c r="A219" s="27"/>
-      <c r="B219" s="26" t="s">
-        <v>172</v>
+      <c r="A219" s="29"/>
+      <c r="B219" s="28" t="s">
+        <v>175</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
-      <c r="G219" s="53"/>
+      <c r="G219" s="55"/>
     </row>
     <row r="220" s="2" customFormat="1" spans="1:7">
-      <c r="A220" s="27"/>
-      <c r="G220" s="53"/>
+      <c r="A220" s="29"/>
+      <c r="G220" s="55"/>
     </row>
     <row r="221" s="2" customFormat="1" spans="1:7">
-      <c r="A221" s="28"/>
-      <c r="G221" s="53"/>
+      <c r="A221" s="30"/>
+      <c r="G221" s="55"/>
     </row>
     <row r="222" s="5" customFormat="1" ht="33" spans="1:7">
-      <c r="A222" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="B222" s="38" t="s">
+      <c r="A222" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="B222" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C222" s="38" t="s">
+      <c r="C222" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D222" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="E222" s="38" t="s">
+      <c r="D222" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="E222" s="40" t="s">
         <v>44</v>
       </c>
       <c r="F222" s="5"/>
-      <c r="G222" s="60" t="s">
-        <v>224</v>
+      <c r="G222" s="62" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="223" s="5" customFormat="1" spans="1:7">
-      <c r="A223" s="39"/>
-      <c r="B223" s="38" t="s">
+      <c r="A223" s="41"/>
+      <c r="B223" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C223" s="38" t="s">
+      <c r="C223" s="40" t="s">
         <v>46</v>
       </c>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
-      <c r="G223" s="61"/>
+      <c r="G223" s="63"/>
     </row>
     <row r="224" s="5" customFormat="1" spans="1:7">
-      <c r="A224" s="39"/>
-      <c r="G224" s="61"/>
+      <c r="A224" s="41"/>
+      <c r="G224" s="63"/>
     </row>
     <row r="225" s="5" customFormat="1" spans="1:7">
-      <c r="A225" s="39"/>
-      <c r="G225" s="61"/>
+      <c r="A225" s="41"/>
+      <c r="G225" s="63"/>
     </row>
     <row r="226" s="5" customFormat="1" spans="1:7">
-      <c r="A226" s="40"/>
-      <c r="G226" s="61"/>
+      <c r="A226" s="42"/>
+      <c r="G226" s="63"/>
     </row>
     <row r="227" s="5" customFormat="1" ht="33" spans="1:7">
-      <c r="A227" s="37" t="s">
-        <v>225</v>
+      <c r="A227" s="39" t="s">
+        <v>231</v>
       </c>
       <c r="B227" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C227" s="38" t="s">
-        <v>144</v>
+      <c r="C227" s="40" t="s">
+        <v>146</v>
       </c>
       <c r="D227" s="5"/>
-      <c r="E227" s="38" t="s">
+      <c r="E227" s="40" t="s">
         <v>44</v>
       </c>
       <c r="F227" s="5"/>
-      <c r="G227" s="60" t="s">
-        <v>226</v>
+      <c r="G227" s="62" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="228" s="5" customFormat="1" spans="1:7">
-      <c r="A228" s="39"/>
+      <c r="A228" s="41"/>
       <c r="C228" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="G228" s="61"/>
+        <v>233</v>
+      </c>
+      <c r="G228" s="63"/>
     </row>
     <row r="229" s="5" customFormat="1" spans="1:7">
-      <c r="A229" s="39"/>
-      <c r="G229" s="61"/>
+      <c r="A229" s="41"/>
+      <c r="G229" s="63"/>
     </row>
     <row r="230" s="5" customFormat="1" spans="1:7">
-      <c r="A230" s="39"/>
-      <c r="G230" s="61"/>
+      <c r="A230" s="41"/>
+      <c r="G230" s="63"/>
     </row>
     <row r="231" s="5" customFormat="1" spans="1:7">
-      <c r="A231" s="40"/>
-      <c r="G231" s="61"/>
+      <c r="A231" s="42"/>
+      <c r="G231" s="63"/>
     </row>
     <row r="232" s="3" customFormat="1" spans="1:7">
-      <c r="A232" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="B232" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="C232" s="30" t="s">
-        <v>170</v>
+      <c r="A232" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="B232" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="C232" s="32" t="s">
+        <v>173</v>
       </c>
       <c r="D232" s="3"/>
-      <c r="E232" s="30" t="s">
+      <c r="E232" s="32" t="s">
         <v>9</v>
       </c>
       <c r="F232" s="3"/>
-      <c r="G232" s="57" t="s">
-        <v>229</v>
+      <c r="G232" s="59" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="233" s="3" customFormat="1" spans="1:7">
-      <c r="A233" s="31"/>
-      <c r="B233" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="C233" s="30" t="s">
-        <v>210</v>
+      <c r="A233" s="33"/>
+      <c r="B233" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C233" s="32" t="s">
+        <v>216</v>
       </c>
       <c r="D233" s="3"/>
-      <c r="E233" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="F233" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="G233" s="57"/>
+      <c r="E233" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="F233" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="G233" s="59"/>
     </row>
     <row r="234" s="3" customFormat="1" spans="1:7">
-      <c r="A234" s="31"/>
-      <c r="B234" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="C234" s="30" t="s">
-        <v>95</v>
+      <c r="A234" s="33"/>
+      <c r="B234" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C234" s="32" t="s">
+        <v>96</v>
       </c>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
-      <c r="G234" s="57"/>
+      <c r="G234" s="59"/>
     </row>
     <row r="235" s="3" customFormat="1" spans="1:7">
-      <c r="A235" s="31"/>
-      <c r="B235" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="G235" s="57"/>
+      <c r="A235" s="33"/>
+      <c r="B235" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="G235" s="59"/>
     </row>
     <row r="236" s="3" customFormat="1" spans="1:7">
-      <c r="A236" s="32"/>
-      <c r="G236" s="57"/>
+      <c r="A236" s="34"/>
+      <c r="G236" s="59"/>
     </row>
     <row r="237" s="5" customFormat="1" ht="33" spans="1:7">
-      <c r="A237" s="37" t="s">
-        <v>232</v>
+      <c r="A237" s="39" t="s">
+        <v>238</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C237" s="38" t="s">
-        <v>95</v>
+        <v>175</v>
+      </c>
+      <c r="C237" s="40" t="s">
+        <v>96</v>
       </c>
       <c r="D237" s="5"/>
-      <c r="E237" s="38" t="s">
+      <c r="E237" s="40" t="s">
         <v>44</v>
       </c>
       <c r="F237" s="5"/>
-      <c r="G237" s="77" t="s">
-        <v>233</v>
+      <c r="G237" s="79" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="238" s="5" customFormat="1" spans="1:7">
-      <c r="A238" s="39"/>
-      <c r="C238" s="38" t="s">
-        <v>221</v>
+      <c r="A238" s="41"/>
+      <c r="C238" s="40" t="s">
+        <v>227</v>
       </c>
       <c r="D238" s="5"/>
-      <c r="E238" s="38" t="s">
+      <c r="E238" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="F238" s="38" t="s">
+      <c r="F238" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G238" s="61"/>
+      <c r="G238" s="63"/>
     </row>
     <row r="239" s="5" customFormat="1" spans="1:7">
-      <c r="A239" s="39"/>
-      <c r="C239" s="38" t="s">
-        <v>234</v>
+      <c r="A239" s="41"/>
+      <c r="C239" s="40" t="s">
+        <v>240</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
-      <c r="G239" s="61"/>
+      <c r="G239" s="63"/>
     </row>
     <row r="240" s="5" customFormat="1" spans="1:7">
-      <c r="A240" s="39"/>
-      <c r="G240" s="61"/>
+      <c r="A240" s="41"/>
+      <c r="G240" s="63"/>
     </row>
     <row r="241" s="5" customFormat="1" spans="1:7">
-      <c r="A241" s="40"/>
-      <c r="G241" s="61"/>
+      <c r="A241" s="42"/>
+      <c r="G241" s="63"/>
     </row>
     <row r="242" s="4" customFormat="1" ht="33" spans="1:7">
-      <c r="A242" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="B242" s="34" t="s">
+      <c r="A242" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C242" s="34" t="s">
+      <c r="C242" s="36" t="s">
         <v>33</v>
       </c>
       <c r="D242" s="4"/>
-      <c r="E242" s="34" t="s">
+      <c r="E242" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F242" s="34" t="s">
+      <c r="F242" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="G242" s="58" t="s">
-        <v>236</v>
+      <c r="G242" s="60" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="243" s="4" customFormat="1" spans="1:7">
-      <c r="A243" s="35"/>
-      <c r="B243" s="34" t="s">
+      <c r="A243" s="37"/>
+      <c r="B243" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="C243" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D243" s="4"/>
+      <c r="E243" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F243" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G243" s="61"/>
+    </row>
+    <row r="244" s="4" customFormat="1" spans="1:7">
+      <c r="A244" s="37"/>
+      <c r="B244" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C243" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D243" s="4"/>
-      <c r="E243" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F243" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="G243" s="59"/>
-    </row>
-    <row r="244" s="4" customFormat="1" spans="1:7">
-      <c r="A244" s="35"/>
-      <c r="B244" s="34" t="s">
+      <c r="C244" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D244" s="4"/>
+      <c r="E244" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="F244" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G244" s="61"/>
+    </row>
+    <row r="245" s="4" customFormat="1" spans="1:7">
+      <c r="A245" s="37"/>
+      <c r="B245" s="36" t="s">
         <v>66</v>
-      </c>
-      <c r="C244" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="D244" s="4"/>
-      <c r="E244" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="F244" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G244" s="59"/>
-    </row>
-    <row r="245" s="4" customFormat="1" spans="1:7">
-      <c r="A245" s="35"/>
-      <c r="B245" s="34" t="s">
-        <v>38</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
-      <c r="E245" s="34" t="s">
-        <v>124</v>
+      <c r="E245" s="36" t="s">
+        <v>125</v>
       </c>
       <c r="F245" s="4"/>
-      <c r="G245" s="59"/>
+      <c r="G245" s="61"/>
     </row>
     <row r="246" s="4" customFormat="1" spans="1:7">
-      <c r="A246" s="36"/>
-      <c r="E246" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="G246" s="59"/>
+      <c r="A246" s="38"/>
+      <c r="B246" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E246" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="G246" s="61"/>
     </row>
     <row r="247" s="6" customFormat="1" ht="33" spans="1:7">
-      <c r="A247" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="B247" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="C247" s="42" t="s">
+      <c r="A247" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="B247" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="C247" s="44" t="s">
         <v>29</v>
       </c>
       <c r="D247" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E247" s="42" t="s">
-        <v>240</v>
+      <c r="E247" s="44" t="s">
+        <v>247</v>
       </c>
       <c r="F247" s="6"/>
-      <c r="G247" s="62" t="s">
-        <v>241</v>
+      <c r="G247" s="64" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="248" s="6" customFormat="1" spans="1:7">
-      <c r="A248" s="43"/>
-      <c r="B248" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="C248" s="42" t="s">
+      <c r="A248" s="45"/>
+      <c r="B248" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C248" s="44" t="s">
         <v>20</v>
       </c>
       <c r="D248" s="6"/>
-      <c r="E248" s="42" t="s">
+      <c r="E248" s="44" t="s">
         <v>64</v>
       </c>
       <c r="F248" s="6"/>
-      <c r="G248" s="63"/>
+      <c r="G248" s="65"/>
     </row>
     <row r="249" s="6" customFormat="1" spans="1:7">
-      <c r="A249" s="43"/>
-      <c r="B249" s="42" t="s">
+      <c r="A249" s="45"/>
+      <c r="B249" s="44" t="s">
         <v>60</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E249" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="E249" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="G249" s="63"/>
+      <c r="G249" s="65"/>
     </row>
     <row r="250" s="6" customFormat="1" spans="1:7">
-      <c r="A250" s="43"/>
-      <c r="G250" s="63"/>
+      <c r="A250" s="45"/>
+      <c r="G250" s="65"/>
     </row>
     <row r="251" s="9" customFormat="1" spans="1:7">
-      <c r="A251" s="43"/>
-      <c r="G251" s="94"/>
+      <c r="A251" s="45"/>
+      <c r="G251" s="96"/>
     </row>
     <row r="252" s="10" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A252" s="87" t="s">
-        <v>242</v>
-      </c>
-      <c r="B252" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="C252" s="42" t="s">
+      <c r="A252" s="89" t="s">
+        <v>249</v>
+      </c>
+      <c r="B252" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="C252" s="44" t="s">
         <v>8</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E252" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="E252" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F252" s="42"/>
-      <c r="G252" s="95" t="s">
-        <v>243</v>
+      <c r="F252" s="44"/>
+      <c r="G252" s="97" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="253" s="10" customFormat="1" ht="54" spans="1:7">
-      <c r="A253" s="88"/>
-      <c r="B253" s="42" t="s">
+      <c r="A253" s="90"/>
+      <c r="B253" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C253" s="42" t="s">
-        <v>130</v>
+      <c r="C253" s="44" t="s">
+        <v>131</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E253" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="F253" s="42" t="s">
-        <v>245</v>
-      </c>
-      <c r="G253" s="96" t="s">
-        <v>246</v>
+        <v>147</v>
+      </c>
+      <c r="E253" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="F253" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="G253" s="98" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="254" s="10" customFormat="1" ht="18" spans="1:6">
-      <c r="A254" s="88"/>
-      <c r="B254" s="42"/>
+      <c r="A254" s="90"/>
+      <c r="B254" s="44"/>
       <c r="C254" s="6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D254" s="6"/>
-      <c r="E254" s="42"/>
-      <c r="F254" s="42"/>
+      <c r="E254" s="44"/>
+      <c r="F254" s="44"/>
     </row>
     <row r="255" s="10" customFormat="1" ht="18" spans="1:6">
-      <c r="A255" s="88"/>
-      <c r="B255" s="42"/>
-      <c r="C255" s="42" t="s">
-        <v>248</v>
+      <c r="A255" s="90"/>
+      <c r="B255" s="44"/>
+      <c r="C255" s="44" t="s">
+        <v>255</v>
       </c>
       <c r="D255" s="6"/>
-      <c r="E255" s="42"/>
-      <c r="F255" s="42"/>
+      <c r="E255" s="44"/>
+      <c r="F255" s="44"/>
     </row>
     <row r="256" s="10" customFormat="1" ht="18" spans="1:6">
-      <c r="A256" s="89"/>
-      <c r="B256" s="42"/>
-      <c r="C256" s="42" t="s">
-        <v>144</v>
+      <c r="A256" s="91"/>
+      <c r="B256" s="44"/>
+      <c r="C256" s="44" t="s">
+        <v>146</v>
       </c>
       <c r="D256" s="6"/>
-      <c r="E256" s="42"/>
-      <c r="F256" s="42"/>
+      <c r="E256" s="44"/>
+      <c r="F256" s="44"/>
     </row>
     <row r="257" s="11" customFormat="1" spans="1:7">
-      <c r="A257" s="97" t="s">
-        <v>249</v>
-      </c>
-      <c r="B257" s="98" t="s">
-        <v>113</v>
-      </c>
-      <c r="C257" s="98" t="s">
+      <c r="A257" s="99" t="s">
+        <v>256</v>
+      </c>
+      <c r="B257" s="100" t="s">
+        <v>114</v>
+      </c>
+      <c r="C257" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="D257" s="98" t="s">
+      <c r="D257" s="100" t="s">
         <v>27</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G257" s="128"/>
+        <v>119</v>
+      </c>
+      <c r="G257" s="134"/>
     </row>
     <row r="258" s="4" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A258" s="35"/>
-      <c r="B258" s="34" t="s">
+      <c r="A258" s="37"/>
+      <c r="B258" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C258" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="D258" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="E258" s="34" t="s">
+      <c r="C258" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="D258" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="E258" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G258" s="58" t="s">
-        <v>251</v>
+      <c r="G258" s="60" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="259" s="4" customFormat="1" ht="33" spans="1:7">
-      <c r="A259" s="35"/>
-      <c r="C259" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="E259" s="129" t="s">
-        <v>252</v>
-      </c>
-      <c r="F259" s="129" t="s">
-        <v>253</v>
-      </c>
-      <c r="G259" s="59"/>
+      <c r="A259" s="37"/>
+      <c r="B259" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C259" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E259" s="135" t="s">
+        <v>260</v>
+      </c>
+      <c r="F259" s="135" t="s">
+        <v>261</v>
+      </c>
+      <c r="G259" s="61"/>
     </row>
     <row r="260" s="4" customFormat="1" spans="1:7">
-      <c r="A260" s="35"/>
-      <c r="G260" s="59"/>
+      <c r="A260" s="37"/>
+      <c r="D260" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="G260" s="61"/>
     </row>
     <row r="261" s="4" customFormat="1" spans="1:7">
-      <c r="A261" s="36"/>
-      <c r="G261" s="59"/>
+      <c r="A261" s="38"/>
+      <c r="G261" s="61"/>
     </row>
     <row r="262" s="7" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A262" s="99" t="s">
-        <v>254</v>
-      </c>
-      <c r="B262" s="46" t="s">
+      <c r="A262" s="101" t="s">
+        <v>263</v>
+      </c>
+      <c r="B262" s="48" t="s">
         <v>32</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D262" s="46" t="s">
+      <c r="D262" s="48" t="s">
         <v>52</v>
       </c>
       <c r="E262" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F262" s="130" t="s">
+      <c r="F262" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="G262" s="131" t="s">
-        <v>255</v>
+      <c r="G262" s="137" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="263" s="7" customFormat="1" spans="1:7">
-      <c r="A263" s="100"/>
+      <c r="A263" s="102"/>
       <c r="B263" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E263" s="46" t="s">
+      <c r="E263" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="G263" s="131"/>
+      <c r="G263" s="137"/>
     </row>
     <row r="264" s="7" customFormat="1" spans="1:7">
-      <c r="A264" s="100"/>
-      <c r="B264" s="46" t="s">
+      <c r="A264" s="102"/>
+      <c r="B264" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C264" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="G264" s="65"/>
+      <c r="C264" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="G264" s="67"/>
     </row>
     <row r="265" s="7" customFormat="1" spans="1:7">
-      <c r="A265" s="100"/>
-      <c r="B265" s="46" t="s">
+      <c r="A265" s="102"/>
+      <c r="B265" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C265" s="46" t="s">
+      <c r="C265" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="G265" s="65"/>
+      <c r="G265" s="67"/>
     </row>
     <row r="266" s="7" customFormat="1" spans="1:7">
-      <c r="A266" s="101"/>
-      <c r="G266" s="65"/>
+      <c r="A266" s="103"/>
+      <c r="G266" s="67"/>
     </row>
     <row r="267" s="12" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A267" s="102" t="s">
-        <v>256</v>
-      </c>
-      <c r="B267" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="C267" s="103" t="s">
+      <c r="A267" s="104" t="s">
+        <v>265</v>
+      </c>
+      <c r="B267" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="C267" s="105" t="s">
+        <v>266</v>
+      </c>
+      <c r="D267" s="105" t="s">
         <v>257</v>
       </c>
-      <c r="D267" s="103" t="s">
-        <v>250</v>
-      </c>
-      <c r="E267" s="103" t="s">
-        <v>258</v>
-      </c>
-      <c r="G267" s="132" t="s">
+      <c r="E267" s="105" t="s">
+        <v>267</v>
+      </c>
+      <c r="G267" s="138" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="268" s="12" customFormat="1" spans="1:7">
+      <c r="A268" s="104"/>
+      <c r="B268" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C268" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="D268" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="E268" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F268" s="105"/>
+      <c r="G268" s="139" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="269" s="12" customFormat="1" spans="1:7">
+      <c r="A269" s="104"/>
+      <c r="C269" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="E269" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="G269" s="139"/>
+    </row>
+    <row r="270" s="12" customFormat="1" spans="1:7">
+      <c r="A270" s="104"/>
+      <c r="G270" s="139"/>
+    </row>
+    <row r="271" s="12" customFormat="1" spans="1:7">
+      <c r="A271" s="104"/>
+      <c r="G271" s="139"/>
+    </row>
+    <row r="272" s="12" customFormat="1" spans="1:7">
+      <c r="A272" s="106" t="s">
+        <v>270</v>
+      </c>
+      <c r="B272" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C272" s="105" t="s">
+        <v>272</v>
+      </c>
+      <c r="D272" s="105" t="s">
+        <v>161</v>
+      </c>
+      <c r="E272" s="105" t="s">
+        <v>99</v>
+      </c>
+      <c r="G272" s="139" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="273" s="12" customFormat="1" spans="1:7">
+      <c r="A273" s="107"/>
+      <c r="B273" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C273" s="105" t="s">
+        <v>143</v>
+      </c>
+      <c r="E273" s="105" t="s">
+        <v>244</v>
+      </c>
+      <c r="G273" s="139"/>
+    </row>
+    <row r="274" s="12" customFormat="1" spans="1:7">
+      <c r="A274" s="107"/>
+      <c r="B274" s="105" t="s">
+        <v>144</v>
+      </c>
+      <c r="C274" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E274" s="105" t="s">
+        <v>267</v>
+      </c>
+      <c r="F274" s="105" t="s">
+        <v>244</v>
+      </c>
+      <c r="G274" s="140"/>
+    </row>
+    <row r="275" s="12" customFormat="1" spans="1:7">
+      <c r="A275" s="107"/>
+      <c r="B275" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C275" s="105" t="s">
+        <v>133</v>
+      </c>
+      <c r="E275" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="G275" s="140"/>
+    </row>
+    <row r="276" s="12" customFormat="1" spans="1:7">
+      <c r="A276" s="108"/>
+      <c r="G276" s="140"/>
+    </row>
+    <row r="277" s="12" customFormat="1" spans="1:7">
+      <c r="A277" s="104" t="s">
+        <v>274</v>
+      </c>
+      <c r="B277" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C277" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="D277" s="105" t="s">
+        <v>129</v>
+      </c>
+      <c r="E277" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="G277" s="139" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="278" s="12" customFormat="1" spans="1:7">
+      <c r="A278" s="109"/>
+      <c r="B278" s="105"/>
+      <c r="C278" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="E278" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G278" s="139" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="279" s="12" customFormat="1" spans="1:7">
+      <c r="A279" s="109"/>
+      <c r="B279" s="105"/>
+      <c r="C279" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E279" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="G279" s="139" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="280" s="12" customFormat="1" spans="1:7">
+      <c r="A280" s="109"/>
+      <c r="C280" s="105" t="s">
+        <v>254</v>
+      </c>
+      <c r="G280" s="140"/>
+    </row>
+    <row r="281" s="12" customFormat="1" spans="1:7">
+      <c r="A281" s="109"/>
+      <c r="G281" s="140"/>
+    </row>
+    <row r="282" s="13" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A282" s="110" t="s">
+        <v>278</v>
+      </c>
+      <c r="B282" s="111"/>
+      <c r="C282" s="112" t="s">
+        <v>209</v>
+      </c>
+      <c r="E282" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="G282" s="141" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="283" s="13" customFormat="1" spans="1:7">
+      <c r="A283" s="113"/>
+      <c r="B283" s="111"/>
+      <c r="C283" s="112" t="s">
+        <v>73</v>
+      </c>
+      <c r="E283" s="112" t="s">
+        <v>22</v>
+      </c>
+      <c r="G283" s="142" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="284" s="13" customFormat="1" spans="1:7">
+      <c r="A284" s="113"/>
+      <c r="B284" s="111"/>
+      <c r="C284" s="112" t="s">
+        <v>281</v>
+      </c>
+      <c r="E284" s="112" t="s">
+        <v>267</v>
+      </c>
+      <c r="G284" s="143"/>
+    </row>
+    <row r="285" s="13" customFormat="1" spans="1:7">
+      <c r="A285" s="113"/>
+      <c r="B285" s="111"/>
+      <c r="C285" s="112" t="s">
+        <v>205</v>
+      </c>
+      <c r="G285" s="143"/>
+    </row>
+    <row r="286" s="13" customFormat="1" spans="1:7">
+      <c r="A286" s="113"/>
+      <c r="B286" s="111"/>
+      <c r="C286" s="112" t="s">
+        <v>282</v>
+      </c>
+      <c r="G286" s="143"/>
+    </row>
+    <row r="287" s="6" customFormat="1" spans="1:7">
+      <c r="A287" s="74" t="s">
+        <v>283</v>
+      </c>
+      <c r="B287" s="44" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="268" s="12" customFormat="1" spans="1:7">
-      <c r="A268" s="102"/>
-      <c r="B268" s="103" t="s">
-        <v>19</v>
-      </c>
-      <c r="C268" s="103" t="s">
+      <c r="E287" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="F287" s="44"/>
+      <c r="G287" s="144" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="288" s="6" customFormat="1" spans="1:7">
+      <c r="A288" s="45"/>
+      <c r="B288" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E288" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="F288" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="G288" s="144"/>
+    </row>
+    <row r="289" s="6" customFormat="1" spans="1:7">
+      <c r="A289" s="45"/>
+      <c r="E289" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="F289" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="G289" s="144" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="290" s="6" customFormat="1" spans="1:7">
+      <c r="A290" s="45"/>
+      <c r="E290" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="G290" s="144" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="291" s="6" customFormat="1" spans="1:7">
+      <c r="A291" s="46"/>
+      <c r="E291" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="G291" s="65"/>
+    </row>
+    <row r="292" s="4" customFormat="1" spans="1:7">
+      <c r="A292" s="114" t="s">
+        <v>288</v>
+      </c>
+      <c r="B292" s="115" t="s">
+        <v>289</v>
+      </c>
+      <c r="C292" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E292" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G292" s="84" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="293" s="4" customFormat="1" spans="1:7">
+      <c r="A293" s="116"/>
+      <c r="B293" s="115" t="s">
+        <v>153</v>
+      </c>
+      <c r="E293" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="F293" s="36"/>
+      <c r="G293" s="84" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="294" s="4" customFormat="1" spans="1:7">
+      <c r="A294" s="116"/>
+      <c r="B294" s="115" t="s">
+        <v>154</v>
+      </c>
+      <c r="E294" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G294" s="84"/>
+    </row>
+    <row r="295" s="4" customFormat="1" spans="1:7">
+      <c r="A295" s="116"/>
+      <c r="B295" s="117"/>
+      <c r="G295" s="61"/>
+    </row>
+    <row r="296" s="4" customFormat="1" spans="1:7">
+      <c r="A296" s="116"/>
+      <c r="B296" s="117"/>
+      <c r="G296" s="61"/>
+    </row>
+    <row r="297" s="14" customFormat="1" spans="1:7">
+      <c r="A297" s="118" t="s">
+        <v>292</v>
+      </c>
+      <c r="B297" s="119" t="s">
+        <v>175</v>
+      </c>
+      <c r="C297" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G297" s="145" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="298" s="14" customFormat="1" spans="1:7">
+      <c r="A298" s="120"/>
+      <c r="B298" s="119"/>
+      <c r="C298" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="E298" s="146" t="s">
+        <v>22</v>
+      </c>
+      <c r="F298" s="146" t="s">
+        <v>119</v>
+      </c>
+      <c r="G298" s="145"/>
+    </row>
+    <row r="299" s="14" customFormat="1" spans="1:7">
+      <c r="A299" s="120"/>
+      <c r="B299" s="119"/>
+      <c r="C299" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="E299" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="G299" s="147"/>
+    </row>
+    <row r="300" s="14" customFormat="1" spans="1:7">
+      <c r="A300" s="120"/>
+      <c r="B300" s="119"/>
+      <c r="G300" s="147"/>
+    </row>
+    <row r="301" s="14" customFormat="1" spans="1:7">
+      <c r="A301" s="120"/>
+      <c r="B301" s="119"/>
+      <c r="G301" s="147"/>
+    </row>
+    <row r="302" s="15" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A302" s="121" t="s">
+        <v>294</v>
+      </c>
+      <c r="B302" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C302" s="122" t="s">
+        <v>295</v>
+      </c>
+      <c r="D302" s="122" t="s">
+        <v>296</v>
+      </c>
+      <c r="E302" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="G302" s="148" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="303" s="15" customFormat="1" spans="1:7">
+      <c r="A303" s="123"/>
+      <c r="B303" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C303" s="122" t="s">
+        <v>298</v>
+      </c>
+      <c r="E303" s="122" t="s">
+        <v>244</v>
+      </c>
+      <c r="F303" s="122" t="s">
+        <v>99</v>
+      </c>
+      <c r="G303" s="148" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="304" s="15" customFormat="1" ht="50.25" customHeight="1" spans="1:7">
+      <c r="A304" s="123"/>
+      <c r="C304" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E304" s="122" t="s">
+        <v>262</v>
+      </c>
+      <c r="F304" s="122"/>
+      <c r="G304" s="149" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="305" s="15" customFormat="1" spans="1:1">
+      <c r="A305" s="123"/>
+    </row>
+    <row r="306" s="15" customFormat="1" spans="1:7">
+      <c r="A306" s="123"/>
+      <c r="G306" s="150"/>
+    </row>
+    <row r="307" s="16" customFormat="1" spans="1:7">
+      <c r="A307" s="124" t="s">
+        <v>301</v>
+      </c>
+      <c r="B307" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C307" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D268" s="103" t="s">
-        <v>27</v>
-      </c>
-      <c r="E268" s="103" t="s">
+      <c r="E307" s="151" t="s">
+        <v>302</v>
+      </c>
+      <c r="G307" s="152" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="308" s="16" customFormat="1" spans="1:7">
+      <c r="A308" s="125"/>
+      <c r="B308" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E308" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G308" s="152" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="309" s="16" customFormat="1" spans="1:1">
+      <c r="A309" s="125"/>
+    </row>
+    <row r="310" s="16" customFormat="1" spans="1:7">
+      <c r="A310" s="125"/>
+      <c r="G310" s="153"/>
+    </row>
+    <row r="311" s="16" customFormat="1" spans="1:7">
+      <c r="A311" s="125"/>
+      <c r="G311" s="153"/>
+    </row>
+    <row r="312" s="17" customFormat="1" spans="1:7">
+      <c r="A312" s="126" t="s">
+        <v>306</v>
+      </c>
+      <c r="B312" s="127" t="s">
+        <v>138</v>
+      </c>
+      <c r="C312" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="E312" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F312" s="128"/>
+      <c r="G312" s="154" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="313" s="7" customFormat="1" spans="1:7">
+      <c r="A313" s="129"/>
+      <c r="B313" s="130" t="s">
+        <v>36</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E313" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F313" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G313" s="83" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="314" s="7" customFormat="1" spans="1:7">
+      <c r="A314" s="129"/>
+      <c r="B314" s="130" t="s">
+        <v>38</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G314" s="83" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="315" s="7" customFormat="1" spans="1:7">
+      <c r="A315" s="129"/>
+      <c r="B315" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="C315" s="7"/>
+      <c r="G315" s="83" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="316" s="7" customFormat="1" spans="1:7">
+      <c r="A316" s="129"/>
+      <c r="B316" s="130"/>
+      <c r="G316" s="67"/>
+    </row>
+    <row r="317" s="18" customFormat="1" spans="1:7">
+      <c r="A317" s="126" t="s">
+        <v>312</v>
+      </c>
+      <c r="B317" s="131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C317" s="132" t="s">
+        <v>146</v>
+      </c>
+      <c r="E317" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="F268" s="103"/>
-      <c r="G268" s="133" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="269" s="12" customFormat="1" spans="1:7">
-      <c r="A269" s="102"/>
-      <c r="C269" s="103" t="s">
-        <v>61</v>
-      </c>
-      <c r="E269" s="103" t="s">
-        <v>22</v>
-      </c>
-      <c r="G269" s="133"/>
-    </row>
-    <row r="270" s="12" customFormat="1" spans="1:7">
-      <c r="A270" s="102"/>
-      <c r="G270" s="133"/>
-    </row>
-    <row r="271" s="12" customFormat="1" spans="1:7">
-      <c r="A271" s="102"/>
-      <c r="G271" s="133"/>
-    </row>
-    <row r="272" s="12" customFormat="1" spans="1:7">
-      <c r="A272" s="104" t="s">
-        <v>261</v>
-      </c>
-      <c r="B272" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C272" s="103" t="s">
-        <v>263</v>
-      </c>
-      <c r="D272" s="103" t="s">
-        <v>159</v>
-      </c>
-      <c r="E272" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="G272" s="133" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="273" s="12" customFormat="1" spans="1:7">
-      <c r="A273" s="105"/>
-      <c r="B273" s="103" t="s">
-        <v>12</v>
-      </c>
-      <c r="C273" s="103" t="s">
-        <v>141</v>
-      </c>
-      <c r="E273" s="103" t="s">
-        <v>237</v>
-      </c>
-      <c r="G273" s="133"/>
-    </row>
-    <row r="274" s="12" customFormat="1" spans="1:7">
-      <c r="A274" s="105"/>
-      <c r="B274" s="103" t="s">
-        <v>142</v>
-      </c>
-      <c r="C274" s="103" t="s">
-        <v>8</v>
-      </c>
-      <c r="E274" s="103" t="s">
-        <v>258</v>
-      </c>
-      <c r="F274" s="103" t="s">
-        <v>237</v>
-      </c>
-      <c r="G274" s="134"/>
-    </row>
-    <row r="275" s="12" customFormat="1" spans="1:7">
-      <c r="A275" s="105"/>
-      <c r="B275" s="103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C275" s="103" t="s">
-        <v>132</v>
-      </c>
-      <c r="E275" s="103" t="s">
-        <v>47</v>
-      </c>
-      <c r="G275" s="134"/>
-    </row>
-    <row r="276" s="12" customFormat="1" spans="1:7">
-      <c r="A276" s="106"/>
-      <c r="G276" s="134"/>
-    </row>
-    <row r="277" s="12" customFormat="1" spans="1:7">
-      <c r="A277" s="102" t="s">
-        <v>265</v>
-      </c>
-      <c r="B277" s="103" t="s">
+      <c r="G317" s="155" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="318" s="18" customFormat="1" spans="1:7">
+      <c r="A318" s="129"/>
+      <c r="B318" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="C277" s="103" t="s">
-        <v>130</v>
-      </c>
-      <c r="D277" s="103" t="s">
-        <v>128</v>
-      </c>
-      <c r="E277" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="G277" s="133" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="278" s="12" customFormat="1" spans="1:7">
-      <c r="A278" s="107"/>
-      <c r="B278" s="103"/>
-      <c r="C278" s="103" t="s">
-        <v>144</v>
-      </c>
-      <c r="E278" s="103" t="s">
-        <v>9</v>
-      </c>
-      <c r="G278" s="133" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="279" s="12" customFormat="1" spans="1:7">
-      <c r="A279" s="107"/>
-      <c r="B279" s="103"/>
-      <c r="C279" s="103" t="s">
-        <v>8</v>
-      </c>
-      <c r="E279" s="103" t="s">
-        <v>22</v>
-      </c>
-      <c r="G279" s="133" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="280" s="12" customFormat="1" spans="1:7">
-      <c r="A280" s="107"/>
-      <c r="C280" s="103" t="s">
-        <v>247</v>
-      </c>
-      <c r="G280" s="134"/>
-    </row>
-    <row r="281" s="12" customFormat="1" spans="1:7">
-      <c r="A281" s="107"/>
-      <c r="G281" s="134"/>
-    </row>
-    <row r="282" s="13" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A282" s="108" t="s">
-        <v>269</v>
-      </c>
-      <c r="B282" s="109"/>
-      <c r="C282" s="110" t="s">
-        <v>203</v>
-      </c>
-      <c r="E282" s="110" t="s">
-        <v>9</v>
-      </c>
-      <c r="G282" s="135" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="283" s="13" customFormat="1" spans="1:7">
-      <c r="A283" s="111"/>
-      <c r="B283" s="109"/>
-      <c r="C283" s="110" t="s">
-        <v>73</v>
-      </c>
-      <c r="E283" s="110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G283" s="136" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="284" s="13" customFormat="1" spans="1:7">
-      <c r="A284" s="111"/>
-      <c r="B284" s="109"/>
-      <c r="C284" s="110" t="s">
-        <v>272</v>
-      </c>
-      <c r="E284" s="110" t="s">
-        <v>258</v>
-      </c>
-      <c r="G284" s="137"/>
-    </row>
-    <row r="285" s="13" customFormat="1" spans="1:7">
-      <c r="A285" s="111"/>
-      <c r="B285" s="109"/>
-      <c r="C285" s="110" t="s">
-        <v>200</v>
-      </c>
-      <c r="G285" s="137"/>
-    </row>
-    <row r="286" s="13" customFormat="1" spans="1:7">
-      <c r="A286" s="111"/>
-      <c r="B286" s="109"/>
-      <c r="C286" s="110" t="s">
-        <v>273</v>
-      </c>
-      <c r="G286" s="137"/>
-    </row>
-    <row r="287" s="6" customFormat="1" spans="1:7">
-      <c r="A287" s="72" t="s">
-        <v>274</v>
-      </c>
-      <c r="B287" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="E287" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G287" s="138" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="288" s="6" customFormat="1" spans="1:7">
-      <c r="A288" s="43"/>
-      <c r="B288" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="E288" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F288" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="G288" s="138" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="289" s="6" customFormat="1" spans="1:7">
-      <c r="A289" s="43"/>
-      <c r="G289" s="138" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="290" s="6" customFormat="1" spans="1:7">
-      <c r="A290" s="43"/>
-      <c r="G290" s="138" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="291" s="6" customFormat="1" spans="1:7">
-      <c r="A291" s="44"/>
-      <c r="G291" s="63"/>
-    </row>
-    <row r="292" s="4" customFormat="1" spans="1:7">
-      <c r="A292" s="112" t="s">
-        <v>280</v>
-      </c>
-      <c r="B292" s="113" t="s">
-        <v>281</v>
-      </c>
-      <c r="E292" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="G292" s="82" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="293" s="4" customFormat="1" spans="1:7">
-      <c r="A293" s="114"/>
-      <c r="B293" s="115"/>
-      <c r="E293" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F293" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G293" s="82" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="294" s="4" customFormat="1" spans="1:7">
-      <c r="A294" s="114"/>
-      <c r="B294" s="115"/>
-      <c r="E294" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="G294" s="82" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="295" s="4" customFormat="1" spans="1:7">
-      <c r="A295" s="114"/>
-      <c r="B295" s="115"/>
-      <c r="G295" s="59"/>
-    </row>
-    <row r="296" s="4" customFormat="1" spans="1:7">
-      <c r="A296" s="114"/>
-      <c r="B296" s="115"/>
-      <c r="G296" s="59"/>
-    </row>
-    <row r="297" s="14" customFormat="1" spans="1:7">
-      <c r="A297" s="116" t="s">
-        <v>285</v>
-      </c>
-      <c r="B297" s="117" t="s">
-        <v>172</v>
-      </c>
-      <c r="C297" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G297" s="139" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="298" s="14" customFormat="1" spans="1:7">
-      <c r="A298" s="118"/>
-      <c r="B298" s="117"/>
-      <c r="C298" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="E298" s="140" t="s">
-        <v>22</v>
-      </c>
-      <c r="F298" s="140" t="s">
-        <v>118</v>
-      </c>
-      <c r="G298" s="139" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="299" s="14" customFormat="1" spans="1:7">
-      <c r="A299" s="118"/>
-      <c r="B299" s="117"/>
-      <c r="C299" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="E299" s="140" t="s">
-        <v>9</v>
-      </c>
-      <c r="G299" s="141"/>
-    </row>
-    <row r="300" s="14" customFormat="1" spans="1:7">
-      <c r="A300" s="118"/>
-      <c r="B300" s="117"/>
-      <c r="G300" s="141"/>
-    </row>
-    <row r="301" s="14" customFormat="1" spans="1:7">
-      <c r="A301" s="118"/>
-      <c r="B301" s="117"/>
-      <c r="G301" s="141"/>
-    </row>
-    <row r="302" s="15" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A302" s="119" t="s">
-        <v>288</v>
-      </c>
-      <c r="G302" s="142" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="303" s="15" customFormat="1" spans="1:7">
-      <c r="A303" s="120"/>
-      <c r="G303" s="143" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="304" s="15" customFormat="1" ht="33" spans="1:7">
-      <c r="A304" s="120"/>
-      <c r="G304" s="142" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="305" s="15" customFormat="1" spans="1:7">
-      <c r="A305" s="120"/>
-      <c r="G305" s="143" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="306" s="15" customFormat="1" spans="1:7">
-      <c r="A306" s="120"/>
-      <c r="G306" s="144"/>
-    </row>
-    <row r="307" s="16" customFormat="1" spans="1:7">
-      <c r="A307" s="121" t="s">
-        <v>293</v>
-      </c>
-      <c r="B307" s="122"/>
-      <c r="G307" s="145" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="308" s="7" customFormat="1" spans="1:7">
-      <c r="A308" s="123"/>
-      <c r="B308" s="124"/>
-      <c r="G308" s="81" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="309" s="7" customFormat="1" spans="1:7">
-      <c r="A309" s="123"/>
-      <c r="B309" s="124"/>
-      <c r="G309" s="81" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="310" s="7" customFormat="1" spans="1:7">
-      <c r="A310" s="123"/>
-      <c r="B310" s="124"/>
-      <c r="G310" s="81" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="311" s="7" customFormat="1" spans="1:7">
-      <c r="A311" s="123"/>
-      <c r="B311" s="124"/>
-      <c r="G311" s="65"/>
-    </row>
-    <row r="312" s="2" customFormat="1" spans="1:7">
-      <c r="A312" s="125" t="s">
-        <v>298</v>
-      </c>
-      <c r="B312" s="126"/>
-      <c r="G312" s="146" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="313" s="2" customFormat="1" spans="1:7">
-      <c r="A313" s="125"/>
-      <c r="B313" s="126"/>
-      <c r="G313" s="146" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="314" s="2" customFormat="1" spans="1:7">
-      <c r="A314" s="125"/>
-      <c r="B314" s="126"/>
-      <c r="G314" s="53"/>
-    </row>
-    <row r="315" s="2" customFormat="1" spans="1:7">
-      <c r="A315" s="125"/>
-      <c r="B315" s="126"/>
-      <c r="G315" s="53"/>
-    </row>
-    <row r="316" s="2" customFormat="1" spans="1:7">
-      <c r="A316" s="125"/>
-      <c r="B316" s="126"/>
-      <c r="G316" s="53"/>
-    </row>
-    <row r="317" s="12" customFormat="1" spans="1:7">
-      <c r="A317" s="120" t="s">
-        <v>301</v>
-      </c>
-      <c r="B317" s="127"/>
-      <c r="C317" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="G317" s="133" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="318" s="12" customFormat="1" spans="1:7">
-      <c r="A318" s="120"/>
-      <c r="B318" s="127"/>
-      <c r="G318" s="133" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="319" s="12" customFormat="1" spans="1:7">
-      <c r="A319" s="120"/>
-      <c r="B319" s="127"/>
-      <c r="G319" s="133" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="320" s="12" customFormat="1" spans="1:7">
-      <c r="A320" s="120"/>
-      <c r="B320" s="127"/>
-      <c r="G320" s="134"/>
-    </row>
-    <row r="321" s="12" customFormat="1" spans="1:7">
-      <c r="A321" s="120"/>
-      <c r="B321" s="127"/>
-      <c r="G321" s="134"/>
-    </row>
-    <row r="322" s="12" customFormat="1" spans="1:7">
-      <c r="A322" s="147" t="s">
-        <v>306</v>
-      </c>
-      <c r="B322" s="127"/>
-      <c r="G322" s="133" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="323" s="12" customFormat="1" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A323" s="147"/>
-      <c r="B323" s="127"/>
-      <c r="G323" s="132" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="324" s="12" customFormat="1" spans="1:7">
-      <c r="A324" s="147"/>
-      <c r="B324" s="127"/>
-      <c r="G324" s="132" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="325" s="12" customFormat="1" spans="1:7">
-      <c r="A325" s="147"/>
-      <c r="B325" s="127"/>
-      <c r="G325" s="134"/>
-    </row>
-    <row r="326" s="12" customFormat="1" spans="1:7">
-      <c r="A326" s="147"/>
-      <c r="B326" s="127"/>
-      <c r="G326" s="134"/>
+      <c r="G318" s="155" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="319" s="18" customFormat="1" spans="1:7">
+      <c r="A319" s="129"/>
+      <c r="B319" s="133"/>
+      <c r="G319" s="155" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="320" s="18" customFormat="1" spans="1:7">
+      <c r="A320" s="129"/>
+      <c r="B320" s="133"/>
+      <c r="G320" s="156"/>
+    </row>
+    <row r="321" s="18" customFormat="1" spans="1:7">
+      <c r="A321" s="129"/>
+      <c r="B321" s="133"/>
+      <c r="G321" s="156"/>
+    </row>
+    <row r="322" s="2" customFormat="1" spans="1:7">
+      <c r="A322" s="157" t="s">
+        <v>315</v>
+      </c>
+      <c r="B322" s="158"/>
+      <c r="G322" s="183" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="323" s="2" customFormat="1" spans="1:7">
+      <c r="A323" s="157"/>
+      <c r="B323" s="158"/>
+      <c r="G323" s="183"/>
+    </row>
+    <row r="324" s="2" customFormat="1" spans="1:7">
+      <c r="A324" s="157"/>
+      <c r="B324" s="158"/>
+      <c r="G324" s="55"/>
+    </row>
+    <row r="325" s="2" customFormat="1" spans="1:7">
+      <c r="A325" s="157"/>
+      <c r="B325" s="158"/>
+      <c r="G325" s="55"/>
+    </row>
+    <row r="326" s="2" customFormat="1" spans="1:7">
+      <c r="A326" s="157"/>
+      <c r="B326" s="158"/>
+      <c r="G326" s="55"/>
     </row>
     <row r="327" s="12" customFormat="1" spans="1:7">
-      <c r="A327" s="147" t="s">
-        <v>310</v>
-      </c>
-      <c r="B327" s="127"/>
-      <c r="G327" s="133" t="s">
-        <v>311</v>
+      <c r="A327" s="123" t="s">
+        <v>317</v>
+      </c>
+      <c r="B327" s="159"/>
+      <c r="C327" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="G327" s="139" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="328" s="12" customFormat="1" spans="1:7">
-      <c r="A328" s="148"/>
-      <c r="B328" s="127"/>
-      <c r="G328" s="132" t="s">
-        <v>312</v>
-      </c>
+      <c r="A328" s="123"/>
+      <c r="B328" s="159"/>
+      <c r="G328" s="139"/>
     </row>
     <row r="329" s="12" customFormat="1" spans="1:7">
-      <c r="A329" s="148"/>
-      <c r="B329" s="127"/>
-      <c r="G329" s="134"/>
+      <c r="A329" s="123"/>
+      <c r="B329" s="159"/>
+      <c r="G329" s="139" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="330" s="12" customFormat="1" spans="1:7">
-      <c r="A330" s="148"/>
-      <c r="B330" s="127"/>
-      <c r="G330" s="134"/>
-    </row>
-    <row r="331" s="17" customFormat="1" spans="1:7">
-      <c r="A331" s="148"/>
-      <c r="B331" s="149"/>
-      <c r="G331" s="166"/>
-    </row>
-    <row r="332" s="18" customFormat="1" spans="1:7">
-      <c r="A332" s="150" t="s">
-        <v>313</v>
-      </c>
-      <c r="B332" s="151"/>
-      <c r="G332" s="167" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="333" s="18" customFormat="1" spans="1:7">
-      <c r="A333" s="152"/>
-      <c r="B333" s="151"/>
-      <c r="G333" s="168"/>
-    </row>
-    <row r="334" s="18" customFormat="1" spans="1:7">
-      <c r="A334" s="152"/>
-      <c r="B334" s="151"/>
-      <c r="G334" s="168"/>
-    </row>
-    <row r="335" s="18" customFormat="1" spans="1:7">
-      <c r="A335" s="152"/>
-      <c r="B335" s="151"/>
-      <c r="G335" s="168"/>
-    </row>
-    <row r="336" s="18" customFormat="1" spans="1:7">
-      <c r="A336" s="152"/>
-      <c r="B336" s="151"/>
-      <c r="G336" s="168"/>
-    </row>
-    <row r="337" s="19" customFormat="1" spans="1:7">
-      <c r="A337" s="153" t="s">
-        <v>315</v>
-      </c>
-      <c r="G337" s="169" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="338" s="19" customFormat="1" spans="1:7">
-      <c r="A338" s="154"/>
-      <c r="G338" s="169" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="339" s="19" customFormat="1" spans="1:7">
-      <c r="A339" s="154"/>
-      <c r="G339" s="170"/>
-    </row>
-    <row r="340" s="19" customFormat="1" spans="1:7">
-      <c r="A340" s="154"/>
-      <c r="G340" s="170"/>
+      <c r="A330" s="123"/>
+      <c r="B330" s="159"/>
+      <c r="G330" s="140"/>
+    </row>
+    <row r="331" s="12" customFormat="1" spans="1:7">
+      <c r="A331" s="123"/>
+      <c r="B331" s="159"/>
+      <c r="G331" s="140"/>
+    </row>
+    <row r="332" s="12" customFormat="1" spans="1:7">
+      <c r="A332" s="160" t="s">
+        <v>321</v>
+      </c>
+      <c r="B332" s="159"/>
+      <c r="G332" s="139" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="333" s="12" customFormat="1" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A333" s="160"/>
+      <c r="B333" s="159"/>
+      <c r="G333" s="138" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="334" s="12" customFormat="1" spans="1:7">
+      <c r="A334" s="160"/>
+      <c r="B334" s="159"/>
+      <c r="G334" s="138" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="335" s="12" customFormat="1" spans="1:7">
+      <c r="A335" s="160"/>
+      <c r="B335" s="159"/>
+      <c r="G335" s="140"/>
+    </row>
+    <row r="336" s="12" customFormat="1" spans="1:7">
+      <c r="A336" s="160"/>
+      <c r="B336" s="159"/>
+      <c r="G336" s="140"/>
+    </row>
+    <row r="337" s="12" customFormat="1" spans="1:7">
+      <c r="A337" s="160" t="s">
+        <v>325</v>
+      </c>
+      <c r="B337" s="159"/>
+      <c r="G337" s="139" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="338" s="12" customFormat="1" spans="1:7">
+      <c r="A338" s="161"/>
+      <c r="B338" s="159"/>
+      <c r="G338" s="138" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="339" s="12" customFormat="1" spans="1:7">
+      <c r="A339" s="161"/>
+      <c r="B339" s="159"/>
+      <c r="G339" s="140"/>
+    </row>
+    <row r="340" s="12" customFormat="1" spans="1:7">
+      <c r="A340" s="161"/>
+      <c r="B340" s="159"/>
+      <c r="G340" s="140"/>
     </row>
     <row r="341" s="19" customFormat="1" spans="1:7">
-      <c r="A341" s="155"/>
-      <c r="G341" s="170"/>
-    </row>
-    <row r="342" s="19" customFormat="1" spans="1:7">
-      <c r="A342" s="156" t="s">
-        <v>318</v>
-      </c>
-      <c r="G342" s="169" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="343" s="19" customFormat="1" spans="1:7">
-      <c r="A343" s="154"/>
-      <c r="G343" s="169" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="344" s="19" customFormat="1" spans="1:7">
-      <c r="A344" s="154"/>
-      <c r="G344" s="170"/>
-    </row>
-    <row r="345" s="19" customFormat="1" spans="1:7">
-      <c r="A345" s="154"/>
-      <c r="G345" s="170"/>
-    </row>
-    <row r="346" s="19" customFormat="1" spans="1:7">
-      <c r="A346" s="155"/>
-      <c r="G346" s="170"/>
-    </row>
-    <row r="347" hidden="1"/>
-    <row r="348" hidden="1"/>
-    <row r="349" hidden="1"/>
-    <row r="350" hidden="1"/>
-    <row r="351" hidden="1"/>
-    <row r="352" s="20" customFormat="1" spans="1:7">
-      <c r="A352" s="157" t="s">
-        <v>320</v>
-      </c>
-      <c r="G352" s="171" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="353" s="20" customFormat="1" spans="1:7">
-      <c r="A353" s="158"/>
-      <c r="G353" s="171" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="354" s="20" customFormat="1" spans="1:7">
-      <c r="A354" s="158"/>
-      <c r="G354" s="172"/>
-    </row>
-    <row r="355" s="20" customFormat="1" spans="1:7">
-      <c r="A355" s="158"/>
-      <c r="G355" s="172"/>
-    </row>
-    <row r="356" s="20" customFormat="1" spans="1:7">
-      <c r="A356" s="159"/>
-      <c r="G356" s="172"/>
-    </row>
-    <row r="357" s="20" customFormat="1" spans="1:7">
-      <c r="A357" s="157" t="s">
-        <v>323</v>
-      </c>
-      <c r="G357" s="171" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="358" s="20" customFormat="1" spans="1:7">
-      <c r="A358" s="158"/>
-      <c r="G358" s="172" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="359" s="20" customFormat="1" spans="1:7">
-      <c r="A359" s="158"/>
-      <c r="G359" s="172"/>
-    </row>
-    <row r="360" s="20" customFormat="1" spans="1:7">
-      <c r="A360" s="158"/>
-      <c r="G360" s="172"/>
-    </row>
-    <row r="361" s="20" customFormat="1" spans="1:7">
-      <c r="A361" s="158"/>
-      <c r="G361" s="172"/>
-    </row>
-    <row r="362" s="20" customFormat="1" ht="33" spans="1:7">
-      <c r="A362" s="160" t="s">
-        <v>325</v>
-      </c>
-      <c r="B362" s="161"/>
-      <c r="G362" s="173" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="363" s="20" customFormat="1" spans="1:7">
-      <c r="A363" s="162"/>
-      <c r="B363" s="161"/>
-      <c r="G363" s="171" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="364" s="20" customFormat="1" spans="1:7">
-      <c r="A364" s="162"/>
-      <c r="B364" s="161"/>
-      <c r="G364" s="172"/>
-    </row>
-    <row r="365" s="20" customFormat="1" spans="1:7">
-      <c r="A365" s="162"/>
-      <c r="B365" s="161"/>
-      <c r="G365" s="172"/>
-    </row>
-    <row r="366" s="20" customFormat="1" spans="1:7">
-      <c r="A366" s="163"/>
-      <c r="B366" s="161"/>
-      <c r="G366" s="172"/>
-    </row>
-    <row r="367" s="20" customFormat="1" spans="1:7">
-      <c r="A367" s="164" t="s">
-        <v>327</v>
-      </c>
-      <c r="B367" s="161"/>
-      <c r="G367" s="171" t="s">
+      <c r="A341" s="161"/>
+      <c r="B341" s="162"/>
+      <c r="G341" s="184"/>
+    </row>
+    <row r="342" s="20" customFormat="1" spans="1:7">
+      <c r="A342" s="163" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="368" s="20" customFormat="1" spans="1:7">
-      <c r="A368" s="162"/>
-      <c r="B368" s="161"/>
-      <c r="G368" s="172" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="369" s="20" customFormat="1" spans="1:7">
-      <c r="A369" s="162"/>
-      <c r="B369" s="161"/>
-      <c r="G369" s="172"/>
-    </row>
-    <row r="370" s="20" customFormat="1" spans="1:7">
-      <c r="A370" s="162"/>
-      <c r="B370" s="161"/>
-      <c r="G370" s="172"/>
-    </row>
-    <row r="371" s="20" customFormat="1" spans="1:7">
-      <c r="A371" s="162"/>
-      <c r="B371" s="161"/>
-      <c r="G371" s="172"/>
-    </row>
-    <row r="372" s="20" customFormat="1" spans="1:7">
-      <c r="A372" s="150" t="s">
+      <c r="B342" s="164"/>
+      <c r="G342" s="185" t="s">
         <v>329</v>
       </c>
-      <c r="B372" s="161"/>
-      <c r="G372" s="171" t="s">
+    </row>
+    <row r="343" s="20" customFormat="1" spans="1:7">
+      <c r="A343" s="165"/>
+      <c r="B343" s="164"/>
+      <c r="G343" s="185" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="373" s="20" customFormat="1" spans="1:7">
-      <c r="A373" s="152"/>
-      <c r="B373" s="161"/>
-      <c r="G373" s="171" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="374" s="20" customFormat="1" spans="1:7">
-      <c r="A374" s="152"/>
-      <c r="B374" s="161"/>
-      <c r="G374" s="172"/>
-    </row>
-    <row r="375" s="20" customFormat="1" spans="1:7">
-      <c r="A375" s="152"/>
-      <c r="B375" s="161"/>
-      <c r="G375" s="172"/>
-    </row>
-    <row r="376" s="20" customFormat="1" spans="1:7">
-      <c r="A376" s="152"/>
-      <c r="B376" s="161"/>
-      <c r="G376" s="172"/>
-    </row>
-    <row r="377" s="20" customFormat="1" spans="1:7">
-      <c r="A377" s="165" t="s">
+    <row r="344" s="20" customFormat="1" spans="1:7">
+      <c r="A344" s="165"/>
+      <c r="B344" s="164"/>
+      <c r="G344" s="186" t="s">
         <v>331</v>
       </c>
-      <c r="B377" s="161"/>
-      <c r="G377" s="172" t="s">
+    </row>
+    <row r="345" s="20" customFormat="1" spans="1:7">
+      <c r="A345" s="165"/>
+      <c r="B345" s="164"/>
+      <c r="G345" s="186"/>
+    </row>
+    <row r="346" s="20" customFormat="1" spans="1:7">
+      <c r="A346" s="165"/>
+      <c r="B346" s="164"/>
+      <c r="G346" s="186"/>
+    </row>
+    <row r="347" s="21" customFormat="1" spans="1:7">
+      <c r="A347" s="123" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="378" s="20" customFormat="1" spans="1:7">
-      <c r="A378" s="162"/>
-      <c r="B378" s="161"/>
-      <c r="G378" s="172" t="s">
+      <c r="B347" s="166"/>
+      <c r="G347" s="187" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="379" s="20" customFormat="1" spans="1:7">
-      <c r="A379" s="162"/>
-      <c r="B379" s="161"/>
-      <c r="G379" s="172"/>
-    </row>
-    <row r="380" s="20" customFormat="1" spans="1:7">
-      <c r="A380" s="162"/>
-      <c r="B380" s="161"/>
-      <c r="G380" s="172"/>
-    </row>
-    <row r="381" s="20" customFormat="1" spans="1:7">
-      <c r="A381" s="162"/>
-      <c r="B381" s="161"/>
-      <c r="G381" s="172"/>
-    </row>
-    <row r="382" s="20" customFormat="1" spans="1:7">
-      <c r="A382" s="165" t="s">
+    <row r="348" s="21" customFormat="1" spans="1:7">
+      <c r="A348" s="161"/>
+      <c r="B348" s="166"/>
+      <c r="G348" s="187" t="s">
         <v>334</v>
       </c>
-      <c r="B382" s="161"/>
-      <c r="G382" s="172" t="s">
+    </row>
+    <row r="349" s="21" customFormat="1" spans="1:7">
+      <c r="A349" s="161"/>
+      <c r="B349" s="166"/>
+      <c r="G349" s="188"/>
+    </row>
+    <row r="350" s="21" customFormat="1" spans="1:7">
+      <c r="A350" s="161"/>
+      <c r="B350" s="166"/>
+      <c r="G350" s="188"/>
+    </row>
+    <row r="351" s="21" customFormat="1" spans="1:7">
+      <c r="A351" s="161"/>
+      <c r="B351" s="166"/>
+      <c r="G351" s="188"/>
+    </row>
+    <row r="352" s="22" customFormat="1" spans="1:7">
+      <c r="A352" s="167" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="383" s="20" customFormat="1" spans="1:7">
-      <c r="A383" s="162"/>
-      <c r="B383" s="161"/>
-      <c r="G383" s="171" t="s">
+      <c r="B352" s="168"/>
+      <c r="G352" s="189" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="384" s="20" customFormat="1" spans="1:7">
-      <c r="A384" s="162"/>
-      <c r="B384" s="161"/>
-      <c r="G384" s="172"/>
-    </row>
-    <row r="385" s="20" customFormat="1" spans="1:7">
-      <c r="A385" s="162"/>
-      <c r="B385" s="161"/>
-      <c r="G385" s="172"/>
-    </row>
-    <row r="386" s="20" customFormat="1" spans="1:7">
-      <c r="A386" s="163"/>
-      <c r="B386" s="161"/>
-      <c r="G386" s="172"/>
+    <row r="353" s="22" customFormat="1" spans="1:7">
+      <c r="A353" s="169"/>
+      <c r="B353" s="168"/>
+      <c r="C353" s="22"/>
+      <c r="D353" s="22"/>
+      <c r="E353" s="22"/>
+      <c r="F353" s="22"/>
+      <c r="G353" s="190" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="354" s="22" customFormat="1" spans="1:7">
+      <c r="A354" s="169"/>
+      <c r="B354" s="168"/>
+      <c r="C354" s="22"/>
+      <c r="D354" s="22"/>
+      <c r="E354" s="22"/>
+      <c r="F354" s="22"/>
+      <c r="G354" s="189"/>
+    </row>
+    <row r="355" s="22" customFormat="1" spans="1:7">
+      <c r="A355" s="169"/>
+      <c r="B355" s="168"/>
+      <c r="C355" s="22"/>
+      <c r="D355" s="22"/>
+      <c r="E355" s="22"/>
+      <c r="F355" s="22"/>
+      <c r="G355" s="189"/>
+    </row>
+    <row r="356" s="22" customFormat="1" spans="1:7">
+      <c r="A356" s="169"/>
+      <c r="B356" s="168"/>
+      <c r="C356" s="22"/>
+      <c r="D356" s="22"/>
+      <c r="E356" s="22"/>
+      <c r="F356" s="22"/>
+      <c r="G356" s="189"/>
+    </row>
+    <row r="357" s="23" customFormat="1" spans="1:7">
+      <c r="A357" s="170" t="s">
+        <v>338</v>
+      </c>
+      <c r="B357" s="171"/>
+      <c r="G357" s="191" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="358" s="23" customFormat="1" spans="1:7">
+      <c r="A358" s="172"/>
+      <c r="B358" s="171"/>
+      <c r="G358" s="191" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="359" s="23" customFormat="1" spans="1:7">
+      <c r="A359" s="172"/>
+      <c r="B359" s="171"/>
+      <c r="G359" s="192"/>
+    </row>
+    <row r="360" s="23" customFormat="1" spans="1:7">
+      <c r="A360" s="172"/>
+      <c r="B360" s="171"/>
+      <c r="G360" s="192"/>
+    </row>
+    <row r="361" s="23" customFormat="1" spans="1:7">
+      <c r="A361" s="172"/>
+      <c r="B361" s="171"/>
+      <c r="G361" s="192"/>
+    </row>
+    <row r="362" s="23" customFormat="1" spans="1:7">
+      <c r="A362" s="173" t="s">
+        <v>341</v>
+      </c>
+      <c r="G362" s="191" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="363" s="23" customFormat="1" spans="1:7">
+      <c r="A363" s="174"/>
+      <c r="G363" s="191" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="364" s="23" customFormat="1" spans="1:7">
+      <c r="A364" s="174"/>
+      <c r="G364" s="192"/>
+    </row>
+    <row r="365" s="23" customFormat="1" spans="1:7">
+      <c r="A365" s="174"/>
+      <c r="G365" s="192"/>
+    </row>
+    <row r="366" s="23" customFormat="1" spans="1:7">
+      <c r="A366" s="175"/>
+      <c r="G366" s="192"/>
+    </row>
+    <row r="367" hidden="1"/>
+    <row r="368" hidden="1"/>
+    <row r="369" hidden="1"/>
+    <row r="370" hidden="1"/>
+    <row r="371" hidden="1"/>
+    <row r="372" s="22" customFormat="1" spans="1:7">
+      <c r="A372" s="176" t="s">
+        <v>344</v>
+      </c>
+      <c r="G372" s="190" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="373" s="22" customFormat="1" spans="1:7">
+      <c r="A373" s="177"/>
+      <c r="G373" s="190" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="374" s="22" customFormat="1" spans="1:7">
+      <c r="A374" s="177"/>
+      <c r="G374" s="189"/>
+    </row>
+    <row r="375" s="22" customFormat="1" spans="1:7">
+      <c r="A375" s="177"/>
+      <c r="G375" s="189"/>
+    </row>
+    <row r="376" s="22" customFormat="1" spans="1:7">
+      <c r="A376" s="178"/>
+      <c r="G376" s="189"/>
+    </row>
+    <row r="377" s="22" customFormat="1" spans="1:7">
+      <c r="A377" s="179" t="s">
+        <v>347</v>
+      </c>
+      <c r="B377" s="168"/>
+      <c r="G377" s="190" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="378" s="22" customFormat="1" spans="1:7">
+      <c r="A378" s="180"/>
+      <c r="B378" s="168"/>
+      <c r="G378" s="190" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="379" s="22" customFormat="1" spans="1:7">
+      <c r="A379" s="180"/>
+      <c r="B379" s="168"/>
+      <c r="G379" s="189"/>
+    </row>
+    <row r="380" s="22" customFormat="1" spans="1:7">
+      <c r="A380" s="180"/>
+      <c r="B380" s="168"/>
+      <c r="G380" s="189"/>
+    </row>
+    <row r="381" s="22" customFormat="1" spans="1:7">
+      <c r="A381" s="180"/>
+      <c r="B381" s="168"/>
+      <c r="G381" s="189"/>
+    </row>
+    <row r="382" s="22" customFormat="1" spans="1:7">
+      <c r="A382" s="181" t="s">
+        <v>349</v>
+      </c>
+      <c r="B382" s="168"/>
+      <c r="G382" s="189" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="383" s="22" customFormat="1" spans="1:7">
+      <c r="A383" s="182"/>
+      <c r="B383" s="168"/>
+      <c r="G383" s="190" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="384" s="22" customFormat="1" spans="1:7">
+      <c r="A384" s="182"/>
+      <c r="B384" s="168"/>
+      <c r="G384" s="189"/>
+    </row>
+    <row r="385" s="22" customFormat="1" spans="1:7">
+      <c r="A385" s="182"/>
+      <c r="B385" s="168"/>
+      <c r="G385" s="189"/>
+    </row>
+    <row r="386" s="22" customFormat="1" spans="1:7">
+      <c r="A386" s="193"/>
+      <c r="B386" s="168"/>
+      <c r="G386" s="189"/>
     </row>
     <row r="387" s="6" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A387" s="174" t="s">
-        <v>337</v>
-      </c>
-      <c r="G387" s="62" t="s">
-        <v>85</v>
+      <c r="A387" s="98" t="s">
+        <v>352</v>
+      </c>
+      <c r="B387" s="194"/>
+      <c r="G387" s="64" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="388" s="6" customFormat="1" spans="1:7">
-      <c r="A388" s="43"/>
-      <c r="G388" s="138" t="s">
-        <v>338</v>
+      <c r="A388" s="10"/>
+      <c r="B388" s="194"/>
+      <c r="G388" s="144" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="389" s="6" customFormat="1" spans="1:7">
-      <c r="A389" s="43"/>
-      <c r="G389" s="63"/>
+      <c r="A389" s="10"/>
+      <c r="B389" s="194"/>
+      <c r="G389" s="65"/>
     </row>
     <row r="390" s="6" customFormat="1" spans="1:7">
-      <c r="A390" s="43"/>
-      <c r="G390" s="63"/>
+      <c r="A390" s="10"/>
+      <c r="B390" s="194"/>
+      <c r="G390" s="65"/>
     </row>
     <row r="391" s="6" customFormat="1" spans="1:7">
-      <c r="A391" s="43"/>
-      <c r="G391" s="63"/>
-    </row>
-    <row r="392" s="21" customFormat="1" spans="1:7">
-      <c r="A392" s="175" t="s">
-        <v>339</v>
-      </c>
-      <c r="B392" s="176"/>
-      <c r="G392" s="183" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="393" s="21" customFormat="1" spans="1:7">
-      <c r="A393" s="177"/>
-      <c r="B393" s="176"/>
-      <c r="G393" s="183" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="394" s="21" customFormat="1" spans="1:7">
-      <c r="A394" s="177"/>
-      <c r="B394" s="176"/>
-      <c r="G394" s="184"/>
-    </row>
-    <row r="395" s="21" customFormat="1" spans="1:7">
-      <c r="A395" s="177"/>
-      <c r="B395" s="176"/>
-      <c r="G395" s="184"/>
-    </row>
-    <row r="396" s="21" customFormat="1" spans="1:7">
-      <c r="A396" s="177"/>
-      <c r="B396" s="176"/>
-      <c r="G396" s="184"/>
-    </row>
-    <row r="397" s="19" customFormat="1" spans="1:7">
-      <c r="A397" s="156" t="s">
-        <v>342</v>
-      </c>
-      <c r="G397" s="169" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="398" s="19" customFormat="1" spans="1:7">
-      <c r="A398" s="154"/>
-      <c r="G398" s="169" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="399" s="19" customFormat="1" spans="1:7">
-      <c r="A399" s="154"/>
-      <c r="G399" s="170"/>
-    </row>
-    <row r="400" s="19" customFormat="1" spans="1:7">
-      <c r="A400" s="154"/>
-      <c r="G400" s="170"/>
-    </row>
-    <row r="401" s="19" customFormat="1" spans="1:7">
-      <c r="A401" s="155"/>
-      <c r="G401" s="170"/>
-    </row>
-    <row r="402" s="2" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A402" s="178" t="s">
-        <v>345</v>
-      </c>
-      <c r="G402" s="54" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="403" s="2" customFormat="1" spans="1:7">
-      <c r="A403" s="27"/>
-      <c r="G403" s="146" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="404" s="2" customFormat="1" spans="1:7">
-      <c r="A404" s="27"/>
-      <c r="G404" s="53"/>
-    </row>
-    <row r="405" s="2" customFormat="1" spans="1:7">
-      <c r="A405" s="27"/>
-      <c r="G405" s="53"/>
-    </row>
-    <row r="406" s="2" customFormat="1" spans="1:7">
-      <c r="A406" s="27"/>
-      <c r="G406" s="53"/>
-    </row>
-    <row r="407" s="19" customFormat="1" spans="1:7">
-      <c r="A407" s="156" t="s">
-        <v>347</v>
-      </c>
-      <c r="G407" s="169" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="408" s="19" customFormat="1" spans="1:7">
-      <c r="A408" s="154"/>
-      <c r="G408" s="170"/>
-    </row>
-    <row r="409" s="19" customFormat="1" spans="1:7">
-      <c r="A409" s="154"/>
-      <c r="G409" s="170"/>
-    </row>
-    <row r="410" s="19" customFormat="1" spans="1:7">
-      <c r="A410" s="154"/>
-      <c r="G410" s="170"/>
-    </row>
-    <row r="411" s="19" customFormat="1" spans="1:7">
-      <c r="A411" s="154"/>
-      <c r="G411" s="170"/>
-    </row>
-    <row r="412" s="3" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A412" s="179" t="s">
-        <v>349</v>
-      </c>
-      <c r="B412" s="180"/>
+      <c r="A391" s="10"/>
+      <c r="B391" s="194"/>
+      <c r="G391" s="65"/>
+    </row>
+    <row r="392" s="6" customFormat="1" spans="1:7">
+      <c r="A392" s="97" t="s">
+        <v>355</v>
+      </c>
+      <c r="B392" s="194"/>
+      <c r="G392" s="144" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="393" s="6" customFormat="1" spans="1:7">
+      <c r="A393" s="10"/>
+      <c r="B393" s="194"/>
+      <c r="G393" s="65" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="394" s="6" customFormat="1" spans="1:7">
+      <c r="A394" s="10"/>
+      <c r="B394" s="194"/>
+      <c r="G394" s="65"/>
+    </row>
+    <row r="395" s="6" customFormat="1" spans="1:7">
+      <c r="A395" s="10"/>
+      <c r="B395" s="194"/>
+      <c r="G395" s="65"/>
+    </row>
+    <row r="396" s="6" customFormat="1" spans="1:7">
+      <c r="A396" s="10"/>
+      <c r="B396" s="194"/>
+      <c r="G396" s="65"/>
+    </row>
+    <row r="397" s="23" customFormat="1" spans="1:7">
+      <c r="A397" s="179" t="s">
+        <v>358</v>
+      </c>
+      <c r="B397" s="171"/>
+      <c r="G397" s="191" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="398" s="23" customFormat="1" spans="1:7">
+      <c r="A398" s="180"/>
+      <c r="B398" s="171"/>
+      <c r="G398" s="191" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="399" s="23" customFormat="1" spans="1:7">
+      <c r="A399" s="180"/>
+      <c r="B399" s="171"/>
+      <c r="G399" s="192"/>
+    </row>
+    <row r="400" s="23" customFormat="1" spans="1:7">
+      <c r="A400" s="180"/>
+      <c r="B400" s="171"/>
+      <c r="G400" s="192"/>
+    </row>
+    <row r="401" s="23" customFormat="1" spans="1:7">
+      <c r="A401" s="180"/>
+      <c r="B401" s="171"/>
+      <c r="G401" s="192"/>
+    </row>
+    <row r="402" s="23" customFormat="1" spans="1:7">
+      <c r="A402" s="195" t="s">
+        <v>361</v>
+      </c>
+      <c r="B402" s="171"/>
+      <c r="G402" s="192" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="403" s="23" customFormat="1" spans="1:7">
+      <c r="A403" s="177"/>
+      <c r="B403" s="171"/>
+      <c r="G403" s="192" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="404" s="23" customFormat="1" spans="1:7">
+      <c r="A404" s="177"/>
+      <c r="B404" s="171"/>
+      <c r="G404" s="192"/>
+    </row>
+    <row r="405" s="23" customFormat="1" spans="1:7">
+      <c r="A405" s="177"/>
+      <c r="B405" s="171"/>
+      <c r="G405" s="192"/>
+    </row>
+    <row r="406" s="23" customFormat="1" spans="1:7">
+      <c r="A406" s="177"/>
+      <c r="B406" s="171"/>
+      <c r="G406" s="192"/>
+    </row>
+    <row r="407" s="23" customFormat="1" spans="1:7">
+      <c r="A407" s="173" t="s">
+        <v>364</v>
+      </c>
+      <c r="G407" s="191" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="408" s="23" customFormat="1" spans="1:7">
+      <c r="A408" s="174"/>
+      <c r="G408" s="191" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="409" s="23" customFormat="1" spans="1:7">
+      <c r="A409" s="174"/>
+      <c r="G409" s="192"/>
+    </row>
+    <row r="410" s="23" customFormat="1" spans="1:7">
+      <c r="A410" s="174"/>
+      <c r="G410" s="192"/>
+    </row>
+    <row r="411" s="23" customFormat="1" spans="1:7">
+      <c r="A411" s="175"/>
+      <c r="G411" s="192"/>
+    </row>
+    <row r="412" s="2" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A412" s="196" t="s">
+        <v>367</v>
+      </c>
       <c r="G412" s="56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="413" s="3" customFormat="1" spans="1:7">
-      <c r="A413" s="181"/>
-      <c r="B413" s="180"/>
-      <c r="G413" s="185" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="414" s="3" customFormat="1" spans="1:7">
-      <c r="A414" s="181"/>
-      <c r="B414" s="180"/>
-      <c r="G414" s="57"/>
-    </row>
-    <row r="415" s="3" customFormat="1" spans="1:7">
-      <c r="A415" s="181"/>
-      <c r="B415" s="180"/>
-      <c r="G415" s="57"/>
-    </row>
-    <row r="416" s="3" customFormat="1" spans="1:7">
-      <c r="A416" s="181"/>
-      <c r="B416" s="180"/>
-      <c r="G416" s="57"/>
-    </row>
-    <row r="417" s="19" customFormat="1" spans="1:7">
-      <c r="A417" s="153" t="s">
-        <v>351</v>
-      </c>
-      <c r="G417" s="169" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="418" s="19" customFormat="1" spans="1:7">
-      <c r="A418" s="154"/>
-      <c r="G418" s="170" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="419" s="19" customFormat="1" spans="1:7">
-      <c r="A419" s="154"/>
-      <c r="G419" s="170"/>
-    </row>
-    <row r="420" s="19" customFormat="1" spans="1:7">
-      <c r="A420" s="154"/>
-      <c r="G420" s="170"/>
-    </row>
-    <row r="421" s="19" customFormat="1" spans="1:7">
-      <c r="A421" s="154"/>
-      <c r="G421" s="170"/>
-    </row>
-    <row r="422" s="19" customFormat="1" spans="1:7">
-      <c r="A422" s="156" t="s">
-        <v>354</v>
-      </c>
-      <c r="G422" s="169" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="423" s="19" customFormat="1" spans="1:7">
-      <c r="A423" s="154"/>
-      <c r="G423" s="169" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="424" s="19" customFormat="1" spans="1:7">
-      <c r="A424" s="154"/>
-      <c r="G424" s="170"/>
-    </row>
-    <row r="425" s="19" customFormat="1" spans="1:7">
-      <c r="A425" s="154"/>
-      <c r="G425" s="170"/>
-    </row>
-    <row r="426" s="19" customFormat="1" spans="1:7">
-      <c r="A426" s="155"/>
-      <c r="G426" s="170"/>
-    </row>
-    <row r="427" s="19" customFormat="1" spans="1:7">
-      <c r="A427" s="156" t="s">
-        <v>357</v>
-      </c>
-      <c r="G427" s="169" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="428" s="19" customFormat="1" spans="1:7">
-      <c r="A428" s="154"/>
-      <c r="G428" s="169" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="429" s="19" customFormat="1" spans="1:7">
-      <c r="A429" s="154"/>
-      <c r="G429" s="170"/>
-    </row>
-    <row r="430" s="19" customFormat="1" spans="1:7">
-      <c r="A430" s="154"/>
-      <c r="G430" s="170"/>
-    </row>
-    <row r="431" s="19" customFormat="1" spans="1:7">
-      <c r="A431" s="155"/>
-      <c r="G431" s="170"/>
-    </row>
-    <row r="432" s="19" customFormat="1" spans="1:7">
-      <c r="A432" s="182" t="s">
-        <v>360</v>
-      </c>
-      <c r="G432" s="170" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="433" s="19" customFormat="1" spans="1:7">
-      <c r="A433" s="154"/>
-      <c r="G433" s="170" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="434" s="19" customFormat="1" spans="1:7">
-      <c r="A434" s="154"/>
-      <c r="G434" s="170"/>
-    </row>
-    <row r="435" s="19" customFormat="1" spans="1:7">
-      <c r="A435" s="154"/>
-      <c r="G435" s="170"/>
-    </row>
-    <row r="436" s="19" customFormat="1" spans="1:7">
-      <c r="A436" s="154"/>
-      <c r="G436" s="170"/>
-    </row>
-    <row r="437" s="19" customFormat="1" spans="1:7">
-      <c r="A437" s="156" t="s">
-        <v>363</v>
-      </c>
-      <c r="G437" s="169" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="438" s="19" customFormat="1" spans="1:7">
-      <c r="A438" s="154"/>
-      <c r="G438" s="169" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="439" s="19" customFormat="1" spans="1:7">
-      <c r="A439" s="154"/>
-      <c r="G439" s="170"/>
-    </row>
-    <row r="440" s="19" customFormat="1" spans="1:7">
-      <c r="A440" s="154"/>
-      <c r="G440" s="170"/>
-    </row>
-    <row r="441" s="19" customFormat="1" spans="1:7">
-      <c r="A441" s="155"/>
-      <c r="G441" s="170"/>
-    </row>
-    <row r="442" s="19" customFormat="1" spans="1:7">
-      <c r="A442" s="156" t="s">
-        <v>366</v>
-      </c>
-      <c r="G442" s="169" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="443" s="19" customFormat="1" spans="1:7">
-      <c r="A443" s="154"/>
-      <c r="G443" s="169" t="s">
+    <row r="413" s="2" customFormat="1" spans="1:7">
+      <c r="A413" s="73"/>
+      <c r="G413" s="183" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="414" s="2" customFormat="1" spans="1:7">
+      <c r="A414" s="73"/>
+      <c r="G414" s="55"/>
+    </row>
+    <row r="415" s="2" customFormat="1" spans="1:7">
+      <c r="A415" s="73"/>
+      <c r="G415" s="55"/>
+    </row>
+    <row r="416" s="2" customFormat="1" spans="1:7">
+      <c r="A416" s="73"/>
+      <c r="G416" s="55"/>
+    </row>
+    <row r="417" s="2" customFormat="1" spans="1:7">
+      <c r="A417" s="197" t="s">
+        <v>369</v>
+      </c>
+      <c r="G417" s="183" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="418" s="2" customFormat="1" spans="1:7">
+      <c r="A418" s="73"/>
+      <c r="G418" s="55"/>
+    </row>
+    <row r="419" s="2" customFormat="1" spans="1:7">
+      <c r="A419" s="73"/>
+      <c r="G419" s="55"/>
+    </row>
+    <row r="420" s="2" customFormat="1" spans="1:7">
+      <c r="A420" s="73"/>
+      <c r="G420" s="55"/>
+    </row>
+    <row r="421" s="2" customFormat="1" spans="1:7">
+      <c r="A421" s="27"/>
+      <c r="G421" s="55"/>
+    </row>
+    <row r="422" s="23" customFormat="1" spans="1:7">
+      <c r="A422" s="173" t="s">
+        <v>371</v>
+      </c>
+      <c r="G422" s="191" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="423" s="23" customFormat="1" spans="1:7">
+      <c r="A423" s="174"/>
+      <c r="G423" s="192"/>
+    </row>
+    <row r="424" s="23" customFormat="1" spans="1:7">
+      <c r="A424" s="174"/>
+      <c r="G424" s="192"/>
+    </row>
+    <row r="425" s="23" customFormat="1" spans="1:7">
+      <c r="A425" s="174"/>
+      <c r="G425" s="192"/>
+    </row>
+    <row r="426" s="23" customFormat="1" spans="1:7">
+      <c r="A426" s="174"/>
+      <c r="G426" s="192"/>
+    </row>
+    <row r="427" s="3" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A427" s="198" t="s">
+        <v>373</v>
+      </c>
+      <c r="B427" s="199"/>
+      <c r="G427" s="58" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="444" s="19" customFormat="1" spans="1:7">
-      <c r="A444" s="154"/>
-      <c r="G444" s="170"/>
-    </row>
-    <row r="445" s="19" customFormat="1" spans="1:7">
-      <c r="A445" s="154"/>
-      <c r="G445" s="170"/>
-    </row>
-    <row r="446" s="19" customFormat="1" spans="1:7">
-      <c r="A446" s="155"/>
-      <c r="G446" s="170"/>
-    </row>
-    <row r="447" s="19" customFormat="1" spans="1:7">
-      <c r="A447" s="182" t="s">
-        <v>368</v>
-      </c>
-      <c r="G447" s="170" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="448" s="19" customFormat="1" spans="1:7">
-      <c r="A448" s="154"/>
-      <c r="G448" s="170" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="449" s="19" customFormat="1" spans="1:7">
-      <c r="A449" s="154"/>
-      <c r="G449" s="170"/>
-    </row>
-    <row r="450" s="19" customFormat="1" spans="1:7">
-      <c r="A450" s="154"/>
-      <c r="G450" s="170"/>
-    </row>
-    <row r="451" s="19" customFormat="1" spans="1:7">
-      <c r="A451" s="154"/>
-      <c r="G451" s="170"/>
-    </row>
-    <row r="452" s="19" customFormat="1" spans="1:7">
-      <c r="A452" s="186" t="s">
-        <v>371</v>
-      </c>
-      <c r="B452" s="187"/>
-      <c r="G452" s="170" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="453" s="19" customFormat="1" spans="1:7">
-      <c r="A453" s="152"/>
-      <c r="B453" s="187"/>
-      <c r="G453" s="170" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="454" s="19" customFormat="1" spans="1:7">
-      <c r="A454" s="152"/>
-      <c r="B454" s="187"/>
-      <c r="G454" s="170"/>
-    </row>
-    <row r="455" s="19" customFormat="1" spans="1:7">
-      <c r="A455" s="152"/>
-      <c r="B455" s="187"/>
-      <c r="G455" s="170"/>
-    </row>
-    <row r="456" s="19" customFormat="1" spans="1:7">
-      <c r="A456" s="152"/>
-      <c r="B456" s="187"/>
-      <c r="G456" s="170"/>
-    </row>
-    <row r="457" s="19" customFormat="1" spans="1:7">
-      <c r="A457" s="186" t="s">
+    <row r="428" s="3" customFormat="1" spans="1:7">
+      <c r="A428" s="165"/>
+      <c r="B428" s="199"/>
+      <c r="G428" s="201" t="s">
         <v>374</v>
       </c>
-      <c r="B457" s="187"/>
-      <c r="G457" s="170" t="s">
+    </row>
+    <row r="429" s="3" customFormat="1" spans="1:7">
+      <c r="A429" s="165"/>
+      <c r="B429" s="199"/>
+      <c r="G429" s="59"/>
+    </row>
+    <row r="430" s="3" customFormat="1" spans="1:7">
+      <c r="A430" s="165"/>
+      <c r="B430" s="199"/>
+      <c r="G430" s="59"/>
+    </row>
+    <row r="431" s="3" customFormat="1" spans="1:7">
+      <c r="A431" s="165"/>
+      <c r="B431" s="199"/>
+      <c r="G431" s="59"/>
+    </row>
+    <row r="432" s="3" customFormat="1" spans="1:7">
+      <c r="A432" s="163" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="458" s="19" customFormat="1" spans="1:7">
-      <c r="A458" s="152"/>
-      <c r="B458" s="187"/>
-      <c r="G458" s="170" t="s">
+      <c r="B432" s="199"/>
+      <c r="G432" s="201" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="459" s="19" customFormat="1" spans="1:7">
-      <c r="A459" s="152"/>
-      <c r="B459" s="187"/>
-      <c r="G459" s="170"/>
-    </row>
-    <row r="460" s="19" customFormat="1" spans="1:7">
-      <c r="A460" s="152"/>
-      <c r="B460" s="187"/>
-      <c r="G460" s="170"/>
-    </row>
-    <row r="461" s="19" customFormat="1" spans="1:7">
-      <c r="A461" s="152"/>
-      <c r="B461" s="187"/>
-      <c r="G461" s="170"/>
-    </row>
-    <row r="462" s="19" customFormat="1" spans="1:7">
-      <c r="A462" s="186" t="s">
+    <row r="433" s="3" customFormat="1" spans="1:7">
+      <c r="A433" s="165"/>
+      <c r="B433" s="199"/>
+      <c r="G433" s="59"/>
+    </row>
+    <row r="434" s="3" customFormat="1" spans="1:7">
+      <c r="A434" s="165"/>
+      <c r="B434" s="199"/>
+      <c r="G434" s="59"/>
+    </row>
+    <row r="435" s="3" customFormat="1" spans="1:7">
+      <c r="A435" s="165"/>
+      <c r="B435" s="199"/>
+      <c r="G435" s="59"/>
+    </row>
+    <row r="436" s="3" customFormat="1" spans="1:7">
+      <c r="A436" s="165"/>
+      <c r="B436" s="199"/>
+      <c r="G436" s="59"/>
+    </row>
+    <row r="437" s="23" customFormat="1" spans="1:7">
+      <c r="A437" s="179" t="s">
         <v>377</v>
       </c>
-      <c r="B462" s="187"/>
-      <c r="G462" s="170" t="s">
+      <c r="B437" s="171"/>
+      <c r="G437" s="191" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="463" s="19" customFormat="1" spans="1:7">
-      <c r="A463" s="152"/>
-      <c r="B463" s="187"/>
-      <c r="G463" s="170"/>
-    </row>
-    <row r="464" s="19" customFormat="1" spans="1:7">
-      <c r="A464" s="152"/>
-      <c r="B464" s="187"/>
-      <c r="G464" s="170"/>
-    </row>
-    <row r="465" s="19" customFormat="1" spans="1:7">
-      <c r="A465" s="152"/>
-      <c r="B465" s="187"/>
-      <c r="G465" s="170"/>
-    </row>
-    <row r="466" s="19" customFormat="1" spans="1:7">
-      <c r="A466" s="152"/>
-      <c r="B466" s="187"/>
-      <c r="G466" s="170"/>
-    </row>
-    <row r="467" s="19" customFormat="1" spans="1:7">
-      <c r="A467" s="186" t="s">
+    <row r="438" s="23" customFormat="1" spans="1:7">
+      <c r="A438" s="180"/>
+      <c r="B438" s="171"/>
+      <c r="G438" s="192" t="s">
         <v>379</v>
       </c>
-      <c r="B467" s="187"/>
-      <c r="G467" s="170"/>
-    </row>
-    <row r="468" s="19" customFormat="1" spans="1:7">
-      <c r="A468" s="152"/>
-      <c r="B468" s="187"/>
-      <c r="G468" s="170"/>
-    </row>
-    <row r="469" s="19" customFormat="1" spans="1:7">
-      <c r="A469" s="152"/>
-      <c r="B469" s="187"/>
-      <c r="G469" s="170"/>
-    </row>
-    <row r="470" s="19" customFormat="1" spans="1:7">
-      <c r="A470" s="152"/>
-      <c r="B470" s="187"/>
-      <c r="G470" s="170"/>
-    </row>
-    <row r="471" s="19" customFormat="1" spans="1:7">
-      <c r="A471" s="152"/>
-      <c r="B471" s="187"/>
-      <c r="G471" s="170"/>
-    </row>
-    <row r="472" s="19" customFormat="1" spans="1:7">
-      <c r="A472" s="150" t="s">
+    </row>
+    <row r="439" s="23" customFormat="1" spans="1:7">
+      <c r="A439" s="180"/>
+      <c r="B439" s="171"/>
+      <c r="G439" s="192"/>
+    </row>
+    <row r="440" s="23" customFormat="1" spans="1:7">
+      <c r="A440" s="180"/>
+      <c r="B440" s="171"/>
+      <c r="G440" s="192"/>
+    </row>
+    <row r="441" s="23" customFormat="1" spans="1:7">
+      <c r="A441" s="180"/>
+      <c r="B441" s="171"/>
+      <c r="G441" s="192"/>
+    </row>
+    <row r="442" s="23" customFormat="1" spans="1:7">
+      <c r="A442" s="200" t="s">
         <v>380</v>
       </c>
-      <c r="B472" s="187" t="s">
+      <c r="G442" s="191" t="s">
         <v>381</v>
       </c>
-      <c r="C472" s="19"/>
-      <c r="D472" s="19"/>
-      <c r="E472" s="19"/>
-      <c r="F472" s="19"/>
-      <c r="G472" s="170" t="s">
+    </row>
+    <row r="443" s="23" customFormat="1" spans="1:7">
+      <c r="A443" s="174"/>
+      <c r="G443" s="191" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="473" s="19" customFormat="1" spans="1:7">
-      <c r="A473" s="152"/>
-      <c r="B473" s="187" t="s">
+    <row r="444" s="23" customFormat="1" spans="1:7">
+      <c r="A444" s="174"/>
+      <c r="G444" s="192"/>
+    </row>
+    <row r="445" s="23" customFormat="1" spans="1:7">
+      <c r="A445" s="174"/>
+      <c r="G445" s="192"/>
+    </row>
+    <row r="446" s="23" customFormat="1" spans="1:7">
+      <c r="A446" s="175"/>
+      <c r="G446" s="192"/>
+    </row>
+    <row r="447" s="23" customFormat="1" spans="1:7">
+      <c r="A447" s="173" t="s">
         <v>383</v>
       </c>
-      <c r="C473" s="19"/>
-      <c r="D473" s="19"/>
-      <c r="E473" s="19"/>
-      <c r="F473" s="19"/>
-      <c r="G473" s="170" t="s">
+      <c r="G447" s="191" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="474" s="19" customFormat="1" spans="1:7">
-      <c r="A474" s="152"/>
-      <c r="B474" s="187"/>
-      <c r="G474" s="170"/>
-    </row>
-    <row r="475" s="19" customFormat="1" spans="1:7">
-      <c r="A475" s="152"/>
-      <c r="B475" s="187"/>
-      <c r="G475" s="170"/>
-    </row>
-    <row r="476" s="19" customFormat="1" spans="1:7">
-      <c r="A476" s="152"/>
-      <c r="B476" s="187"/>
-      <c r="G476" s="170"/>
-    </row>
-    <row r="477" s="19" customFormat="1" spans="1:7">
-      <c r="A477" s="160" t="s">
-        <v>313</v>
-      </c>
-      <c r="B477" s="187"/>
-      <c r="G477" s="169" t="s">
+    <row r="448" s="23" customFormat="1" spans="1:7">
+      <c r="A448" s="174"/>
+      <c r="G448" s="191" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="478" s="19" customFormat="1" spans="1:7">
-      <c r="A478" s="162"/>
-      <c r="B478" s="187"/>
-      <c r="G478" s="169" t="s">
+    <row r="449" s="23" customFormat="1" spans="1:7">
+      <c r="A449" s="174"/>
+      <c r="G449" s="192"/>
+    </row>
+    <row r="450" s="23" customFormat="1" spans="1:7">
+      <c r="A450" s="174"/>
+      <c r="G450" s="192"/>
+    </row>
+    <row r="451" s="23" customFormat="1" spans="1:7">
+      <c r="A451" s="175"/>
+      <c r="G451" s="192"/>
+    </row>
+    <row r="452" s="23" customFormat="1" spans="1:7">
+      <c r="A452" s="202" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="479" s="19" customFormat="1" spans="1:7">
-      <c r="A479" s="162"/>
-      <c r="B479" s="187"/>
-      <c r="G479" s="170"/>
-    </row>
-    <row r="480" s="19" customFormat="1" spans="1:7">
-      <c r="A480" s="162"/>
-      <c r="B480" s="187"/>
-      <c r="G480" s="170"/>
-    </row>
-    <row r="481" s="19" customFormat="1" spans="1:7">
-      <c r="A481" s="163"/>
-      <c r="B481" s="187"/>
-      <c r="G481" s="170"/>
-    </row>
-    <row r="482" s="19" customFormat="1" spans="1:7">
-      <c r="A482" s="153" t="s">
+      <c r="G452" s="192" t="s">
         <v>387</v>
       </c>
-      <c r="G482" s="169" t="s">
+    </row>
+    <row r="453" s="23" customFormat="1" spans="1:7">
+      <c r="A453" s="174"/>
+      <c r="G453" s="192" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="483" s="19" customFormat="1" spans="1:7">
-      <c r="A483" s="154"/>
-      <c r="G483" s="169" t="s">
+    <row r="454" s="23" customFormat="1" spans="1:7">
+      <c r="A454" s="174"/>
+      <c r="G454" s="192"/>
+    </row>
+    <row r="455" s="23" customFormat="1" spans="1:7">
+      <c r="A455" s="174"/>
+      <c r="G455" s="192"/>
+    </row>
+    <row r="456" s="23" customFormat="1" spans="1:7">
+      <c r="A456" s="174"/>
+      <c r="G456" s="192"/>
+    </row>
+    <row r="457" s="23" customFormat="1" spans="1:7">
+      <c r="A457" s="173" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="484" s="19" customFormat="1" spans="1:7">
-      <c r="A484" s="154"/>
-      <c r="G484" s="170"/>
-    </row>
-    <row r="485" s="19" customFormat="1" spans="1:7">
-      <c r="A485" s="154"/>
-      <c r="G485" s="170"/>
-    </row>
-    <row r="486" s="19" customFormat="1" spans="1:7">
-      <c r="A486" s="155"/>
-      <c r="G486" s="170"/>
-    </row>
-    <row r="487" ht="66" spans="1:7">
-      <c r="A487" s="156" t="s">
+      <c r="G457" s="191" t="s">
         <v>390</v>
       </c>
+    </row>
+    <row r="458" s="23" customFormat="1" spans="1:7">
+      <c r="A458" s="174"/>
+      <c r="G458" s="191" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="459" s="23" customFormat="1" spans="1:7">
+      <c r="A459" s="174"/>
+      <c r="G459" s="192"/>
+    </row>
+    <row r="460" s="23" customFormat="1" spans="1:7">
+      <c r="A460" s="174"/>
+      <c r="G460" s="192"/>
+    </row>
+    <row r="461" s="23" customFormat="1" spans="1:7">
+      <c r="A461" s="175"/>
+      <c r="G461" s="192"/>
+    </row>
+    <row r="462" s="23" customFormat="1" spans="1:7">
+      <c r="A462" s="173" t="s">
+        <v>392</v>
+      </c>
+      <c r="G462" s="191" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="463" s="23" customFormat="1" spans="1:7">
+      <c r="A463" s="174"/>
+      <c r="G463" s="191" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="464" s="23" customFormat="1" spans="1:7">
+      <c r="A464" s="174"/>
+      <c r="G464" s="192"/>
+    </row>
+    <row r="465" s="23" customFormat="1" spans="1:7">
+      <c r="A465" s="174"/>
+      <c r="G465" s="192"/>
+    </row>
+    <row r="466" s="23" customFormat="1" spans="1:7">
+      <c r="A466" s="175"/>
+      <c r="G466" s="192"/>
+    </row>
+    <row r="467" s="23" customFormat="1" spans="1:7">
+      <c r="A467" s="202" t="s">
+        <v>395</v>
+      </c>
+      <c r="G467" s="192" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="468" s="23" customFormat="1" spans="1:7">
+      <c r="A468" s="174"/>
+      <c r="G468" s="192" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="469" s="23" customFormat="1" spans="1:7">
+      <c r="A469" s="174"/>
+      <c r="G469" s="192"/>
+    </row>
+    <row r="470" s="23" customFormat="1" spans="1:7">
+      <c r="A470" s="174"/>
+      <c r="G470" s="192"/>
+    </row>
+    <row r="471" s="23" customFormat="1" spans="1:7">
+      <c r="A471" s="174"/>
+      <c r="G471" s="192"/>
+    </row>
+    <row r="472" s="23" customFormat="1" spans="1:7">
+      <c r="A472" s="203" t="s">
+        <v>398</v>
+      </c>
+      <c r="B472" s="171"/>
+      <c r="G472" s="192" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="473" s="23" customFormat="1" spans="1:7">
+      <c r="A473" s="180"/>
+      <c r="B473" s="171"/>
+      <c r="G473" s="191" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="474" s="23" customFormat="1" spans="1:7">
+      <c r="A474" s="180"/>
+      <c r="B474" s="171"/>
+      <c r="G474" s="192"/>
+    </row>
+    <row r="475" s="23" customFormat="1" spans="1:7">
+      <c r="A475" s="180"/>
+      <c r="B475" s="171"/>
+      <c r="G475" s="192"/>
+    </row>
+    <row r="476" s="23" customFormat="1" spans="1:7">
+      <c r="A476" s="180"/>
+      <c r="B476" s="171"/>
+      <c r="G476" s="192"/>
+    </row>
+    <row r="477" s="23" customFormat="1" spans="1:7">
+      <c r="A477" s="203" t="s">
+        <v>401</v>
+      </c>
+      <c r="B477" s="171"/>
+      <c r="G477" s="192" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="478" s="23" customFormat="1" spans="1:7">
+      <c r="A478" s="180"/>
+      <c r="B478" s="171"/>
+      <c r="G478" s="192" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="479" s="23" customFormat="1" spans="1:7">
+      <c r="A479" s="180"/>
+      <c r="B479" s="171"/>
+      <c r="G479" s="192"/>
+    </row>
+    <row r="480" s="23" customFormat="1" spans="1:7">
+      <c r="A480" s="180"/>
+      <c r="B480" s="171"/>
+      <c r="G480" s="192"/>
+    </row>
+    <row r="481" s="23" customFormat="1" spans="1:7">
+      <c r="A481" s="180"/>
+      <c r="B481" s="171"/>
+      <c r="G481" s="192"/>
+    </row>
+    <row r="482" s="23" customFormat="1" spans="1:7">
+      <c r="A482" s="203" t="s">
+        <v>404</v>
+      </c>
+      <c r="B482" s="171"/>
+      <c r="G482" s="192" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="483" s="23" customFormat="1" spans="1:7">
+      <c r="A483" s="180"/>
+      <c r="B483" s="171"/>
+      <c r="G483" s="192" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="484" s="23" customFormat="1" spans="1:7">
+      <c r="A484" s="180"/>
+      <c r="B484" s="171"/>
+      <c r="G484" s="192"/>
+    </row>
+    <row r="485" s="23" customFormat="1" spans="1:7">
+      <c r="A485" s="180"/>
+      <c r="B485" s="171"/>
+      <c r="G485" s="192"/>
+    </row>
+    <row r="486" s="23" customFormat="1" spans="1:7">
+      <c r="A486" s="180"/>
+      <c r="B486" s="171"/>
+      <c r="G486" s="192"/>
+    </row>
+    <row r="487" s="23" customFormat="1" spans="1:7">
+      <c r="A487" s="200" t="s">
+        <v>407</v>
+      </c>
       <c r="G487" s="191" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="488" spans="1:1">
-      <c r="A488" s="154"/>
-    </row>
-    <row r="489" spans="1:1">
-      <c r="A489" s="154"/>
-    </row>
-    <row r="490" spans="1:1">
-      <c r="A490" s="154"/>
-    </row>
-    <row r="491" spans="1:1">
-      <c r="A491" s="155"/>
-    </row>
-    <row r="492" spans="1:7">
-      <c r="A492" s="188" t="s">
-        <v>392</v>
-      </c>
-      <c r="G492" s="192" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="493" ht="33" spans="1:7">
-      <c r="A493" s="189"/>
-      <c r="G493" s="192" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="494" spans="1:7">
-      <c r="A494" s="189"/>
-      <c r="G494" s="193"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="488" s="23" customFormat="1" spans="1:7">
+      <c r="A488" s="174"/>
+      <c r="G488" s="191" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="489" s="23" customFormat="1" spans="1:7">
+      <c r="A489" s="174"/>
+      <c r="G489" s="192"/>
+    </row>
+    <row r="490" s="23" customFormat="1" spans="1:7">
+      <c r="A490" s="174"/>
+      <c r="G490" s="192"/>
+    </row>
+    <row r="491" s="23" customFormat="1" spans="1:7">
+      <c r="A491" s="175"/>
+      <c r="G491" s="192"/>
+    </row>
+    <row r="492" ht="66" spans="1:7">
+      <c r="A492" s="173" t="s">
+        <v>410</v>
+      </c>
+      <c r="G492" s="207" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" s="174"/>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" s="174"/>
     </row>
     <row r="495" spans="1:1">
-      <c r="A495" s="189"/>
+      <c r="A495" s="174"/>
     </row>
     <row r="496" spans="1:1">
-      <c r="A496" s="190"/>
+      <c r="A496" s="175"/>
+    </row>
+    <row r="497" spans="1:7">
+      <c r="A497" s="204" t="s">
+        <v>412</v>
+      </c>
+      <c r="G497" s="208" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="498" ht="33" spans="1:7">
+      <c r="A498" s="205"/>
+      <c r="G498" s="208" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7">
+      <c r="A499" s="205"/>
+      <c r="G499" s="209"/>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" s="205"/>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" s="206"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <mergeCells count="99">
+  <mergeCells count="100">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
@@ -7855,10 +8136,10 @@
     <mergeCell ref="A332:A336"/>
     <mergeCell ref="A337:A341"/>
     <mergeCell ref="A342:A346"/>
+    <mergeCell ref="A347:A351"/>
     <mergeCell ref="A352:A356"/>
     <mergeCell ref="A357:A361"/>
     <mergeCell ref="A362:A366"/>
-    <mergeCell ref="A367:A371"/>
     <mergeCell ref="A372:A376"/>
     <mergeCell ref="A377:A381"/>
     <mergeCell ref="A382:A386"/>
@@ -7884,6 +8165,7 @@
     <mergeCell ref="A482:A486"/>
     <mergeCell ref="A487:A491"/>
     <mergeCell ref="A492:A496"/>
+    <mergeCell ref="A497:A501"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E247" r:id="rId1" display="来歆余响" tooltip="https://genshin.honeyhunterworld.com/db/art/family/a_15024/?lang=CHS"/>
@@ -7898,6 +8180,7 @@
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0">
       <cellprotection/>
+      <appEtDbRelations/>
     </woSheetProps>
   </woSheetsProps>
   <woBookProps>

--- a/GenshinUID/genshinuid_adv/Genshin All Char.xlsx
+++ b/GenshinUID/genshinuid_adv/Genshin All Char.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="428">
   <si>
     <t>角色</t>
   </si>
@@ -487,7 +487,7 @@
     <t>弓藏</t>
   </si>
   <si>
-    <t>真名为阿贾克斯，原神第一个up三次的限定五星，近战弓兵的典范之一，做什么都不会ooc的传奇/诸舞精通；
+    <t>真名阿贾克斯，原神第一个up三次的限定五星，近战弓兵的典范之一，做什么都不会ooc的传奇/诸舞精通；
 身份愚人众执行官末席，代号「公子」，
 人送外号达达鸭，鸭头，（至冬国最棒的）玩具销售员，钟离的钱包/人形自走ATM，至冬国男狐狸精（误）</t>
   </si>
@@ -588,7 +588,7 @@
     <t>黑岩长枪</t>
   </si>
   <si>
-    <t>众王之都的开端</t>
+    <t>攻18</t>
   </si>
   <si>
     <t>又名金鹏，号「金鹏翅王」，人称「降魔大圣」，「护法仙众夜叉 」成员之一，原神“璃月三c”成员之一，钟离的友人暨下属，喜食杏仁豆腐；
@@ -596,6 +596,9 @@
   </si>
   <si>
     <t>千岩长枪</t>
+  </si>
+  <si>
+    <t>沙上楼阁史话</t>
   </si>
   <si>
     <t>息灾</t>
@@ -786,13 +789,13 @@
   </si>
   <si>
     <t>荒泷派创始人，希娜小姐头榜大哥，对豆类过敏；
-又名斗子哥，放牛的，进狱系男孩，岩丘丘萨满</t>
+又名斗子哥，放牛的，进狱系男孩，岩丘丘萨满（误）</t>
   </si>
   <si>
     <t>五郎</t>
   </si>
   <si>
-    <t>既是海祈岛大将，又是八重堂特邀编辑；
+    <t>既是海祈祗岛大将，又是八重堂特邀编辑；
 又名柴犬，希娜小姐的原型来源/中之人（误）</t>
   </si>
   <si>
@@ -825,7 +828,7 @@
   </si>
   <si>
     <t>身世复杂，可公开身份为鸣神大社宫司和八重堂编辑；
-人送外号屑狐狸，雷丘丘萨满，尘歌狐</t>
+人送外号屑狐狸，雷丘丘萨满，尘歌狐(误)</t>
   </si>
   <si>
     <t>千夜浮梦</t>
@@ -861,13 +864,15 @@
   </si>
   <si>
     <t>岩上茶室现任老板，璃月天权星直属特别情报官；
-曾因为机缘巧合差点当上璃月天枢星（误）；
-人送外号夜天后，腋兰（误）</t>
+曾因为机缘巧合差点当上璃月天枢星（误）；</t>
   </si>
   <si>
     <t>落霞</t>
   </si>
   <si>
+    <t>人送外号夜天后，腋兰（误）</t>
+  </si>
+  <si>
     <t>曚云之月</t>
   </si>
   <si>
@@ -877,9 +882,7 @@
     <t>暗铁剑</t>
   </si>
   <si>
-    <t>隶属于稻妻荒泷派，为斗子哥收拾烂摊子的老妈子（误）；
-又名97忍，阿忍，果宝特攻贼眉鼠眼（误），
-荒泷一斗外置大脑，考证狂魔</t>
+    <t>隶属于稻妻荒泷派，为斗子哥收拾烂摊子的老妈子（误）；</t>
   </si>
   <si>
     <t>圣显之钥</t>
@@ -891,14 +894,22 @@
     <t>千岩牢固/流浪大地的乐团</t>
   </si>
   <si>
-    <t>月女的华彩</t>
+    <t>又名97忍，阿忍，荒泷一斗外置大脑，考证狂魔</t>
+  </si>
+  <si>
+    <t>乐园遗落之花</t>
+  </si>
+  <si>
+    <t>，</t>
   </si>
   <si>
     <t>鹿野院平藏</t>
   </si>
   <si>
-    <t>天领奉行的少年侦探，提瓦特第一个实装的男法器角色；
-鸣神大社npc鹿野奈奈的表弟，人送外号“鹿野符华”（大误）</t>
+    <t>天领奉行少年侦探，九条裟罗的同僚，鹿野奈奈的表弟；提瓦特第一个实装的男法器角色；</t>
+  </si>
+  <si>
+    <t>人送外号小鹿，一拳超人，原神符华(误)，稻妻琴团长(大误)</t>
   </si>
   <si>
     <t>旅行者草</t>
@@ -927,7 +938,10 @@
     <t>苍翠绿弓</t>
   </si>
   <si>
-    <t>精通植物学，须弥教令院「生论派」的学者，现担任道成林巡林官一职，是柯莱的师傅；人送外号提子，无穷小提狐主任，（提纳）驴（大误）</t>
+    <t>精通植物学，须弥教令院「生论派」的学者，现担任道成林巡林官一职，是柯莱的师傅；</t>
+  </si>
+  <si>
+    <t>人送外号提子，无穷小提狐主任，（提纳）驴（大误）</t>
   </si>
   <si>
     <t>柯莱</t>
@@ -939,7 +953,7 @@
     <t>原神官方漫画登场角色；</t>
   </si>
   <si>
-    <t>又称须弥飞行冠军</t>
+    <t>又称须弥飞行冠军，绿毛荧(误)，兰那罗奶奶(大误)</t>
   </si>
   <si>
     <t>多莉</t>
@@ -961,12 +975,12 @@
     <t>妮露</t>
   </si>
   <si>
-    <t xml:space="preserve"> 隶属于祖拜尔剧场，在须弥追求舞蹈，艺术和演出的知名舞者；</t>
-  </si>
-  <si>
     <t>饰金之梦/流浪大地的乐团</t>
   </si>
   <si>
+    <t xml:space="preserve"> 隶属于祖拜尔剧场，在须弥追求舞蹈、艺术和演出的知名舞者，「祖拜尔剧场之星」；</t>
+  </si>
+  <si>
     <t>人送外号红牛（误）；</t>
   </si>
   <si>
@@ -979,16 +993,16 @@
     <t>赤沙之杖</t>
   </si>
   <si>
-    <t>穿着清凉，教令院内负责监管学者们的「大风纪官」，冷笑话大师；</t>
-  </si>
-  <si>
-    <t>谐音せーの（see no）；</t>
+    <t>穿着清凉，教令院内负责监管学者们的「大风纪官」；提纳里的好友，丽莎的同学；冷笑话大师，七圣召唤牌佬；</t>
+  </si>
+  <si>
+    <t>谐音せーの（see no）；人送外号大风机关，沙漠矮子(大误)</t>
   </si>
   <si>
     <t>坎蒂丝</t>
   </si>
   <si>
-    <t>异色瞳，赤王后裔，阿如村的守护者（指人形自走沙漠地区战略储备水资源，误）</t>
+    <t>异色瞳，赤王后裔，阿如村的守护者（指人形自走沙漠地区战略储备水资源）</t>
   </si>
   <si>
     <t>纳西妲</t>
@@ -1006,10 +1020,13 @@
     <t>盈满之实</t>
   </si>
   <si>
-    <t>「神秘少女」，小吉祥草王，摩诃善法大吉祥智慧主；</t>
-  </si>
-  <si>
-    <t>又名奇妙比喻真君，须弥羽球（误），扫码隔离真君（大误）</t>
+    <t>「神秘少女」「小吉祥草王」，摩诃善法大吉祥智慧主；</t>
+  </si>
+  <si>
+    <t>乐园遗落之花？</t>
+  </si>
+  <si>
+    <t>又名小草，奇妙比喻真君，须弥羽球／逃跑的月亮（误），扫码隔离真君（大误）</t>
   </si>
   <si>
     <t>莱依拉</t>
@@ -1018,7 +1035,7 @@
     <t xml:space="preserve">千岩牢固	</t>
   </si>
   <si>
-    <t>须弥明论派的学生；</t>
+    <t>须弥明论派梨多梵谛学院的学生，「月莲杯」四强选手之一，总是睡不好的赶论文科研生；</t>
   </si>
   <si>
     <t xml:space="preserve">昔日宗室之仪	</t>
@@ -1027,33 +1044,54 @@
     <t>人送外号冰深渊法师</t>
   </si>
   <si>
-    <t>流浪者
+    <t>流浪者</t>
+  </si>
+  <si>
+    <t>身世复杂，拥有一段不堪回首的「前生」；</t>
+  </si>
+  <si>
+    <t>外号崩崩小圆帽（误），兰利遮（大误），试作■■</t>
+  </si>
+  <si>
+    <t>珐露珊</t>
+  </si>
+  <si>
+    <t>须弥知论派室罗婆耽学院的百岁名宿；</t>
+  </si>
+  <si>
+    <t>人送外号百岁珊，天珊童姥（误），余响套成精（误），初音未来（大误）</t>
+  </si>
+  <si>
+    <t>艾尔海森
 （测试中）</t>
   </si>
   <si>
-    <t>英文名Wanderer，少年，五星风法；</t>
-  </si>
-  <si>
-    <t>攻18</t>
-  </si>
-  <si>
-    <t>身世复杂，前身为愚人众执行官第六席「散兵」；</t>
-  </si>
-  <si>
-    <t>3.3版本实装;</t>
-  </si>
-  <si>
-    <t>外号雷大炮，试作__ __</t>
-  </si>
-  <si>
-    <t>珐露珊
+    <t>裁叶萃光</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>英文名Alhatham，成男，五星草单手剑，3.4版本实装角色；</t>
+  </si>
+  <si>
+    <t>初见于奥摩斯港，其本人出身于须弥教令院的「知论派」，现任教令院书记官，绝对的理性主义者；</t>
+  </si>
+  <si>
+    <t>又称海哥</t>
+  </si>
+  <si>
+    <t>瑶瑶
 （测试中）</t>
   </si>
   <si>
-    <t>英文名Faruzan，女性，风系弓，少女；似乎是须弥知论派的成员；</t>
-  </si>
-  <si>
-    <t>人送外号初音未来（大误），余响套成精（误）</t>
+    <t>英文名Yaoyao，萝莉，草系长枪，3.4版本实装角色；</t>
+  </si>
+  <si>
+    <t>歌尘浪世真君的弟子，香菱的师妹；</t>
+  </si>
+  <si>
+    <t>原神CBT八骏图最后一位实装角色，璃月在途卫星角色</t>
   </si>
   <si>
     <t>迪希雅
@@ -1063,19 +1101,6 @@
     <t>英文名Dehya，成女，五星火大剑；隶属于镀金旅团的雇佣兵；传言3.5版本实装</t>
   </si>
   <si>
-    <t>艾尔海森
-（待实装）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>英文名Alhatham，曾用代号“苏”，成男，五星草单手剑，传言3.6版本以后实装，一说3.3实装；初见于奥摩斯港，其本人出身于须弥教令院的「知论派」，绝对的理性主义者；</t>
-  </si>
-  <si>
-    <t>又称海哥</t>
-  </si>
-  <si>
     <t>白术
 （待实装）</t>
   </si>
@@ -1089,16 +1114,6 @@
     <t>璃月在途卫星角色；颈上所挂白蛇名为“长生”</t>
   </si>
   <si>
-    <t>瑶瑶
-（待实装）</t>
-  </si>
-  <si>
-    <t>英文名Yaoyao，萝莉，香菱的师妹；传言3.4版本实装；草系长枪，一说为草系法器；</t>
-  </si>
-  <si>
-    <t>原神CBT八骏图最后一位未实装角色，璃月在途卫星角色</t>
-  </si>
-  <si>
     <t>米卡
 （待实装）</t>
   </si>
@@ -1119,7 +1134,7 @@
     <t>英文名Kaveh/Kavi，成男，传言为草系大剑；</t>
   </si>
   <si>
-    <t>妙论派学者，须弥知名建筑师，卡萨扎莱宫的设计者；似乎因为负债累累，现阶段借宿于艾尔海森的住所</t>
+    <t>妙论派学者，须弥知名建筑师，卡萨扎莱宫的设计者；似乎因为负债累累，现阶段作为学长的身份借宿于艾尔海森的住所</t>
   </si>
   <si>
     <t>多托雷/
@@ -1130,7 +1145,7 @@
     <t>代号Dottore/the Doctor，成男，传言为大剑；</t>
   </si>
   <si>
-    <t>愚人众执行官第二席，自机可能性较高；早期曾有3.6版本实装的说法</t>
+    <t>愚人众执行官第二席，自机可能性较高；曾化名埃舍尔，稻妻和须弥一系列闹剧的万恶之源；早期曾有3.6版本实装的说法</t>
   </si>
   <si>
     <t>杰吉特
@@ -1219,7 +1234,7 @@
     <t xml:space="preserve">英文名Alice，女性； </t>
   </si>
   <si>
-    <t>既是可莉的母亲，也是提瓦特最爱玩的冒险家，同时还是《提瓦特游览指南》的作者</t>
+    <t>既是可莉的母亲，也是提瓦特最爱玩的冒险家，同时还是《提瓦特游览指南》的作者，兼任原神拾枝杂谈降临者解说</t>
   </si>
   <si>
     <t>林尼 &amp; 琳妮特
@@ -1278,6 +1293,9 @@
     <t>愚人众执行官第五席</t>
   </si>
   <si>
+    <t>实干却伪善的市长大人——转述概括自前第■席同事</t>
+  </si>
+  <si>
     <t>戴因斯雷布
 （待证实）</t>
   </si>
@@ -1319,6 +1337,9 @@
     <t>愚人众执行官第四席，可能在3.7登场</t>
   </si>
   <si>
+    <t>「刚正不阿」「正直果敢」「战功累累」，绝对的「正直」，并拥有顶尖的实力——以上均引自第■席同事的评价</t>
+  </si>
+  <si>
     <t>阿蕾奇诺/
 「仆人」
 （待证实）</t>
@@ -1330,6 +1351,9 @@
     <t>愚人众执行官第十席</t>
   </si>
   <si>
+    <t>对人展露「优雅」与「亲切」都只是为了自己更好地「控制」，没人能活着看到她疯狂的一面；道貌岸然的伪君子——转述自第■席同事</t>
+  </si>
+  <si>
     <t>潘塔罗涅/
 「富人」
 （待证实）</t>
@@ -1341,6 +1365,9 @@
     <t>愚人众执行官第九席，在夜兰的角色故事和传说任务中被提及</t>
   </si>
   <si>
+    <t>就是这样一位对「公平交易」过分偏执，妄图推翻人神天生不平等的人，却选择与「博士」同流合污——转述自第■席同事对其本人的看法</t>
+  </si>
+  <si>
     <t>桑多涅/
 「木偶」
 （待证实）</t>
@@ -1352,6 +1379,9 @@
     <t>愚人众执行官第七席，可能在4.0版本及以后登场</t>
   </si>
   <si>
+    <t>极端分子，除了自己的研究以外什么都不关心，性格恶劣得很——前第■席同事锐评</t>
+  </si>
+  <si>
     <t>皮耶罗/
 「丑角」
 （待证实）</t>
@@ -1360,7 +1390,7 @@
     <t>代号Pierro/the Jester，男性</t>
   </si>
   <si>
-    <t>愚人众执行官首席</t>
+    <t>愚人众执行官首席；根据前第■席同事提供的情报，其本人曾是坎瑞亚首席法师，并和旅行者的血亲有所交集…</t>
   </si>
   <si>
     <t>哥伦比娅/
@@ -1372,6 +1402,9 @@
   </si>
   <si>
     <t>愚人众执行官第三席</t>
+  </si>
+  <si>
+    <t>「无论何时」都懵懂无知，「无论做什么」都麻木平淡的「少女」，太有良知的人还是远离她为好——来自前第■席同事的忠告</t>
   </si>
   <si>
     <t>阿斯莫德
@@ -1410,43 +1443,43 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="38">
     <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
     <numFmt numFmtId="177" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
     <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="179" formatCode="mmmm\-yy"/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="181" formatCode="mmmmm"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="182" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="183" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="184" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="185" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="186" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="187" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="188" formatCode="yy/m/d"/>
+    <numFmt numFmtId="189" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="190" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="191" formatCode="#\ ??"/>
+    <numFmt numFmtId="192" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="193" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="194" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="195" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="196" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="197" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="198" formatCode="m/d"/>
+    <numFmt numFmtId="199" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="200" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="178" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="179" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="180" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="181" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="182" formatCode="#\ ??"/>
-    <numFmt numFmtId="183" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="184" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="185" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="186" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="187" formatCode="yy/m/d"/>
-    <numFmt numFmtId="188" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="189" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="190" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="191" formatCode="m/d"/>
-    <numFmt numFmtId="192" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="193" formatCode="mmmmm"/>
-    <numFmt numFmtId="194" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="195" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="196" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="197" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="198" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="199" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="200" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="201" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="201" formatCode="mmmmm\-yy"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1511,17 +1544,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1540,6 +1566,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1549,7 +1598,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1557,7 +1614,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1573,7 +1630,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1581,7 +1653,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1594,47 +1666,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1721,7 +1754,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1733,19 +1844,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1757,13 +1910,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1775,121 +1922,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2120,15 +2153,17 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2149,21 +2184,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2175,17 +2195,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2204,147 +2213,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="201" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2354,7 +2387,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2649,293 +2682,299 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3304,15 +3343,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H501"/>
+  <dimension ref="A1:Q501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B313" sqref="B313:C315"/>
+      <selection pane="bottomLeft" activeCell="G328" sqref="G328:G329"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.875" style="8" customWidth="1"/>
     <col min="2" max="6" width="14.9916666666667" style="24" customWidth="1"/>
@@ -5023,9 +5062,11 @@
       </c>
       <c r="D148" s="7"/>
       <c r="E148" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F148" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="F148" s="48"/>
       <c r="G148" s="66" t="s">
         <v>172</v>
       </c>
@@ -5040,36 +5081,33 @@
       </c>
       <c r="D149" s="7"/>
       <c r="E149" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="F149" s="48" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="G149" s="67"/>
     </row>
     <row r="150" s="7" customFormat="1" spans="1:7">
       <c r="A150" s="49"/>
       <c r="B150" s="48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G150" s="67"/>
     </row>
     <row r="151" s="7" customFormat="1" spans="1:7">
       <c r="A151" s="50"/>
       <c r="B151" s="48" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G151" s="67"/>
     </row>
     <row r="152" s="2" customFormat="1" ht="66" spans="1:7">
       <c r="A152" s="27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B152" s="28" t="s">
         <v>150</v>
       </c>
       <c r="C152" s="28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D152" s="28" t="s">
         <v>167</v>
@@ -5079,7 +5117,7 @@
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="56" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="153" s="2" customFormat="1" spans="1:7">
@@ -5092,11 +5130,11 @@
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="55" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="154" s="2" customFormat="1" spans="1:7">
@@ -5132,7 +5170,7 @@
     </row>
     <row r="157" s="3" customFormat="1" ht="33" spans="1:7">
       <c r="A157" s="33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B157" s="32" t="s">
         <v>153</v>
@@ -5144,7 +5182,7 @@
         <v>9</v>
       </c>
       <c r="G157" s="58" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="158" s="3" customFormat="1" spans="1:7">
@@ -5161,7 +5199,7 @@
       <c r="A159" s="33"/>
       <c r="B159" s="32"/>
       <c r="C159" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G159" s="59"/>
     </row>
@@ -5177,7 +5215,7 @@
     </row>
     <row r="162" s="2" customFormat="1" ht="33" spans="1:7">
       <c r="A162" s="27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B162" s="28" t="s">
         <v>36</v>
@@ -5191,7 +5229,7 @@
       </c>
       <c r="F162" s="2"/>
       <c r="G162" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="163" s="2" customFormat="1" spans="1:7">
@@ -5215,7 +5253,7 @@
         <v>66</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -5238,7 +5276,7 @@
     </row>
     <row r="167" s="3" customFormat="1" ht="49.5" spans="1:7">
       <c r="A167" s="31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B167" s="32" t="s">
         <v>76</v>
@@ -5252,7 +5290,7 @@
       </c>
       <c r="F167" s="3"/>
       <c r="G167" s="58" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="168" s="3" customFormat="1" spans="1:7">
@@ -5278,7 +5316,7 @@
         <v>71</v>
       </c>
       <c r="C169" s="32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="32" t="s">
@@ -5313,13 +5351,13 @@
     </row>
     <row r="172" s="7" customFormat="1" ht="33" spans="1:7">
       <c r="A172" s="47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>114</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D172" s="7"/>
       <c r="E172" s="48" t="s">
@@ -5327,14 +5365,14 @@
       </c>
       <c r="F172" s="7"/>
       <c r="G172" s="66" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="173" s="7" customFormat="1" spans="1:7">
       <c r="A173" s="49"/>
       <c r="B173" s="48"/>
       <c r="C173" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
@@ -5361,7 +5399,7 @@
     </row>
     <row r="177" s="4" customFormat="1" spans="1:7">
       <c r="A177" s="80" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B177" s="36" t="s">
         <v>19</v>
@@ -5379,7 +5417,7 @@
         <v>9</v>
       </c>
       <c r="G177" s="84" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="178" s="4" customFormat="1" ht="82.5" spans="1:7">
@@ -5391,7 +5429,7 @@
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
       <c r="G178" s="60" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="179" s="4" customFormat="1" spans="1:7">
@@ -5408,7 +5446,7 @@
     </row>
     <row r="182" s="3" customFormat="1" ht="49.5" spans="1:7">
       <c r="A182" s="31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>106</v>
@@ -5424,13 +5462,13 @@
       </c>
       <c r="F182" s="3"/>
       <c r="G182" s="58" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="183" s="3" customFormat="1" spans="1:7">
       <c r="A183" s="33"/>
       <c r="B183" s="32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C183" s="32" t="s">
         <v>29</v>
@@ -5450,7 +5488,7 @@
         <v>60</v>
       </c>
       <c r="C184" s="32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -5479,7 +5517,7 @@
     </row>
     <row r="187" s="2" customFormat="1" ht="49.5" spans="1:7">
       <c r="A187" s="81" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B187" s="28" t="s">
         <v>142</v>
@@ -5491,11 +5529,11 @@
         <v>161</v>
       </c>
       <c r="E187" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" s="56" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="188" s="2" customFormat="1" spans="1:7">
@@ -5507,7 +5545,7 @@
         <v>143</v>
       </c>
       <c r="D188" s="28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E188" s="28" t="s">
         <v>93</v>
@@ -5553,23 +5591,23 @@
     </row>
     <row r="192" s="7" customFormat="1" ht="33" spans="1:7">
       <c r="A192" s="47" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B192" s="48" t="s">
         <v>71</v>
       </c>
       <c r="C192" s="48" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E192" s="48" t="s">
         <v>57</v>
       </c>
       <c r="F192" s="7"/>
       <c r="G192" s="66" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="193" s="7" customFormat="1" spans="1:7">
@@ -5578,7 +5616,7 @@
         <v>82</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D193" s="7"/>
       <c r="E193" s="7" t="s">
@@ -5602,7 +5640,7 @@
     <row r="195" s="7" customFormat="1" spans="1:7">
       <c r="A195" s="49"/>
       <c r="C195" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G195" s="67"/>
     </row>
@@ -5615,20 +5653,20 @@
     </row>
     <row r="197" s="3" customFormat="1" ht="33" spans="1:7">
       <c r="A197" s="31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B197" s="32" t="s">
         <v>142</v>
       </c>
       <c r="C197" s="32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" s="32" t="s">
         <v>28</v>
       </c>
       <c r="G197" s="58" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="198" s="3" customFormat="1" spans="1:7">
@@ -5644,7 +5682,7 @@
         <v>28</v>
       </c>
       <c r="F198" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G198" s="59"/>
     </row>
@@ -5658,7 +5696,7 @@
       </c>
       <c r="D199" s="3"/>
       <c r="E199" s="32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F199" s="32"/>
       <c r="G199" s="59"/>
@@ -5677,13 +5715,13 @@
     </row>
     <row r="202" s="4" customFormat="1" ht="66" spans="1:7">
       <c r="A202" s="35" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B202" s="36" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C202" s="36" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D202" s="4"/>
       <c r="E202" s="36" t="s">
@@ -5691,13 +5729,13 @@
       </c>
       <c r="F202" s="4"/>
       <c r="G202" s="92" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="203" s="4" customFormat="1" spans="1:7">
       <c r="A203" s="37"/>
       <c r="B203" s="36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C203" s="36" t="s">
         <v>92</v>
@@ -5738,7 +5776,7 @@
     </row>
     <row r="207" s="4" customFormat="1" ht="33" spans="1:7">
       <c r="A207" s="35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B207" s="36" t="s">
         <v>14</v>
@@ -5752,7 +5790,7 @@
       </c>
       <c r="F207" s="4"/>
       <c r="G207" s="60" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="208" s="4" customFormat="1" spans="1:7">
@@ -5796,7 +5834,7 @@
     </row>
     <row r="212" s="8" customFormat="1" spans="1:7">
       <c r="A212" s="85" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>50</v>
@@ -5812,7 +5850,7 @@
       </c>
       <c r="F212" s="8"/>
       <c r="G212" s="93" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="213" s="8" customFormat="1" spans="1:7">
@@ -5829,13 +5867,13 @@
         <v>53</v>
       </c>
       <c r="G213" s="93" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="214" s="8" customFormat="1" ht="33" spans="1:7">
       <c r="A214" s="87"/>
       <c r="C214" s="86" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D214" s="86"/>
       <c r="E214" s="86" t="s">
@@ -5843,7 +5881,7 @@
       </c>
       <c r="F214" s="8"/>
       <c r="G214" s="94" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="215" s="8" customFormat="1" spans="1:7">
@@ -5861,7 +5899,7 @@
     </row>
     <row r="217" s="2" customFormat="1" ht="33" spans="1:7">
       <c r="A217" s="27" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B217" s="28" t="s">
         <v>150</v>
@@ -5877,16 +5915,16 @@
       </c>
       <c r="F217" s="2"/>
       <c r="G217" s="56" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="218" s="2" customFormat="1" spans="1:7">
       <c r="A218" s="29"/>
       <c r="B218" s="28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C218" s="28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="28" t="s">
@@ -5900,7 +5938,7 @@
     <row r="219" s="2" customFormat="1" spans="1:7">
       <c r="A219" s="29"/>
       <c r="B219" s="28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -5918,7 +5956,7 @@
     </row>
     <row r="222" s="5" customFormat="1" ht="33" spans="1:7">
       <c r="A222" s="39" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B222" s="40" t="s">
         <v>42</v>
@@ -5927,14 +5965,14 @@
         <v>43</v>
       </c>
       <c r="D222" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E222" s="40" t="s">
         <v>44</v>
       </c>
       <c r="F222" s="5"/>
-      <c r="G222" s="62" t="s">
-        <v>230</v>
+      <c r="G222" s="79" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="223" s="5" customFormat="1" spans="1:7">
@@ -5964,7 +6002,7 @@
     </row>
     <row r="227" s="5" customFormat="1" ht="33" spans="1:7">
       <c r="A227" s="39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B227" s="5" t="s">
         <v>14</v>
@@ -5978,7 +6016,7 @@
       </c>
       <c r="F227" s="5"/>
       <c r="G227" s="62" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="228" s="5" customFormat="1" spans="1:7">
@@ -5990,7 +6028,7 @@
         <v>22</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G228" s="63"/>
     </row>
@@ -6008,10 +6046,10 @@
     </row>
     <row r="232" s="3" customFormat="1" spans="1:7">
       <c r="A232" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B232" s="32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C232" s="32" t="s">
         <v>173</v>
@@ -6022,7 +6060,7 @@
       </c>
       <c r="F232" s="3"/>
       <c r="G232" s="59" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="233" s="3" customFormat="1" spans="1:7">
@@ -6031,21 +6069,21 @@
         <v>154</v>
       </c>
       <c r="C233" s="32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D233" s="3"/>
       <c r="E233" s="32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F233" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G233" s="59"/>
     </row>
     <row r="234" s="3" customFormat="1" spans="1:7">
       <c r="A234" s="33"/>
       <c r="B234" s="32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C234" s="32" t="s">
         <v>96</v>
@@ -6068,10 +6106,10 @@
     </row>
     <row r="237" s="5" customFormat="1" ht="33" spans="1:7">
       <c r="A237" s="39" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C237" s="40" t="s">
         <v>96</v>
@@ -6082,13 +6120,13 @@
       </c>
       <c r="F237" s="5"/>
       <c r="G237" s="79" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="238" s="5" customFormat="1" spans="1:7">
       <c r="A238" s="41"/>
       <c r="C238" s="40" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D238" s="5"/>
       <c r="E238" s="40" t="s">
@@ -6102,7 +6140,7 @@
     <row r="239" s="5" customFormat="1" spans="1:7">
       <c r="A239" s="41"/>
       <c r="C239" s="40" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
@@ -6119,7 +6157,7 @@
     </row>
     <row r="242" s="4" customFormat="1" ht="33" spans="1:7">
       <c r="A242" s="35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B242" s="36" t="s">
         <v>32</v>
@@ -6135,13 +6173,13 @@
         <v>68</v>
       </c>
       <c r="G242" s="60" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="243" s="4" customFormat="1" spans="1:7">
       <c r="A243" s="37"/>
       <c r="B243" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C243" s="36" t="s">
         <v>37</v>
@@ -6191,16 +6229,16 @@
         <v>38</v>
       </c>
       <c r="E246" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G246" s="61"/>
     </row>
     <row r="247" s="6" customFormat="1" ht="33" spans="1:7">
       <c r="A247" s="43" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B247" s="44" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C247" s="44" t="s">
         <v>29</v>
@@ -6209,11 +6247,11 @@
         <v>21</v>
       </c>
       <c r="E247" s="44" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F247" s="6"/>
       <c r="G247" s="64" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="248" s="6" customFormat="1" spans="1:7">
@@ -6237,7 +6275,7 @@
         <v>60</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E249" s="44" t="s">
         <v>48</v>
@@ -6254,7 +6292,7 @@
     </row>
     <row r="252" s="10" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A252" s="89" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B252" s="44" t="s">
         <v>144</v>
@@ -6270,10 +6308,10 @@
       </c>
       <c r="F252" s="44"/>
       <c r="G252" s="97" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="253" s="10" customFormat="1" ht="54" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" s="10" customFormat="1" ht="36" spans="1:7">
       <c r="A253" s="90"/>
       <c r="B253" s="44" t="s">
         <v>14</v>
@@ -6285,30 +6323,33 @@
         <v>147</v>
       </c>
       <c r="E253" s="44" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F253" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="G253" s="98" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="254" s="10" customFormat="1" ht="18" spans="1:6">
+      <c r="G253" s="97" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="254" s="10" customFormat="1" ht="18" spans="1:7">
       <c r="A254" s="90"/>
       <c r="B254" s="44"/>
       <c r="C254" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D254" s="6"/>
       <c r="E254" s="44"/>
       <c r="F254" s="44"/>
+      <c r="G254" s="98" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="255" s="10" customFormat="1" ht="18" spans="1:6">
       <c r="A255" s="90"/>
       <c r="B255" s="44"/>
       <c r="C255" s="44" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D255" s="6"/>
       <c r="E255" s="44"/>
@@ -6326,7 +6367,7 @@
     </row>
     <row r="257" s="11" customFormat="1" spans="1:7">
       <c r="A257" s="99" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B257" s="100" t="s">
         <v>114</v>
@@ -6340,56 +6381,61 @@
       <c r="E257" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G257" s="134"/>
-    </row>
-    <row r="258" s="4" customFormat="1" ht="49.5" spans="1:7">
+      <c r="G257" s="135"/>
+    </row>
+    <row r="258" s="4" customFormat="1" spans="1:7">
       <c r="A258" s="37"/>
       <c r="B258" s="36" t="s">
         <v>60</v>
       </c>
       <c r="C258" s="36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D258" s="36" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E258" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G258" s="60" t="s">
-        <v>258</v>
+      <c r="G258" s="92" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="259" s="4" customFormat="1" ht="33" spans="1:7">
       <c r="A259" s="37"/>
       <c r="B259" s="36" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C259" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E259" s="135" t="s">
-        <v>260</v>
-      </c>
-      <c r="F259" s="135" t="s">
-        <v>261</v>
-      </c>
-      <c r="G259" s="61"/>
+      <c r="E259" s="136" t="s">
+        <v>262</v>
+      </c>
+      <c r="F259" s="136" t="s">
+        <v>263</v>
+      </c>
+      <c r="G259" s="92" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="260" s="4" customFormat="1" spans="1:7">
       <c r="A260" s="37"/>
-      <c r="D260" s="4" t="s">
-        <v>262</v>
+      <c r="D260" s="36" t="s">
+        <v>265</v>
       </c>
       <c r="G260" s="61"/>
     </row>
-    <row r="261" s="4" customFormat="1" spans="1:7">
+    <row r="261" s="4" customFormat="1" spans="1:17">
       <c r="A261" s="38"/>
       <c r="G261" s="61"/>
+      <c r="Q261" s="4" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="262" s="7" customFormat="1" ht="49.5" spans="1:7">
       <c r="A262" s="101" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B262" s="48" t="s">
         <v>32</v>
@@ -6403,11 +6449,11 @@
       <c r="E262" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F262" s="136" t="s">
+      <c r="F262" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="G262" s="137" t="s">
-        <v>264</v>
+      <c r="G262" s="138" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="263" s="7" customFormat="1" spans="1:7">
@@ -6421,7 +6467,9 @@
       <c r="E263" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="G263" s="137"/>
+      <c r="G263" s="138" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="264" s="7" customFormat="1" spans="1:7">
       <c r="A264" s="102"/>
@@ -6449,22 +6497,22 @@
     </row>
     <row r="267" s="12" customFormat="1" ht="82.5" spans="1:7">
       <c r="A267" s="104" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B267" s="105" t="s">
         <v>114</v>
       </c>
       <c r="C267" s="105" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D267" s="105" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E267" s="105" t="s">
-        <v>267</v>
-      </c>
-      <c r="G267" s="138" t="s">
-        <v>268</v>
+        <v>272</v>
+      </c>
+      <c r="G267" s="139" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="268" s="12" customFormat="1" spans="1:7">
@@ -6482,8 +6530,8 @@
         <v>9</v>
       </c>
       <c r="F268" s="105"/>
-      <c r="G268" s="139" t="s">
-        <v>269</v>
+      <c r="G268" s="140" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="269" s="12" customFormat="1" spans="1:7">
@@ -6494,25 +6542,25 @@
       <c r="E269" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="G269" s="139"/>
+      <c r="G269" s="140"/>
     </row>
     <row r="270" s="12" customFormat="1" spans="1:7">
       <c r="A270" s="104"/>
-      <c r="G270" s="139"/>
+      <c r="G270" s="140"/>
     </row>
     <row r="271" s="12" customFormat="1" spans="1:7">
       <c r="A271" s="104"/>
-      <c r="G271" s="139"/>
+      <c r="G271" s="140"/>
     </row>
     <row r="272" s="12" customFormat="1" spans="1:7">
       <c r="A272" s="106" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B272" s="12" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C272" s="105" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D272" s="105" t="s">
         <v>161</v>
@@ -6520,8 +6568,8 @@
       <c r="E272" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="G272" s="139" t="s">
-        <v>273</v>
+      <c r="G272" s="140" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="273" s="12" customFormat="1" spans="1:7">
@@ -6533,9 +6581,11 @@
         <v>143</v>
       </c>
       <c r="E273" s="105" t="s">
-        <v>244</v>
-      </c>
-      <c r="G273" s="139"/>
+        <v>245</v>
+      </c>
+      <c r="G273" s="140" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="274" s="12" customFormat="1" spans="1:7">
       <c r="A274" s="107"/>
@@ -6546,12 +6596,12 @@
         <v>8</v>
       </c>
       <c r="E274" s="105" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F274" s="105" t="s">
-        <v>244</v>
-      </c>
-      <c r="G274" s="140"/>
+        <v>245</v>
+      </c>
+      <c r="G274" s="141"/>
     </row>
     <row r="275" s="12" customFormat="1" spans="1:7">
       <c r="A275" s="107"/>
@@ -6564,15 +6614,15 @@
       <c r="E275" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="G275" s="140"/>
+      <c r="G275" s="141"/>
     </row>
     <row r="276" s="12" customFormat="1" spans="1:7">
       <c r="A276" s="108"/>
-      <c r="G276" s="140"/>
+      <c r="G276" s="141"/>
     </row>
     <row r="277" s="12" customFormat="1" spans="1:7">
       <c r="A277" s="104" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B277" s="105" t="s">
         <v>14</v>
@@ -6584,10 +6634,10 @@
         <v>129</v>
       </c>
       <c r="E277" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="G277" s="139" t="s">
-        <v>275</v>
+        <v>272</v>
+      </c>
+      <c r="G277" s="140" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="278" s="12" customFormat="1" spans="1:7">
@@ -6599,8 +6649,8 @@
       <c r="E278" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="G278" s="139" t="s">
-        <v>276</v>
+      <c r="G278" s="140" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="279" s="12" customFormat="1" spans="1:7">
@@ -6612,34 +6662,34 @@
       <c r="E279" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="G279" s="139" t="s">
-        <v>277</v>
+      <c r="G279" s="140" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="280" s="12" customFormat="1" spans="1:7">
       <c r="A280" s="109"/>
       <c r="C280" s="105" t="s">
-        <v>254</v>
-      </c>
-      <c r="G280" s="140"/>
+        <v>255</v>
+      </c>
+      <c r="G280" s="141"/>
     </row>
     <row r="281" s="12" customFormat="1" spans="1:7">
       <c r="A281" s="109"/>
-      <c r="G281" s="140"/>
+      <c r="G281" s="141"/>
     </row>
     <row r="282" s="13" customFormat="1" ht="49.5" spans="1:7">
       <c r="A282" s="110" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B282" s="111"/>
       <c r="C282" s="112" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E282" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="G282" s="141" t="s">
-        <v>279</v>
+      <c r="G282" s="142" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="283" s="13" customFormat="1" spans="1:7">
@@ -6651,50 +6701,52 @@
       <c r="E283" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="G283" s="142" t="s">
-        <v>280</v>
+      <c r="G283" s="143" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="284" s="13" customFormat="1" spans="1:7">
       <c r="A284" s="113"/>
       <c r="B284" s="111"/>
       <c r="C284" s="112" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E284" s="112" t="s">
-        <v>267</v>
-      </c>
-      <c r="G284" s="143"/>
+        <v>272</v>
+      </c>
+      <c r="G284" s="144"/>
     </row>
     <row r="285" s="13" customFormat="1" spans="1:7">
       <c r="A285" s="113"/>
       <c r="B285" s="111"/>
       <c r="C285" s="112" t="s">
-        <v>205</v>
-      </c>
-      <c r="G285" s="143"/>
+        <v>206</v>
+      </c>
+      <c r="G285" s="144"/>
     </row>
     <row r="286" s="13" customFormat="1" spans="1:7">
       <c r="A286" s="113"/>
       <c r="B286" s="111"/>
       <c r="C286" s="112" t="s">
-        <v>282</v>
-      </c>
-      <c r="G286" s="143"/>
+        <v>288</v>
+      </c>
+      <c r="G286" s="144"/>
     </row>
     <row r="287" s="6" customFormat="1" spans="1:7">
       <c r="A287" s="74" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B287" s="44" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E287" s="44" t="s">
-        <v>262</v>
-      </c>
-      <c r="F287" s="44"/>
-      <c r="G287" s="144" t="s">
-        <v>284</v>
+        <v>119</v>
+      </c>
+      <c r="F287" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="G287" s="145" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="288" s="6" customFormat="1" spans="1:7">
@@ -6706,44 +6758,41 @@
         <v>119</v>
       </c>
       <c r="F288" s="44" t="s">
-        <v>285</v>
-      </c>
-      <c r="G288" s="144"/>
+        <v>64</v>
+      </c>
+      <c r="G288" s="145"/>
     </row>
     <row r="289" s="6" customFormat="1" spans="1:7">
       <c r="A289" s="45"/>
       <c r="E289" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="F289" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="G289" s="144" t="s">
-        <v>286</v>
+        <v>245</v>
+      </c>
+      <c r="G289" s="145" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="290" s="6" customFormat="1" spans="1:7">
       <c r="A290" s="45"/>
       <c r="E290" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="G290" s="144" t="s">
-        <v>287</v>
+        <v>272</v>
+      </c>
+      <c r="G290" s="145" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="291" s="6" customFormat="1" spans="1:7">
       <c r="A291" s="46"/>
-      <c r="E291" s="44" t="s">
-        <v>267</v>
+      <c r="E291" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="G291" s="65"/>
     </row>
     <row r="292" s="4" customFormat="1" spans="1:7">
       <c r="A292" s="114" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B292" s="115" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C292" s="36" t="s">
         <v>95</v>
@@ -6752,7 +6801,7 @@
         <v>34</v>
       </c>
       <c r="G292" s="84" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="293" s="4" customFormat="1" spans="1:7">
@@ -6761,11 +6810,11 @@
         <v>153</v>
       </c>
       <c r="E293" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F293" s="36"/>
       <c r="G293" s="84" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="294" s="4" customFormat="1" spans="1:7">
@@ -6790,71 +6839,71 @@
     </row>
     <row r="297" s="14" customFormat="1" spans="1:7">
       <c r="A297" s="118" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B297" s="119" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C297" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G297" s="145" t="s">
-        <v>293</v>
+      <c r="G297" s="146" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="298" s="14" customFormat="1" spans="1:7">
       <c r="A298" s="120"/>
       <c r="B298" s="119"/>
       <c r="C298" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="E298" s="146" t="s">
+        <v>228</v>
+      </c>
+      <c r="E298" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="F298" s="146" t="s">
+      <c r="F298" s="147" t="s">
         <v>119</v>
       </c>
-      <c r="G298" s="145"/>
+      <c r="G298" s="146"/>
     </row>
     <row r="299" s="14" customFormat="1" spans="1:7">
       <c r="A299" s="120"/>
       <c r="B299" s="119"/>
       <c r="C299" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="E299" s="146" t="s">
+        <v>241</v>
+      </c>
+      <c r="E299" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="G299" s="147"/>
+      <c r="G299" s="148"/>
     </row>
     <row r="300" s="14" customFormat="1" spans="1:7">
       <c r="A300" s="120"/>
       <c r="B300" s="119"/>
-      <c r="G300" s="147"/>
+      <c r="G300" s="148"/>
     </row>
     <row r="301" s="14" customFormat="1" spans="1:7">
       <c r="A301" s="120"/>
       <c r="B301" s="119"/>
-      <c r="G301" s="147"/>
-    </row>
-    <row r="302" s="15" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="G301" s="148"/>
+    </row>
+    <row r="302" s="15" customFormat="1" ht="16.05" customHeight="1" spans="1:7">
       <c r="A302" s="121" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C302" s="122" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D302" s="122" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="E302" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="G302" s="148" t="s">
-        <v>297</v>
+        <v>272</v>
+      </c>
+      <c r="G302" s="149" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="303" s="15" customFormat="1" spans="1:7">
@@ -6863,29 +6912,29 @@
         <v>32</v>
       </c>
       <c r="C303" s="122" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E303" s="122" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F303" s="122" t="s">
         <v>99</v>
       </c>
-      <c r="G303" s="148" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="304" s="15" customFormat="1" ht="50.25" customHeight="1" spans="1:7">
+      <c r="G303" s="149" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="304" s="15" customFormat="1" ht="15.6" customHeight="1" spans="1:7">
       <c r="A304" s="123"/>
       <c r="C304" s="15" t="s">
         <v>39</v>
       </c>
       <c r="E304" s="122" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="F304" s="122"/>
-      <c r="G304" s="149" t="s">
-        <v>300</v>
+      <c r="G304" s="150" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="305" s="15" customFormat="1" spans="1:1">
@@ -6893,23 +6942,23 @@
     </row>
     <row r="306" s="15" customFormat="1" spans="1:7">
       <c r="A306" s="123"/>
-      <c r="G306" s="150"/>
+      <c r="G306" s="151"/>
     </row>
     <row r="307" s="16" customFormat="1" spans="1:7">
       <c r="A307" s="124" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="B307" s="16" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C307" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E307" s="151" t="s">
-        <v>302</v>
-      </c>
-      <c r="G307" s="152" t="s">
-        <v>303</v>
+      <c r="E307" s="152" t="s">
+        <v>309</v>
+      </c>
+      <c r="G307" s="153" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="308" s="16" customFormat="1" spans="1:7">
@@ -6918,10 +6967,10 @@
         <v>60</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="G308" s="152" t="s">
-        <v>305</v>
+        <v>311</v>
+      </c>
+      <c r="G308" s="153" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="309" s="16" customFormat="1" spans="1:1">
@@ -6929,15 +6978,15 @@
     </row>
     <row r="310" s="16" customFormat="1" spans="1:7">
       <c r="A310" s="125"/>
-      <c r="G310" s="153"/>
+      <c r="G310" s="154"/>
     </row>
     <row r="311" s="16" customFormat="1" spans="1:7">
       <c r="A311" s="125"/>
-      <c r="G311" s="153"/>
+      <c r="G311" s="154"/>
     </row>
     <row r="312" s="17" customFormat="1" spans="1:7">
       <c r="A312" s="126" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B312" s="127" t="s">
         <v>138</v>
@@ -6945,396 +6994,431 @@
       <c r="C312" s="128" t="s">
         <v>37</v>
       </c>
+      <c r="D312" s="128" t="s">
+        <v>302</v>
+      </c>
       <c r="E312" s="128" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F312" s="128"/>
-      <c r="G312" s="154" t="s">
-        <v>307</v>
+      <c r="G312" s="83" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="313" s="7" customFormat="1" spans="1:7">
       <c r="A313" s="129"/>
       <c r="B313" s="130" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E313" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F313" s="7" t="s">
-        <v>308</v>
+      <c r="E313" s="48" t="s">
+        <v>248</v>
       </c>
       <c r="G313" s="83" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="314" s="7" customFormat="1" spans="1:7">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="314" s="7" customFormat="1" spans="1:5">
       <c r="A314" s="129"/>
-      <c r="B314" s="130" t="s">
-        <v>38</v>
+      <c r="B314" s="48" t="s">
+        <v>32</v>
       </c>
       <c r="C314" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G314" s="83" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="315" s="7" customFormat="1" spans="1:7">
+      <c r="E314" s="48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="315" s="7" customFormat="1" spans="1:6">
       <c r="A315" s="129"/>
-      <c r="B315" s="130" t="s">
-        <v>66</v>
-      </c>
-      <c r="C315" s="7"/>
-      <c r="G315" s="83" t="s">
-        <v>311</v>
+      <c r="B315" s="131" t="s">
+        <v>38</v>
+      </c>
+      <c r="C315" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="E315" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F315" s="7" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="316" s="7" customFormat="1" spans="1:7">
       <c r="A316" s="129"/>
-      <c r="B316" s="130"/>
+      <c r="B316" s="130" t="s">
+        <v>36</v>
+      </c>
       <c r="G316" s="67"/>
     </row>
     <row r="317" s="18" customFormat="1" spans="1:7">
       <c r="A317" s="126" t="s">
-        <v>312</v>
-      </c>
-      <c r="B317" s="131" t="s">
-        <v>12</v>
-      </c>
-      <c r="C317" s="132" t="s">
-        <v>146</v>
-      </c>
-      <c r="E317" s="132" t="s">
-        <v>9</v>
+        <v>316</v>
+      </c>
+      <c r="B317" s="132" t="s">
+        <v>14</v>
+      </c>
+      <c r="C317" s="133" t="s">
+        <v>131</v>
+      </c>
+      <c r="E317" s="133" t="s">
+        <v>119</v>
       </c>
       <c r="G317" s="155" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="318" s="18" customFormat="1" spans="1:7">
       <c r="A318" s="129"/>
-      <c r="B318" s="131" t="s">
-        <v>14</v>
+      <c r="B318" s="132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C318" s="133" t="s">
+        <v>146</v>
+      </c>
+      <c r="E318" s="133" t="s">
+        <v>9</v>
       </c>
       <c r="G318" s="155" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="319" s="18" customFormat="1" spans="1:7">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="319" s="18" customFormat="1" spans="1:5">
       <c r="A319" s="129"/>
-      <c r="B319" s="133"/>
-      <c r="G319" s="155" t="s">
-        <v>314</v>
+      <c r="B319" s="133" t="s">
+        <v>132</v>
+      </c>
+      <c r="C319" s="133" t="s">
+        <v>255</v>
+      </c>
+      <c r="E319" s="133" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="320" s="18" customFormat="1" spans="1:7">
       <c r="A320" s="129"/>
-      <c r="B320" s="133"/>
+      <c r="B320" s="134"/>
+      <c r="E320" s="133" t="s">
+        <v>57</v>
+      </c>
       <c r="G320" s="156"/>
     </row>
     <row r="321" s="18" customFormat="1" spans="1:7">
       <c r="A321" s="129"/>
-      <c r="B321" s="133"/>
+      <c r="B321" s="134"/>
       <c r="G321" s="156"/>
     </row>
-    <row r="322" s="2" customFormat="1" spans="1:7">
+    <row r="322" s="12" customFormat="1" spans="1:7">
       <c r="A322" s="157" t="s">
-        <v>315</v>
-      </c>
-      <c r="B322" s="158"/>
-      <c r="G322" s="183" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="323" s="2" customFormat="1" spans="1:7">
-      <c r="A323" s="157"/>
-      <c r="B323" s="158"/>
-      <c r="G323" s="183"/>
-    </row>
-    <row r="324" s="2" customFormat="1" spans="1:7">
-      <c r="A324" s="157"/>
-      <c r="B324" s="158"/>
-      <c r="G324" s="55"/>
-    </row>
-    <row r="325" s="2" customFormat="1" spans="1:7">
-      <c r="A325" s="157"/>
-      <c r="B325" s="158"/>
-      <c r="G325" s="55"/>
-    </row>
-    <row r="326" s="2" customFormat="1" spans="1:7">
-      <c r="A326" s="157"/>
-      <c r="B326" s="158"/>
-      <c r="G326" s="55"/>
+        <v>319</v>
+      </c>
+      <c r="B322" s="158" t="s">
+        <v>320</v>
+      </c>
+      <c r="C322" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E322" s="105" t="s">
+        <v>272</v>
+      </c>
+      <c r="G322" s="140" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="323" s="12" customFormat="1" spans="1:7">
+      <c r="A323" s="123"/>
+      <c r="B323" s="159"/>
+      <c r="E323" s="105" t="s">
+        <v>272</v>
+      </c>
+      <c r="F323" s="105" t="s">
+        <v>171</v>
+      </c>
+      <c r="G323" s="140" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="324" s="12" customFormat="1" spans="1:7">
+      <c r="A324" s="123"/>
+      <c r="B324" s="159"/>
+      <c r="G324" s="140" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="325" s="12" customFormat="1" spans="1:7">
+      <c r="A325" s="123"/>
+      <c r="B325" s="159"/>
+      <c r="G325" s="141"/>
+    </row>
+    <row r="326" s="12" customFormat="1" spans="1:7">
+      <c r="A326" s="123"/>
+      <c r="B326" s="159"/>
+      <c r="G326" s="141"/>
     </row>
     <row r="327" s="12" customFormat="1" spans="1:7">
-      <c r="A327" s="123" t="s">
-        <v>317</v>
+      <c r="A327" s="157" t="s">
+        <v>325</v>
       </c>
       <c r="B327" s="159"/>
-      <c r="C327" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="G327" s="139" t="s">
-        <v>319</v>
+      <c r="G327" s="140" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="328" s="12" customFormat="1" spans="1:7">
-      <c r="A328" s="123"/>
+      <c r="A328" s="160"/>
       <c r="B328" s="159"/>
-      <c r="G328" s="139"/>
+      <c r="G328" s="140" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="329" s="12" customFormat="1" spans="1:7">
-      <c r="A329" s="123"/>
+      <c r="A329" s="160"/>
       <c r="B329" s="159"/>
-      <c r="G329" s="139" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="330" s="12" customFormat="1" spans="1:7">
-      <c r="A330" s="123"/>
+      <c r="G329" s="141" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" s="12" customFormat="1" spans="1:2">
+      <c r="A330" s="160"/>
       <c r="B330" s="159"/>
-      <c r="G330" s="140"/>
-    </row>
-    <row r="331" s="12" customFormat="1" spans="1:7">
-      <c r="A331" s="123"/>
-      <c r="B331" s="159"/>
-      <c r="G331" s="140"/>
-    </row>
-    <row r="332" s="12" customFormat="1" spans="1:7">
-      <c r="A332" s="160" t="s">
-        <v>321</v>
-      </c>
-      <c r="B332" s="159"/>
-      <c r="G332" s="139" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="333" s="12" customFormat="1" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A333" s="160"/>
-      <c r="B333" s="159"/>
-      <c r="G333" s="138" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="334" s="12" customFormat="1" spans="1:7">
-      <c r="A334" s="160"/>
-      <c r="B334" s="159"/>
-      <c r="G334" s="138" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="335" s="12" customFormat="1" spans="1:7">
-      <c r="A335" s="160"/>
-      <c r="B335" s="159"/>
-      <c r="G335" s="140"/>
-    </row>
-    <row r="336" s="12" customFormat="1" spans="1:7">
-      <c r="A336" s="160"/>
-      <c r="B336" s="159"/>
-      <c r="G336" s="140"/>
+    </row>
+    <row r="331" s="19" customFormat="1" spans="1:7">
+      <c r="A331" s="160"/>
+      <c r="B331" s="161"/>
+      <c r="G331" s="184"/>
+    </row>
+    <row r="332" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A332" s="162" t="s">
+        <v>329</v>
+      </c>
+      <c r="B332" s="163"/>
+      <c r="G332" s="185" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="333" s="2" customFormat="1" spans="1:7">
+      <c r="A333" s="162"/>
+      <c r="B333" s="163"/>
+      <c r="G333" s="185"/>
+    </row>
+    <row r="334" s="2" customFormat="1" spans="1:7">
+      <c r="A334" s="162"/>
+      <c r="B334" s="163"/>
+      <c r="G334" s="55"/>
+    </row>
+    <row r="335" s="2" customFormat="1" spans="1:7">
+      <c r="A335" s="162"/>
+      <c r="B335" s="163"/>
+      <c r="G335" s="55"/>
+    </row>
+    <row r="336" s="2" customFormat="1" spans="1:7">
+      <c r="A336" s="162"/>
+      <c r="B336" s="163"/>
+      <c r="G336" s="55"/>
     </row>
     <row r="337" s="12" customFormat="1" spans="1:7">
-      <c r="A337" s="160" t="s">
-        <v>325</v>
+      <c r="A337" s="157" t="s">
+        <v>331</v>
       </c>
       <c r="B337" s="159"/>
-      <c r="G337" s="139" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="338" s="12" customFormat="1" spans="1:7">
-      <c r="A338" s="161"/>
+      <c r="G337" s="140" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="338" s="12" customFormat="1" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A338" s="157"/>
       <c r="B338" s="159"/>
-      <c r="G338" s="138" t="s">
-        <v>327</v>
+      <c r="G338" s="139" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="339" s="12" customFormat="1" spans="1:7">
-      <c r="A339" s="161"/>
+      <c r="A339" s="157"/>
       <c r="B339" s="159"/>
-      <c r="G339" s="140"/>
+      <c r="G339" s="139" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="340" s="12" customFormat="1" spans="1:7">
-      <c r="A340" s="161"/>
+      <c r="A340" s="157"/>
       <c r="B340" s="159"/>
-      <c r="G340" s="140"/>
-    </row>
-    <row r="341" s="19" customFormat="1" spans="1:7">
-      <c r="A341" s="161"/>
-      <c r="B341" s="162"/>
-      <c r="G341" s="184"/>
+      <c r="G340" s="141"/>
+    </row>
+    <row r="341" s="12" customFormat="1" spans="1:7">
+      <c r="A341" s="157"/>
+      <c r="B341" s="159"/>
+      <c r="G341" s="141"/>
     </row>
     <row r="342" s="20" customFormat="1" spans="1:7">
-      <c r="A342" s="163" t="s">
-        <v>328</v>
-      </c>
-      <c r="B342" s="164"/>
-      <c r="G342" s="185" t="s">
-        <v>329</v>
+      <c r="A342" s="164" t="s">
+        <v>335</v>
+      </c>
+      <c r="B342" s="165"/>
+      <c r="G342" s="186" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="343" s="20" customFormat="1" spans="1:7">
-      <c r="A343" s="165"/>
-      <c r="B343" s="164"/>
-      <c r="G343" s="185" t="s">
-        <v>330</v>
+      <c r="A343" s="166"/>
+      <c r="B343" s="165"/>
+      <c r="G343" s="186" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="344" s="20" customFormat="1" spans="1:7">
-      <c r="A344" s="165"/>
-      <c r="B344" s="164"/>
-      <c r="G344" s="186" t="s">
-        <v>331</v>
+      <c r="A344" s="166"/>
+      <c r="B344" s="165"/>
+      <c r="G344" s="187" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="345" s="20" customFormat="1" spans="1:7">
-      <c r="A345" s="165"/>
-      <c r="B345" s="164"/>
-      <c r="G345" s="186"/>
+      <c r="A345" s="166"/>
+      <c r="B345" s="165"/>
+      <c r="G345" s="187"/>
     </row>
     <row r="346" s="20" customFormat="1" spans="1:7">
-      <c r="A346" s="165"/>
-      <c r="B346" s="164"/>
-      <c r="G346" s="186"/>
+      <c r="A346" s="166"/>
+      <c r="B346" s="165"/>
+      <c r="G346" s="187"/>
     </row>
     <row r="347" s="21" customFormat="1" spans="1:7">
       <c r="A347" s="123" t="s">
-        <v>332</v>
-      </c>
-      <c r="B347" s="166"/>
-      <c r="G347" s="187" t="s">
-        <v>333</v>
+        <v>339</v>
+      </c>
+      <c r="B347" s="167"/>
+      <c r="G347" s="188" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="348" s="21" customFormat="1" spans="1:7">
-      <c r="A348" s="161"/>
-      <c r="B348" s="166"/>
-      <c r="G348" s="187" t="s">
-        <v>334</v>
+      <c r="A348" s="160"/>
+      <c r="B348" s="167"/>
+      <c r="G348" s="188" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="349" s="21" customFormat="1" spans="1:7">
-      <c r="A349" s="161"/>
-      <c r="B349" s="166"/>
-      <c r="G349" s="188"/>
+      <c r="A349" s="160"/>
+      <c r="B349" s="167"/>
+      <c r="G349" s="189"/>
     </row>
     <row r="350" s="21" customFormat="1" spans="1:7">
-      <c r="A350" s="161"/>
-      <c r="B350" s="166"/>
-      <c r="G350" s="188"/>
+      <c r="A350" s="160"/>
+      <c r="B350" s="167"/>
+      <c r="G350" s="189"/>
     </row>
     <row r="351" s="21" customFormat="1" spans="1:7">
-      <c r="A351" s="161"/>
-      <c r="B351" s="166"/>
-      <c r="G351" s="188"/>
+      <c r="A351" s="160"/>
+      <c r="B351" s="167"/>
+      <c r="G351" s="189"/>
     </row>
     <row r="352" s="22" customFormat="1" spans="1:7">
-      <c r="A352" s="167" t="s">
-        <v>335</v>
-      </c>
-      <c r="B352" s="168"/>
-      <c r="G352" s="189" t="s">
-        <v>336</v>
+      <c r="A352" s="168" t="s">
+        <v>342</v>
+      </c>
+      <c r="B352" s="169"/>
+      <c r="G352" s="190" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="353" s="22" customFormat="1" spans="1:7">
-      <c r="A353" s="169"/>
-      <c r="B353" s="168"/>
+      <c r="A353" s="170"/>
+      <c r="B353" s="169"/>
       <c r="C353" s="22"/>
       <c r="D353" s="22"/>
       <c r="E353" s="22"/>
       <c r="F353" s="22"/>
-      <c r="G353" s="190" t="s">
-        <v>337</v>
+      <c r="G353" s="191" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="354" s="22" customFormat="1" spans="1:7">
-      <c r="A354" s="169"/>
-      <c r="B354" s="168"/>
+      <c r="A354" s="170"/>
+      <c r="B354" s="169"/>
       <c r="C354" s="22"/>
       <c r="D354" s="22"/>
       <c r="E354" s="22"/>
       <c r="F354" s="22"/>
-      <c r="G354" s="189"/>
+      <c r="G354" s="190"/>
     </row>
     <row r="355" s="22" customFormat="1" spans="1:7">
-      <c r="A355" s="169"/>
-      <c r="B355" s="168"/>
+      <c r="A355" s="170"/>
+      <c r="B355" s="169"/>
       <c r="C355" s="22"/>
       <c r="D355" s="22"/>
       <c r="E355" s="22"/>
       <c r="F355" s="22"/>
-      <c r="G355" s="189"/>
+      <c r="G355" s="190"/>
     </row>
     <row r="356" s="22" customFormat="1" spans="1:7">
-      <c r="A356" s="169"/>
-      <c r="B356" s="168"/>
+      <c r="A356" s="170"/>
+      <c r="B356" s="169"/>
       <c r="C356" s="22"/>
       <c r="D356" s="22"/>
       <c r="E356" s="22"/>
       <c r="F356" s="22"/>
-      <c r="G356" s="189"/>
+      <c r="G356" s="190"/>
     </row>
     <row r="357" s="23" customFormat="1" spans="1:7">
-      <c r="A357" s="170" t="s">
-        <v>338</v>
-      </c>
-      <c r="B357" s="171"/>
-      <c r="G357" s="191" t="s">
-        <v>339</v>
+      <c r="A357" s="171" t="s">
+        <v>345</v>
+      </c>
+      <c r="B357" s="172"/>
+      <c r="G357" s="192" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="358" s="23" customFormat="1" spans="1:7">
-      <c r="A358" s="172"/>
-      <c r="B358" s="171"/>
-      <c r="G358" s="191" t="s">
-        <v>340</v>
+      <c r="A358" s="173"/>
+      <c r="B358" s="172"/>
+      <c r="G358" s="192" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="359" s="23" customFormat="1" spans="1:7">
-      <c r="A359" s="172"/>
-      <c r="B359" s="171"/>
-      <c r="G359" s="192"/>
+      <c r="A359" s="173"/>
+      <c r="B359" s="172"/>
+      <c r="G359" s="193"/>
     </row>
     <row r="360" s="23" customFormat="1" spans="1:7">
-      <c r="A360" s="172"/>
-      <c r="B360" s="171"/>
-      <c r="G360" s="192"/>
+      <c r="A360" s="173"/>
+      <c r="B360" s="172"/>
+      <c r="G360" s="193"/>
     </row>
     <row r="361" s="23" customFormat="1" spans="1:7">
-      <c r="A361" s="172"/>
-      <c r="B361" s="171"/>
-      <c r="G361" s="192"/>
+      <c r="A361" s="173"/>
+      <c r="B361" s="172"/>
+      <c r="G361" s="193"/>
     </row>
     <row r="362" s="23" customFormat="1" spans="1:7">
-      <c r="A362" s="173" t="s">
-        <v>341</v>
-      </c>
-      <c r="G362" s="191" t="s">
-        <v>342</v>
+      <c r="A362" s="174" t="s">
+        <v>348</v>
+      </c>
+      <c r="G362" s="192" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="363" s="23" customFormat="1" spans="1:7">
-      <c r="A363" s="174"/>
-      <c r="G363" s="191" t="s">
-        <v>343</v>
+      <c r="A363" s="175"/>
+      <c r="G363" s="192" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="364" s="23" customFormat="1" spans="1:7">
-      <c r="A364" s="174"/>
-      <c r="G364" s="192"/>
+      <c r="A364" s="175"/>
+      <c r="G364" s="193"/>
     </row>
     <row r="365" s="23" customFormat="1" spans="1:7">
-      <c r="A365" s="174"/>
-      <c r="G365" s="192"/>
+      <c r="A365" s="175"/>
+      <c r="G365" s="193"/>
     </row>
     <row r="366" s="23" customFormat="1" spans="1:7">
-      <c r="A366" s="175"/>
-      <c r="G366" s="192"/>
+      <c r="A366" s="176"/>
+      <c r="G366" s="193"/>
     </row>
     <row r="367" hidden="1"/>
     <row r="368" hidden="1"/>
@@ -7342,255 +7426,255 @@
     <row r="370" hidden="1"/>
     <row r="371" hidden="1"/>
     <row r="372" s="22" customFormat="1" spans="1:7">
-      <c r="A372" s="176" t="s">
-        <v>344</v>
-      </c>
-      <c r="G372" s="190" t="s">
-        <v>345</v>
+      <c r="A372" s="177" t="s">
+        <v>351</v>
+      </c>
+      <c r="G372" s="191" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="373" s="22" customFormat="1" spans="1:7">
-      <c r="A373" s="177"/>
-      <c r="G373" s="190" t="s">
-        <v>346</v>
+      <c r="A373" s="178"/>
+      <c r="G373" s="191" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="374" s="22" customFormat="1" spans="1:7">
-      <c r="A374" s="177"/>
-      <c r="G374" s="189"/>
+      <c r="A374" s="178"/>
+      <c r="G374" s="190"/>
     </row>
     <row r="375" s="22" customFormat="1" spans="1:7">
-      <c r="A375" s="177"/>
-      <c r="G375" s="189"/>
+      <c r="A375" s="178"/>
+      <c r="G375" s="190"/>
     </row>
     <row r="376" s="22" customFormat="1" spans="1:7">
-      <c r="A376" s="178"/>
-      <c r="G376" s="189"/>
+      <c r="A376" s="179"/>
+      <c r="G376" s="190"/>
     </row>
     <row r="377" s="22" customFormat="1" spans="1:7">
-      <c r="A377" s="179" t="s">
-        <v>347</v>
-      </c>
-      <c r="B377" s="168"/>
-      <c r="G377" s="190" t="s">
-        <v>348</v>
+      <c r="A377" s="180" t="s">
+        <v>354</v>
+      </c>
+      <c r="B377" s="169"/>
+      <c r="G377" s="191" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="378" s="22" customFormat="1" spans="1:7">
-      <c r="A378" s="180"/>
-      <c r="B378" s="168"/>
-      <c r="G378" s="190" t="s">
-        <v>343</v>
+      <c r="A378" s="181"/>
+      <c r="B378" s="169"/>
+      <c r="G378" s="191" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="379" s="22" customFormat="1" spans="1:7">
-      <c r="A379" s="180"/>
-      <c r="B379" s="168"/>
-      <c r="G379" s="189"/>
+      <c r="A379" s="181"/>
+      <c r="B379" s="169"/>
+      <c r="G379" s="190"/>
     </row>
     <row r="380" s="22" customFormat="1" spans="1:7">
-      <c r="A380" s="180"/>
-      <c r="B380" s="168"/>
-      <c r="G380" s="189"/>
+      <c r="A380" s="181"/>
+      <c r="B380" s="169"/>
+      <c r="G380" s="190"/>
     </row>
     <row r="381" s="22" customFormat="1" spans="1:7">
-      <c r="A381" s="180"/>
-      <c r="B381" s="168"/>
-      <c r="G381" s="189"/>
+      <c r="A381" s="181"/>
+      <c r="B381" s="169"/>
+      <c r="G381" s="190"/>
     </row>
     <row r="382" s="22" customFormat="1" spans="1:7">
-      <c r="A382" s="181" t="s">
-        <v>349</v>
-      </c>
-      <c r="B382" s="168"/>
-      <c r="G382" s="189" t="s">
-        <v>350</v>
+      <c r="A382" s="182" t="s">
+        <v>356</v>
+      </c>
+      <c r="B382" s="169"/>
+      <c r="G382" s="190" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="383" s="22" customFormat="1" spans="1:7">
-      <c r="A383" s="182"/>
-      <c r="B383" s="168"/>
-      <c r="G383" s="190" t="s">
-        <v>351</v>
+      <c r="A383" s="183"/>
+      <c r="B383" s="169"/>
+      <c r="G383" s="191" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="384" s="22" customFormat="1" spans="1:7">
-      <c r="A384" s="182"/>
-      <c r="B384" s="168"/>
-      <c r="G384" s="189"/>
+      <c r="A384" s="183"/>
+      <c r="B384" s="169"/>
+      <c r="G384" s="190"/>
     </row>
     <row r="385" s="22" customFormat="1" spans="1:7">
-      <c r="A385" s="182"/>
-      <c r="B385" s="168"/>
-      <c r="G385" s="189"/>
+      <c r="A385" s="183"/>
+      <c r="B385" s="169"/>
+      <c r="G385" s="190"/>
     </row>
     <row r="386" s="22" customFormat="1" spans="1:7">
-      <c r="A386" s="193"/>
-      <c r="B386" s="168"/>
-      <c r="G386" s="189"/>
+      <c r="A386" s="194"/>
+      <c r="B386" s="169"/>
+      <c r="G386" s="190"/>
     </row>
     <row r="387" s="6" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A387" s="98" t="s">
-        <v>352</v>
-      </c>
-      <c r="B387" s="194"/>
+      <c r="A387" s="195" t="s">
+        <v>359</v>
+      </c>
+      <c r="B387" s="196"/>
       <c r="G387" s="64" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="388" s="6" customFormat="1" spans="1:7">
       <c r="A388" s="10"/>
-      <c r="B388" s="194"/>
-      <c r="G388" s="144" t="s">
-        <v>354</v>
+      <c r="B388" s="196"/>
+      <c r="G388" s="145" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="389" s="6" customFormat="1" spans="1:7">
       <c r="A389" s="10"/>
-      <c r="B389" s="194"/>
+      <c r="B389" s="196"/>
       <c r="G389" s="65"/>
     </row>
     <row r="390" s="6" customFormat="1" spans="1:7">
       <c r="A390" s="10"/>
-      <c r="B390" s="194"/>
+      <c r="B390" s="196"/>
       <c r="G390" s="65"/>
     </row>
     <row r="391" s="6" customFormat="1" spans="1:7">
       <c r="A391" s="10"/>
-      <c r="B391" s="194"/>
+      <c r="B391" s="196"/>
       <c r="G391" s="65"/>
     </row>
     <row r="392" s="6" customFormat="1" spans="1:7">
       <c r="A392" s="97" t="s">
-        <v>355</v>
-      </c>
-      <c r="B392" s="194"/>
-      <c r="G392" s="144" t="s">
-        <v>356</v>
+        <v>362</v>
+      </c>
+      <c r="B392" s="196"/>
+      <c r="G392" s="145" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="393" s="6" customFormat="1" spans="1:7">
       <c r="A393" s="10"/>
-      <c r="B393" s="194"/>
+      <c r="B393" s="196"/>
       <c r="G393" s="65" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="394" s="6" customFormat="1" spans="1:7">
       <c r="A394" s="10"/>
-      <c r="B394" s="194"/>
+      <c r="B394" s="196"/>
       <c r="G394" s="65"/>
     </row>
     <row r="395" s="6" customFormat="1" spans="1:7">
       <c r="A395" s="10"/>
-      <c r="B395" s="194"/>
+      <c r="B395" s="196"/>
       <c r="G395" s="65"/>
     </row>
     <row r="396" s="6" customFormat="1" spans="1:7">
       <c r="A396" s="10"/>
-      <c r="B396" s="194"/>
+      <c r="B396" s="196"/>
       <c r="G396" s="65"/>
     </row>
     <row r="397" s="23" customFormat="1" spans="1:7">
-      <c r="A397" s="179" t="s">
-        <v>358</v>
-      </c>
-      <c r="B397" s="171"/>
-      <c r="G397" s="191" t="s">
-        <v>359</v>
+      <c r="A397" s="180" t="s">
+        <v>365</v>
+      </c>
+      <c r="B397" s="172"/>
+      <c r="G397" s="192" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="398" s="23" customFormat="1" spans="1:7">
-      <c r="A398" s="180"/>
-      <c r="B398" s="171"/>
-      <c r="G398" s="191" t="s">
+      <c r="A398" s="181"/>
+      <c r="B398" s="172"/>
+      <c r="G398" s="192" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="399" s="23" customFormat="1" spans="1:7">
+      <c r="A399" s="181"/>
+      <c r="B399" s="172"/>
+      <c r="G399" s="193"/>
+    </row>
+    <row r="400" s="23" customFormat="1" spans="1:7">
+      <c r="A400" s="181"/>
+      <c r="B400" s="172"/>
+      <c r="G400" s="193"/>
+    </row>
+    <row r="401" s="23" customFormat="1" spans="1:7">
+      <c r="A401" s="181"/>
+      <c r="B401" s="172"/>
+      <c r="G401" s="193"/>
+    </row>
+    <row r="402" s="23" customFormat="1" spans="1:7">
+      <c r="A402" s="197" t="s">
+        <v>368</v>
+      </c>
+      <c r="B402" s="172"/>
+      <c r="G402" s="193" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="403" s="23" customFormat="1" spans="1:7">
+      <c r="A403" s="178"/>
+      <c r="B403" s="172"/>
+      <c r="G403" s="192" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="404" s="23" customFormat="1" spans="1:7">
+      <c r="A404" s="178"/>
+      <c r="B404" s="172"/>
+      <c r="G404" s="193"/>
+    </row>
+    <row r="405" s="23" customFormat="1" spans="1:7">
+      <c r="A405" s="178"/>
+      <c r="B405" s="172"/>
+      <c r="G405" s="193"/>
+    </row>
+    <row r="406" s="23" customFormat="1" spans="1:7">
+      <c r="A406" s="178"/>
+      <c r="B406" s="172"/>
+      <c r="G406" s="193"/>
+    </row>
+    <row r="407" s="23" customFormat="1" spans="1:7">
+      <c r="A407" s="174" t="s">
+        <v>371</v>
+      </c>
+      <c r="G407" s="192" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="408" s="23" customFormat="1" spans="1:7">
+      <c r="A408" s="175"/>
+      <c r="G408" s="192" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="409" s="23" customFormat="1" spans="1:7">
+      <c r="A409" s="175"/>
+      <c r="G409" s="193"/>
+    </row>
+    <row r="410" s="23" customFormat="1" spans="1:7">
+      <c r="A410" s="175"/>
+      <c r="G410" s="193"/>
+    </row>
+    <row r="411" s="23" customFormat="1" spans="1:7">
+      <c r="A411" s="176"/>
+      <c r="G411" s="193"/>
+    </row>
+    <row r="412" s="2" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A412" s="198" t="s">
+        <v>374</v>
+      </c>
+      <c r="G412" s="56" t="s">
         <v>360</v>
-      </c>
-    </row>
-    <row r="399" s="23" customFormat="1" spans="1:7">
-      <c r="A399" s="180"/>
-      <c r="B399" s="171"/>
-      <c r="G399" s="192"/>
-    </row>
-    <row r="400" s="23" customFormat="1" spans="1:7">
-      <c r="A400" s="180"/>
-      <c r="B400" s="171"/>
-      <c r="G400" s="192"/>
-    </row>
-    <row r="401" s="23" customFormat="1" spans="1:7">
-      <c r="A401" s="180"/>
-      <c r="B401" s="171"/>
-      <c r="G401" s="192"/>
-    </row>
-    <row r="402" s="23" customFormat="1" spans="1:7">
-      <c r="A402" s="195" t="s">
-        <v>361</v>
-      </c>
-      <c r="B402" s="171"/>
-      <c r="G402" s="192" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="403" s="23" customFormat="1" spans="1:7">
-      <c r="A403" s="177"/>
-      <c r="B403" s="171"/>
-      <c r="G403" s="192" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="404" s="23" customFormat="1" spans="1:7">
-      <c r="A404" s="177"/>
-      <c r="B404" s="171"/>
-      <c r="G404" s="192"/>
-    </row>
-    <row r="405" s="23" customFormat="1" spans="1:7">
-      <c r="A405" s="177"/>
-      <c r="B405" s="171"/>
-      <c r="G405" s="192"/>
-    </row>
-    <row r="406" s="23" customFormat="1" spans="1:7">
-      <c r="A406" s="177"/>
-      <c r="B406" s="171"/>
-      <c r="G406" s="192"/>
-    </row>
-    <row r="407" s="23" customFormat="1" spans="1:7">
-      <c r="A407" s="173" t="s">
-        <v>364</v>
-      </c>
-      <c r="G407" s="191" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="408" s="23" customFormat="1" spans="1:7">
-      <c r="A408" s="174"/>
-      <c r="G408" s="191" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="409" s="23" customFormat="1" spans="1:7">
-      <c r="A409" s="174"/>
-      <c r="G409" s="192"/>
-    </row>
-    <row r="410" s="23" customFormat="1" spans="1:7">
-      <c r="A410" s="174"/>
-      <c r="G410" s="192"/>
-    </row>
-    <row r="411" s="23" customFormat="1" spans="1:7">
-      <c r="A411" s="175"/>
-      <c r="G411" s="192"/>
-    </row>
-    <row r="412" s="2" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A412" s="196" t="s">
-        <v>367</v>
-      </c>
-      <c r="G412" s="56" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="413" s="2" customFormat="1" spans="1:7">
       <c r="A413" s="73"/>
-      <c r="G413" s="183" t="s">
-        <v>368</v>
+      <c r="G413" s="185" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="414" s="2" customFormat="1" spans="1:7">
@@ -7606,11 +7690,11 @@
       <c r="G416" s="55"/>
     </row>
     <row r="417" s="2" customFormat="1" spans="1:7">
-      <c r="A417" s="197" t="s">
-        <v>369</v>
-      </c>
-      <c r="G417" s="183" t="s">
-        <v>370</v>
+      <c r="A417" s="199" t="s">
+        <v>376</v>
+      </c>
+      <c r="G417" s="185" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="418" s="2" customFormat="1" spans="1:7">
@@ -7630,438 +7714,450 @@
       <c r="G421" s="55"/>
     </row>
     <row r="422" s="23" customFormat="1" spans="1:7">
-      <c r="A422" s="173" t="s">
-        <v>371</v>
-      </c>
-      <c r="G422" s="191" t="s">
-        <v>372</v>
+      <c r="A422" s="174" t="s">
+        <v>378</v>
+      </c>
+      <c r="G422" s="192" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="423" s="23" customFormat="1" spans="1:7">
-      <c r="A423" s="174"/>
-      <c r="G423" s="192"/>
+      <c r="A423" s="175"/>
+      <c r="G423" s="193"/>
     </row>
     <row r="424" s="23" customFormat="1" spans="1:7">
-      <c r="A424" s="174"/>
-      <c r="G424" s="192"/>
+      <c r="A424" s="175"/>
+      <c r="G424" s="193"/>
     </row>
     <row r="425" s="23" customFormat="1" spans="1:7">
-      <c r="A425" s="174"/>
-      <c r="G425" s="192"/>
+      <c r="A425" s="175"/>
+      <c r="G425" s="193"/>
     </row>
     <row r="426" s="23" customFormat="1" spans="1:7">
-      <c r="A426" s="174"/>
-      <c r="G426" s="192"/>
+      <c r="A426" s="175"/>
+      <c r="G426" s="193"/>
     </row>
     <row r="427" s="3" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A427" s="198" t="s">
-        <v>373</v>
-      </c>
-      <c r="B427" s="199"/>
+      <c r="A427" s="200" t="s">
+        <v>380</v>
+      </c>
+      <c r="B427" s="201"/>
       <c r="G427" s="58" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="428" s="3" customFormat="1" spans="1:7">
-      <c r="A428" s="165"/>
-      <c r="B428" s="199"/>
-      <c r="G428" s="201" t="s">
-        <v>374</v>
+      <c r="A428" s="166"/>
+      <c r="B428" s="201"/>
+      <c r="G428" s="203" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="429" s="3" customFormat="1" spans="1:7">
-      <c r="A429" s="165"/>
-      <c r="B429" s="199"/>
+      <c r="A429" s="166"/>
+      <c r="B429" s="201"/>
       <c r="G429" s="59"/>
     </row>
     <row r="430" s="3" customFormat="1" spans="1:7">
-      <c r="A430" s="165"/>
-      <c r="B430" s="199"/>
+      <c r="A430" s="166"/>
+      <c r="B430" s="201"/>
       <c r="G430" s="59"/>
     </row>
     <row r="431" s="3" customFormat="1" spans="1:7">
-      <c r="A431" s="165"/>
-      <c r="B431" s="199"/>
+      <c r="A431" s="166"/>
+      <c r="B431" s="201"/>
       <c r="G431" s="59"/>
     </row>
     <row r="432" s="3" customFormat="1" spans="1:7">
-      <c r="A432" s="163" t="s">
-        <v>375</v>
-      </c>
-      <c r="B432" s="199"/>
-      <c r="G432" s="201" t="s">
-        <v>376</v>
+      <c r="A432" s="164" t="s">
+        <v>382</v>
+      </c>
+      <c r="B432" s="201"/>
+      <c r="G432" s="203" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="433" s="3" customFormat="1" spans="1:7">
-      <c r="A433" s="165"/>
-      <c r="B433" s="199"/>
+      <c r="A433" s="166"/>
+      <c r="B433" s="201"/>
       <c r="G433" s="59"/>
     </row>
     <row r="434" s="3" customFormat="1" spans="1:7">
-      <c r="A434" s="165"/>
-      <c r="B434" s="199"/>
+      <c r="A434" s="166"/>
+      <c r="B434" s="201"/>
       <c r="G434" s="59"/>
     </row>
     <row r="435" s="3" customFormat="1" spans="1:7">
-      <c r="A435" s="165"/>
-      <c r="B435" s="199"/>
+      <c r="A435" s="166"/>
+      <c r="B435" s="201"/>
       <c r="G435" s="59"/>
     </row>
     <row r="436" s="3" customFormat="1" spans="1:7">
-      <c r="A436" s="165"/>
-      <c r="B436" s="199"/>
+      <c r="A436" s="166"/>
+      <c r="B436" s="201"/>
       <c r="G436" s="59"/>
     </row>
     <row r="437" s="23" customFormat="1" spans="1:7">
-      <c r="A437" s="179" t="s">
-        <v>377</v>
-      </c>
-      <c r="B437" s="171"/>
-      <c r="G437" s="191" t="s">
-        <v>378</v>
+      <c r="A437" s="180" t="s">
+        <v>384</v>
+      </c>
+      <c r="B437" s="172"/>
+      <c r="G437" s="192" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="438" s="23" customFormat="1" spans="1:7">
-      <c r="A438" s="180"/>
-      <c r="B438" s="171"/>
-      <c r="G438" s="192" t="s">
-        <v>379</v>
+      <c r="A438" s="181"/>
+      <c r="B438" s="172"/>
+      <c r="G438" s="193" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="439" s="23" customFormat="1" spans="1:7">
-      <c r="A439" s="180"/>
-      <c r="B439" s="171"/>
-      <c r="G439" s="192"/>
+      <c r="A439" s="181"/>
+      <c r="B439" s="172"/>
+      <c r="G439" s="192" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="440" s="23" customFormat="1" spans="1:7">
-      <c r="A440" s="180"/>
-      <c r="B440" s="171"/>
-      <c r="G440" s="192"/>
+      <c r="A440" s="181"/>
+      <c r="B440" s="172"/>
+      <c r="G440" s="193"/>
     </row>
     <row r="441" s="23" customFormat="1" spans="1:7">
-      <c r="A441" s="180"/>
-      <c r="B441" s="171"/>
-      <c r="G441" s="192"/>
+      <c r="A441" s="181"/>
+      <c r="B441" s="172"/>
+      <c r="G441" s="193"/>
     </row>
     <row r="442" s="23" customFormat="1" spans="1:7">
-      <c r="A442" s="200" t="s">
-        <v>380</v>
-      </c>
-      <c r="G442" s="191" t="s">
-        <v>381</v>
+      <c r="A442" s="202" t="s">
+        <v>388</v>
+      </c>
+      <c r="G442" s="192" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="443" s="23" customFormat="1" spans="1:7">
-      <c r="A443" s="174"/>
-      <c r="G443" s="191" t="s">
-        <v>382</v>
+      <c r="A443" s="175"/>
+      <c r="G443" s="192" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="444" s="23" customFormat="1" spans="1:7">
-      <c r="A444" s="174"/>
-      <c r="G444" s="192"/>
+      <c r="A444" s="175"/>
+      <c r="G444" s="193"/>
     </row>
     <row r="445" s="23" customFormat="1" spans="1:7">
-      <c r="A445" s="174"/>
-      <c r="G445" s="192"/>
+      <c r="A445" s="175"/>
+      <c r="G445" s="193"/>
     </row>
     <row r="446" s="23" customFormat="1" spans="1:7">
-      <c r="A446" s="175"/>
-      <c r="G446" s="192"/>
+      <c r="A446" s="176"/>
+      <c r="G446" s="193"/>
     </row>
     <row r="447" s="23" customFormat="1" spans="1:7">
-      <c r="A447" s="173" t="s">
-        <v>383</v>
-      </c>
-      <c r="G447" s="191" t="s">
-        <v>384</v>
+      <c r="A447" s="174" t="s">
+        <v>391</v>
+      </c>
+      <c r="G447" s="192" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="448" s="23" customFormat="1" spans="1:7">
-      <c r="A448" s="174"/>
-      <c r="G448" s="191" t="s">
-        <v>385</v>
+      <c r="A448" s="175"/>
+      <c r="G448" s="192" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="449" s="23" customFormat="1" spans="1:7">
-      <c r="A449" s="174"/>
-      <c r="G449" s="192"/>
+      <c r="A449" s="175"/>
+      <c r="G449" s="193"/>
     </row>
     <row r="450" s="23" customFormat="1" spans="1:7">
-      <c r="A450" s="174"/>
-      <c r="G450" s="192"/>
+      <c r="A450" s="175"/>
+      <c r="G450" s="193"/>
     </row>
     <row r="451" s="23" customFormat="1" spans="1:7">
-      <c r="A451" s="175"/>
-      <c r="G451" s="192"/>
+      <c r="A451" s="176"/>
+      <c r="G451" s="193"/>
     </row>
     <row r="452" s="23" customFormat="1" spans="1:7">
-      <c r="A452" s="202" t="s">
-        <v>386</v>
-      </c>
-      <c r="G452" s="192" t="s">
-        <v>387</v>
+      <c r="A452" s="204" t="s">
+        <v>394</v>
+      </c>
+      <c r="G452" s="193" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="453" s="23" customFormat="1" spans="1:7">
-      <c r="A453" s="174"/>
-      <c r="G453" s="192" t="s">
-        <v>388</v>
+      <c r="A453" s="175"/>
+      <c r="G453" s="193" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="454" s="23" customFormat="1" spans="1:7">
-      <c r="A454" s="174"/>
-      <c r="G454" s="192"/>
+      <c r="A454" s="175"/>
+      <c r="G454" s="193"/>
     </row>
     <row r="455" s="23" customFormat="1" spans="1:7">
-      <c r="A455" s="174"/>
-      <c r="G455" s="192"/>
+      <c r="A455" s="175"/>
+      <c r="G455" s="193"/>
     </row>
     <row r="456" s="23" customFormat="1" spans="1:7">
-      <c r="A456" s="174"/>
-      <c r="G456" s="192"/>
+      <c r="A456" s="175"/>
+      <c r="G456" s="193"/>
     </row>
     <row r="457" s="23" customFormat="1" spans="1:7">
-      <c r="A457" s="173" t="s">
-        <v>389</v>
-      </c>
-      <c r="G457" s="191" t="s">
-        <v>390</v>
+      <c r="A457" s="174" t="s">
+        <v>397</v>
+      </c>
+      <c r="G457" s="192" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="458" s="23" customFormat="1" spans="1:7">
-      <c r="A458" s="174"/>
-      <c r="G458" s="191" t="s">
-        <v>391</v>
+      <c r="A458" s="175"/>
+      <c r="G458" s="192" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="459" s="23" customFormat="1" spans="1:7">
-      <c r="A459" s="174"/>
-      <c r="G459" s="192"/>
+      <c r="A459" s="175"/>
+      <c r="G459" s="192" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="460" s="23" customFormat="1" spans="1:7">
-      <c r="A460" s="174"/>
-      <c r="G460" s="192"/>
+      <c r="A460" s="175"/>
+      <c r="G460" s="193"/>
     </row>
     <row r="461" s="23" customFormat="1" spans="1:7">
-      <c r="A461" s="175"/>
-      <c r="G461" s="192"/>
+      <c r="A461" s="176"/>
+      <c r="G461" s="193"/>
     </row>
     <row r="462" s="23" customFormat="1" spans="1:7">
-      <c r="A462" s="173" t="s">
-        <v>392</v>
-      </c>
-      <c r="G462" s="191" t="s">
-        <v>393</v>
+      <c r="A462" s="174" t="s">
+        <v>401</v>
+      </c>
+      <c r="G462" s="192" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="463" s="23" customFormat="1" spans="1:7">
-      <c r="A463" s="174"/>
-      <c r="G463" s="191" t="s">
-        <v>394</v>
+      <c r="A463" s="175"/>
+      <c r="G463" s="192" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="464" s="23" customFormat="1" spans="1:7">
-      <c r="A464" s="174"/>
-      <c r="G464" s="192"/>
+      <c r="A464" s="175"/>
+      <c r="G464" s="192" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="465" s="23" customFormat="1" spans="1:7">
-      <c r="A465" s="174"/>
-      <c r="G465" s="192"/>
+      <c r="A465" s="175"/>
+      <c r="G465" s="193"/>
     </row>
     <row r="466" s="23" customFormat="1" spans="1:7">
-      <c r="A466" s="175"/>
-      <c r="G466" s="192"/>
+      <c r="A466" s="176"/>
+      <c r="G466" s="193"/>
     </row>
     <row r="467" s="23" customFormat="1" spans="1:7">
-      <c r="A467" s="202" t="s">
-        <v>395</v>
-      </c>
-      <c r="G467" s="192" t="s">
-        <v>396</v>
+      <c r="A467" s="204" t="s">
+        <v>405</v>
+      </c>
+      <c r="G467" s="193" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="468" s="23" customFormat="1" spans="1:7">
-      <c r="A468" s="174"/>
-      <c r="G468" s="192" t="s">
-        <v>397</v>
+      <c r="A468" s="175"/>
+      <c r="G468" s="193" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="469" s="23" customFormat="1" spans="1:7">
-      <c r="A469" s="174"/>
-      <c r="G469" s="192"/>
+      <c r="A469" s="175"/>
+      <c r="G469" s="192" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="470" s="23" customFormat="1" spans="1:7">
-      <c r="A470" s="174"/>
-      <c r="G470" s="192"/>
+      <c r="A470" s="175"/>
+      <c r="G470" s="193"/>
     </row>
     <row r="471" s="23" customFormat="1" spans="1:7">
-      <c r="A471" s="174"/>
-      <c r="G471" s="192"/>
+      <c r="A471" s="175"/>
+      <c r="G471" s="193"/>
     </row>
     <row r="472" s="23" customFormat="1" spans="1:7">
-      <c r="A472" s="203" t="s">
-        <v>398</v>
-      </c>
-      <c r="B472" s="171"/>
-      <c r="G472" s="192" t="s">
-        <v>399</v>
+      <c r="A472" s="205" t="s">
+        <v>409</v>
+      </c>
+      <c r="B472" s="172"/>
+      <c r="G472" s="193" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="473" s="23" customFormat="1" spans="1:7">
-      <c r="A473" s="180"/>
-      <c r="B473" s="171"/>
-      <c r="G473" s="191" t="s">
-        <v>400</v>
+      <c r="A473" s="181"/>
+      <c r="B473" s="172"/>
+      <c r="G473" s="192" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="474" s="23" customFormat="1" spans="1:7">
-      <c r="A474" s="180"/>
-      <c r="B474" s="171"/>
-      <c r="G474" s="192"/>
+      <c r="A474" s="181"/>
+      <c r="B474" s="172"/>
+      <c r="G474" s="192" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="475" s="23" customFormat="1" spans="1:7">
-      <c r="A475" s="180"/>
-      <c r="B475" s="171"/>
-      <c r="G475" s="192"/>
+      <c r="A475" s="181"/>
+      <c r="B475" s="172"/>
+      <c r="G475" s="193"/>
     </row>
     <row r="476" s="23" customFormat="1" spans="1:7">
-      <c r="A476" s="180"/>
-      <c r="B476" s="171"/>
-      <c r="G476" s="192"/>
+      <c r="A476" s="181"/>
+      <c r="B476" s="172"/>
+      <c r="G476" s="193"/>
     </row>
     <row r="477" s="23" customFormat="1" spans="1:7">
-      <c r="A477" s="203" t="s">
-        <v>401</v>
-      </c>
-      <c r="B477" s="171"/>
-      <c r="G477" s="192" t="s">
-        <v>402</v>
+      <c r="A477" s="205" t="s">
+        <v>413</v>
+      </c>
+      <c r="B477" s="172"/>
+      <c r="G477" s="193" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="478" s="23" customFormat="1" spans="1:7">
-      <c r="A478" s="180"/>
-      <c r="B478" s="171"/>
+      <c r="A478" s="181"/>
+      <c r="B478" s="172"/>
       <c r="G478" s="192" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="479" s="23" customFormat="1" spans="1:7">
-      <c r="A479" s="180"/>
-      <c r="B479" s="171"/>
-      <c r="G479" s="192"/>
+      <c r="A479" s="181"/>
+      <c r="B479" s="172"/>
+      <c r="G479" s="193"/>
     </row>
     <row r="480" s="23" customFormat="1" spans="1:7">
-      <c r="A480" s="180"/>
-      <c r="B480" s="171"/>
-      <c r="G480" s="192"/>
+      <c r="A480" s="181"/>
+      <c r="B480" s="172"/>
+      <c r="G480" s="193"/>
     </row>
     <row r="481" s="23" customFormat="1" spans="1:7">
-      <c r="A481" s="180"/>
-      <c r="B481" s="171"/>
-      <c r="G481" s="192"/>
+      <c r="A481" s="181"/>
+      <c r="B481" s="172"/>
+      <c r="G481" s="193"/>
     </row>
     <row r="482" s="23" customFormat="1" spans="1:7">
-      <c r="A482" s="203" t="s">
-        <v>404</v>
-      </c>
-      <c r="B482" s="171"/>
-      <c r="G482" s="192" t="s">
-        <v>405</v>
+      <c r="A482" s="205" t="s">
+        <v>416</v>
+      </c>
+      <c r="B482" s="172"/>
+      <c r="G482" s="193" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="483" s="23" customFormat="1" spans="1:7">
-      <c r="A483" s="180"/>
-      <c r="B483" s="171"/>
-      <c r="G483" s="192" t="s">
-        <v>406</v>
+      <c r="A483" s="181"/>
+      <c r="B483" s="172"/>
+      <c r="G483" s="193" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="484" s="23" customFormat="1" spans="1:7">
-      <c r="A484" s="180"/>
-      <c r="B484" s="171"/>
-      <c r="G484" s="192"/>
+      <c r="A484" s="181"/>
+      <c r="B484" s="172"/>
+      <c r="G484" s="192" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="485" s="23" customFormat="1" spans="1:7">
-      <c r="A485" s="180"/>
-      <c r="B485" s="171"/>
-      <c r="G485" s="192"/>
+      <c r="A485" s="181"/>
+      <c r="B485" s="172"/>
+      <c r="G485" s="193"/>
     </row>
     <row r="486" s="23" customFormat="1" spans="1:7">
-      <c r="A486" s="180"/>
-      <c r="B486" s="171"/>
-      <c r="G486" s="192"/>
+      <c r="A486" s="181"/>
+      <c r="B486" s="172"/>
+      <c r="G486" s="193"/>
     </row>
     <row r="487" s="23" customFormat="1" spans="1:7">
-      <c r="A487" s="200" t="s">
-        <v>407</v>
-      </c>
-      <c r="G487" s="191" t="s">
-        <v>408</v>
+      <c r="A487" s="202" t="s">
+        <v>420</v>
+      </c>
+      <c r="G487" s="192" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="488" s="23" customFormat="1" spans="1:7">
-      <c r="A488" s="174"/>
-      <c r="G488" s="191" t="s">
-        <v>409</v>
+      <c r="A488" s="175"/>
+      <c r="G488" s="192" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="489" s="23" customFormat="1" spans="1:7">
-      <c r="A489" s="174"/>
-      <c r="G489" s="192"/>
+      <c r="A489" s="175"/>
+      <c r="G489" s="193"/>
     </row>
     <row r="490" s="23" customFormat="1" spans="1:7">
-      <c r="A490" s="174"/>
-      <c r="G490" s="192"/>
+      <c r="A490" s="175"/>
+      <c r="G490" s="193"/>
     </row>
     <row r="491" s="23" customFormat="1" spans="1:7">
-      <c r="A491" s="175"/>
-      <c r="G491" s="192"/>
+      <c r="A491" s="176"/>
+      <c r="G491" s="193"/>
     </row>
     <row r="492" ht="66" spans="1:7">
-      <c r="A492" s="173" t="s">
-        <v>410</v>
-      </c>
-      <c r="G492" s="207" t="s">
-        <v>411</v>
+      <c r="A492" s="174" t="s">
+        <v>423</v>
+      </c>
+      <c r="G492" s="209" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="493" spans="1:1">
-      <c r="A493" s="174"/>
+      <c r="A493" s="175"/>
     </row>
     <row r="494" spans="1:1">
-      <c r="A494" s="174"/>
+      <c r="A494" s="175"/>
     </row>
     <row r="495" spans="1:1">
-      <c r="A495" s="174"/>
+      <c r="A495" s="175"/>
     </row>
     <row r="496" spans="1:1">
-      <c r="A496" s="175"/>
+      <c r="A496" s="176"/>
     </row>
     <row r="497" spans="1:7">
-      <c r="A497" s="204" t="s">
-        <v>412</v>
-      </c>
-      <c r="G497" s="208" t="s">
-        <v>413</v>
+      <c r="A497" s="206" t="s">
+        <v>425</v>
+      </c>
+      <c r="G497" s="210" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="498" ht="33" spans="1:7">
-      <c r="A498" s="205"/>
-      <c r="G498" s="208" t="s">
-        <v>414</v>
+      <c r="A498" s="207"/>
+      <c r="G498" s="210" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="499" spans="1:7">
-      <c r="A499" s="205"/>
-      <c r="G499" s="209"/>
+      <c r="A499" s="207"/>
+      <c r="G499" s="211"/>
     </row>
     <row r="500" spans="1:1">
-      <c r="A500" s="205"/>
+      <c r="A500" s="207"/>
     </row>
     <row r="501" spans="1:1">
-      <c r="A501" s="206"/>
+      <c r="A501" s="208"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
